--- a/docs/NL CE-Relevant Data.xlsx
+++ b/docs/NL CE-Relevant Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="825">
   <si>
     <t>Title</t>
   </si>
@@ -2460,6 +2460,48 @@
   </si>
   <si>
     <t>https://www.canal.gov.nl.ca/reports/frm/PI_Maps/Stephenville%20PI%20Map.pdf</t>
+  </si>
+  <si>
+    <t>Hydrotechnical Study of Stephenville (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood risk study of the Stephenville and Cold Brook areas completed as part of the flood risk mapping program, featuring: AutoCAD drawings. These are digital versions of the large scale engineering maps, usually at a 1:2500 scale, used to accurately delineate the flood risk area, and; Public Information maps. These are used to show the approximate location of the flood risk area and provide the public with information on the Canada – Newfoundland Flood Damage Reduction Program. </t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/Stephenville%20-Shapefiles.zip</t>
+  </si>
+  <si>
+    <t>Stephenville and Cold Brook - ESRI Shapefile</t>
+  </si>
+  <si>
+    <t>Stephenville and Cold Brook - AutoCAD DWG</t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/STEPHENVILLE%20MAPPING.dwg</t>
+  </si>
+  <si>
+    <t>Stephenville - 1:20 and 1:100 AEP Floodlines</t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/Stephenville%20-%2020and100%20AEP%20Floodline.pdf</t>
+  </si>
+  <si>
+    <t>Stephenville - 1:100 AEP Climate Change Floodline</t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/Stephenville%20-%20100%20AEP%20Climate%20Change.pdf</t>
+  </si>
+  <si>
+    <t>Cold Brook -  1:20 and 1:100 AEP Floodlines</t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/Cold%20Brook%20-%2020and100%20AEP%20Floodline.pdf</t>
+  </si>
+  <si>
+    <t>Cold Brook - 1:100 AEP Climate Change Floodline</t>
+  </si>
+  <si>
+    <t>https://www.canal.gov.nl.ca/reports/frm/FRM_Stephenville/2009/Cold%20Brook%20-%20100%20AEP%20Climate%20Change.pdf</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2602,6 +2644,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2611,14 +2663,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2630,9 +2676,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2992,34 +3037,34 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
@@ -3102,34 +3147,34 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -3193,16 +3238,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -3326,19 +3371,19 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3349,11 +3394,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3362,11 +3407,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
@@ -3375,11 +3420,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
@@ -3388,11 +3433,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3401,11 +3446,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3414,11 +3459,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
@@ -3427,11 +3472,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
@@ -3440,11 +3485,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3453,11 +3498,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3466,11 +3511,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
@@ -3479,11 +3524,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
@@ -3492,19 +3537,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -3515,11 +3560,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
@@ -3528,11 +3573,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="3" t="s">
         <v>63</v>
       </c>
@@ -3541,11 +3586,11 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3554,19 +3599,19 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -3577,11 +3622,11 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="3" t="s">
         <v>70</v>
       </c>
@@ -3590,11 +3635,11 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3603,11 +3648,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
@@ -3616,11 +3661,11 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
@@ -3629,11 +3674,11 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="3" t="s">
         <v>73</v>
       </c>
@@ -3642,11 +3687,11 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
@@ -3655,11 +3700,11 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="3" t="s">
         <v>75</v>
       </c>
@@ -3668,11 +3713,11 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="3" t="s">
         <v>76</v>
       </c>
@@ -3681,11 +3726,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="3" t="s">
         <v>77</v>
       </c>
@@ -3694,11 +3739,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="3" t="s">
         <v>78</v>
       </c>
@@ -3707,19 +3752,19 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
@@ -3730,11 +3775,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="3" t="s">
         <v>94</v>
       </c>
@@ -3763,19 +3808,19 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
@@ -3786,11 +3831,11 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
       <c r="F33" t="s">
         <v>99</v>
       </c>
@@ -3799,19 +3844,19 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F34" t="s">
@@ -3822,11 +3867,11 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" t="s">
         <v>112</v>
       </c>
@@ -3835,11 +3880,11 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" t="s">
         <v>113</v>
       </c>
@@ -3848,11 +3893,11 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" t="s">
         <v>114</v>
       </c>
@@ -3861,11 +3906,11 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" t="s">
         <v>115</v>
       </c>
@@ -3874,11 +3919,11 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" t="s">
         <v>116</v>
       </c>
@@ -3887,11 +3932,11 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="F40" t="s">
         <v>117</v>
       </c>
@@ -3900,11 +3945,11 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" t="s">
         <v>118</v>
       </c>
@@ -3913,11 +3958,11 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="F42" t="s">
         <v>119</v>
       </c>
@@ -3927,36 +3972,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="E18:E28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E18:E28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="E34:E42"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
@@ -3970,11 +4015,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ65"/>
+  <dimension ref="A1:EJ66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DR65" sqref="DR65"/>
+      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CZ66" sqref="CZ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4023,7 +4068,9 @@
     <col min="65" max="65" width="24.7109375" customWidth="1"/>
     <col min="66" max="66" width="26" customWidth="1"/>
     <col min="67" max="67" width="23.85546875" customWidth="1"/>
-    <col min="68" max="124" width="27.85546875" customWidth="1"/>
+    <col min="68" max="73" width="27.85546875" customWidth="1"/>
+    <col min="74" max="74" width="27.85546875" style="2" customWidth="1"/>
+    <col min="75" max="124" width="27.85546875" customWidth="1"/>
     <col min="125" max="125" width="27.7109375" customWidth="1"/>
     <col min="126" max="126" width="25.140625" customWidth="1"/>
     <col min="127" max="127" width="34.85546875" customWidth="1"/>
@@ -4262,7 +4309,7 @@
       <c r="BU1" t="s">
         <v>456</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>455</v>
       </c>
       <c r="BW1" t="s">
@@ -10441,7 +10488,7 @@
       <c r="BU38" t="s">
         <v>218</v>
       </c>
-      <c r="BV38" t="s">
+      <c r="BV38" s="2" t="s">
         <v>474</v>
       </c>
       <c r="BW38" t="s">
@@ -11714,7 +11761,7 @@
       <c r="BU43" t="s">
         <v>218</v>
       </c>
-      <c r="BV43" t="s">
+      <c r="BV43" s="2" t="s">
         <v>570</v>
       </c>
       <c r="BW43" t="s">
@@ -11980,7 +12027,7 @@
       <c r="BU44" t="s">
         <v>218</v>
       </c>
-      <c r="BV44" t="s">
+      <c r="BV44" s="2" t="s">
         <v>600</v>
       </c>
       <c r="BW44" t="s">
@@ -12246,7 +12293,7 @@
       <c r="BU45" t="s">
         <v>218</v>
       </c>
-      <c r="BV45" t="s">
+      <c r="BV45" s="2" t="s">
         <v>599</v>
       </c>
       <c r="BW45" t="s">
@@ -12512,7 +12559,7 @@
       <c r="BU46" t="s">
         <v>218</v>
       </c>
-      <c r="BV46" t="s">
+      <c r="BV46" s="2" t="s">
         <v>601</v>
       </c>
       <c r="BW46" t="s">
@@ -12778,7 +12825,7 @@
       <c r="BU47" t="s">
         <v>218</v>
       </c>
-      <c r="BV47" t="s">
+      <c r="BV47" s="2" t="s">
         <v>602</v>
       </c>
       <c r="BW47" t="s">
@@ -13044,7 +13091,7 @@
       <c r="BU48" t="s">
         <v>218</v>
       </c>
-      <c r="BV48" t="s">
+      <c r="BV48" s="2" t="s">
         <v>603</v>
       </c>
       <c r="BW48" t="s">
@@ -13310,7 +13357,7 @@
       <c r="BU49" t="s">
         <v>218</v>
       </c>
-      <c r="BV49" t="s">
+      <c r="BV49" s="2" t="s">
         <v>618</v>
       </c>
       <c r="BW49" t="s">
@@ -13576,7 +13623,7 @@
       <c r="BU50" t="s">
         <v>218</v>
       </c>
-      <c r="BV50" s="7" t="s">
+      <c r="BV50" t="s">
         <v>624</v>
       </c>
       <c r="BW50" t="s">
@@ -14978,7 +15025,7 @@
       <c r="BU55" t="s">
         <v>218</v>
       </c>
-      <c r="BV55" s="7" t="s">
+      <c r="BV55" t="s">
         <v>624</v>
       </c>
       <c r="BW55" t="s">
@@ -15304,7 +15351,7 @@
       <c r="BU56" t="s">
         <v>218</v>
       </c>
-      <c r="BV56" s="7" t="s">
+      <c r="BV56" t="s">
         <v>624</v>
       </c>
       <c r="BW56" t="s">
@@ -15630,7 +15677,7 @@
       <c r="BU57" t="s">
         <v>218</v>
       </c>
-      <c r="BV57" s="7" t="s">
+      <c r="BV57" t="s">
         <v>711</v>
       </c>
       <c r="BW57" t="s">
@@ -16216,7 +16263,7 @@
       <c r="BU59" t="s">
         <v>218</v>
       </c>
-      <c r="BV59" t="s">
+      <c r="BV59" s="2" t="s">
         <v>730</v>
       </c>
       <c r="BW59" t="s">
@@ -16866,7 +16913,7 @@
       <c r="BU61" t="s">
         <v>218</v>
       </c>
-      <c r="BV61" s="7" t="s">
+      <c r="BV61" s="27" t="s">
         <v>624</v>
       </c>
       <c r="BW61" t="s">
@@ -17608,7 +17655,7 @@
       <c r="BU63" t="s">
         <v>218</v>
       </c>
-      <c r="BV63" s="7" t="s">
+      <c r="BV63" t="s">
         <v>780</v>
       </c>
       <c r="BW63" t="s">
@@ -17638,7 +17685,7 @@
       <c r="CF63" t="s">
         <v>218</v>
       </c>
-      <c r="CG63" s="26" t="s">
+      <c r="CG63" s="16" t="s">
         <v>782</v>
       </c>
       <c r="CH63" t="s">
@@ -18369,6 +18416,334 @@
         <v>433</v>
       </c>
       <c r="EH65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:138" ht="120">
+      <c r="A66" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B66" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>462</v>
+      </c>
+      <c r="D66" t="s">
+        <v>463</v>
+      </c>
+      <c r="E66" t="s">
+        <v>463</v>
+      </c>
+      <c r="F66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" s="10">
+        <v>34700</v>
+      </c>
+      <c r="K66" s="10">
+        <v>39785</v>
+      </c>
+      <c r="L66" t="s">
+        <v>465</v>
+      </c>
+      <c r="M66" t="s">
+        <v>221</v>
+      </c>
+      <c r="N66" t="s">
+        <v>264</v>
+      </c>
+      <c r="O66" t="s">
+        <v>221</v>
+      </c>
+      <c r="P66" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>221</v>
+      </c>
+      <c r="R66">
+        <v>-58.46</v>
+      </c>
+      <c r="S66">
+        <v>-58.66</v>
+      </c>
+      <c r="T66">
+        <v>48.53</v>
+      </c>
+      <c r="U66">
+        <v>48.6</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="W66" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF66" s="10">
+        <v>40004</v>
+      </c>
+      <c r="AG66" s="10">
+        <v>40004</v>
+      </c>
+      <c r="AH66" s="10">
+        <v>40004</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO66" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>813</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>465</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ66" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="BA66" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD66" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>464</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK66" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN66" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO66" t="s">
+        <v>818</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>464</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>218</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>218</v>
+      </c>
+      <c r="BV66" t="s">
+        <v>819</v>
+      </c>
+      <c r="BW66" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX66" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY66" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ66" t="s">
+        <v>820</v>
+      </c>
+      <c r="CB66" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC66" t="s">
+        <v>217</v>
+      </c>
+      <c r="CD66" t="s">
+        <v>217</v>
+      </c>
+      <c r="CE66" t="s">
+        <v>218</v>
+      </c>
+      <c r="CF66" t="s">
+        <v>218</v>
+      </c>
+      <c r="CG66" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="CH66" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI66" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ66" t="s">
+        <v>223</v>
+      </c>
+      <c r="CK66" t="s">
+        <v>822</v>
+      </c>
+      <c r="CM66" t="s">
+        <v>464</v>
+      </c>
+      <c r="CN66" t="s">
+        <v>217</v>
+      </c>
+      <c r="CO66" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP66" t="s">
+        <v>218</v>
+      </c>
+      <c r="CQ66" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR66" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="CS66" t="s">
+        <v>219</v>
+      </c>
+      <c r="CT66" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU66" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV66" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="DC66" s="2"/>
+      <c r="DN66" s="2"/>
+      <c r="DT66" t="s">
+        <v>207</v>
+      </c>
+      <c r="DU66" t="s">
+        <v>207</v>
+      </c>
+      <c r="DV66" t="s">
+        <v>226</v>
+      </c>
+      <c r="DW66" t="s">
+        <v>235</v>
+      </c>
+      <c r="DX66" t="s">
+        <v>476</v>
+      </c>
+      <c r="DZ66" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA66" t="s">
+        <v>415</v>
+      </c>
+      <c r="EB66" t="s">
+        <v>477</v>
+      </c>
+      <c r="EC66" t="s">
+        <v>478</v>
+      </c>
+      <c r="ED66" t="s">
+        <v>479</v>
+      </c>
+      <c r="EE66" t="s">
+        <v>274</v>
+      </c>
+      <c r="EF66" t="s">
+        <v>480</v>
+      </c>
+      <c r="EG66" t="s">
+        <v>433</v>
+      </c>
+      <c r="EH66" t="s">
         <v>434</v>
       </c>
     </row>
@@ -18457,39 +18832,37 @@
     <hyperlink ref="BD48" r:id="rId78"/>
     <hyperlink ref="BO48" r:id="rId79"/>
     <hyperlink ref="V50" r:id="rId80"/>
-    <hyperlink ref="BV50" r:id="rId81" display="https://www.mae.gov.nl.ca/waterres/flooding/corner_brook_stream/20 _100_ClimateChange_Floodlines.pdf"/>
-    <hyperlink ref="V51" r:id="rId82"/>
-    <hyperlink ref="V52" r:id="rId83"/>
-    <hyperlink ref="V53" r:id="rId84"/>
-    <hyperlink ref="BD52" r:id="rId85"/>
-    <hyperlink ref="V54" r:id="rId86"/>
-    <hyperlink ref="V55" r:id="rId87"/>
-    <hyperlink ref="BV55" r:id="rId88" display="https://www.mae.gov.nl.ca/waterres/flooding/corner_brook_stream/20 _100_ClimateChange_Floodlines.pdf"/>
-    <hyperlink ref="BZ55" r:id="rId89"/>
-    <hyperlink ref="BO55" r:id="rId90"/>
-    <hyperlink ref="V56" r:id="rId91"/>
-    <hyperlink ref="BV56" r:id="rId92" display="https://www.mae.gov.nl.ca/waterres/flooding/corner_brook_stream/20 _100_ClimateChange_Floodlines.pdf"/>
-    <hyperlink ref="V57" r:id="rId93"/>
-    <hyperlink ref="BV57" r:id="rId94" display="https://www.canal.gov.nl.ca/reports/frm/FRM_LBMCOC/FRM_LBMCOC_20_and_100_AEP_Dev_HiRes.pdf"/>
-    <hyperlink ref="V58" r:id="rId95"/>
-    <hyperlink ref="BD58" r:id="rId96"/>
-    <hyperlink ref="V59" r:id="rId97"/>
-    <hyperlink ref="V60" r:id="rId98"/>
-    <hyperlink ref="CK60" r:id="rId99"/>
-    <hyperlink ref="V61" r:id="rId100"/>
-    <hyperlink ref="BD61" r:id="rId101"/>
-    <hyperlink ref="CG61" r:id="rId102" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Inundation_Depth_Mapping.pdf"/>
-    <hyperlink ref="CR61" r:id="rId103" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Velocity_Distribution.pdf"/>
-    <hyperlink ref="CV61" r:id="rId104"/>
-    <hyperlink ref="DC61" r:id="rId105" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Flood_Hazard.pdf"/>
-    <hyperlink ref="V62" r:id="rId106"/>
-    <hyperlink ref="CK62" r:id="rId107"/>
-    <hyperlink ref="V63" r:id="rId108"/>
-    <hyperlink ref="BV63" r:id="rId109" display="https://www.mae.gov.nl.ca/waterres/flooding/corner_brook_stream/20 _100_ClimateChange_Floodlines.pdf"/>
-    <hyperlink ref="V64" r:id="rId110"/>
-    <hyperlink ref="V65" r:id="rId111"/>
+    <hyperlink ref="V51" r:id="rId81"/>
+    <hyperlink ref="V52" r:id="rId82"/>
+    <hyperlink ref="V53" r:id="rId83"/>
+    <hyperlink ref="BD52" r:id="rId84"/>
+    <hyperlink ref="V54" r:id="rId85"/>
+    <hyperlink ref="V55" r:id="rId86"/>
+    <hyperlink ref="BZ55" r:id="rId87"/>
+    <hyperlink ref="BO55" r:id="rId88"/>
+    <hyperlink ref="V56" r:id="rId89"/>
+    <hyperlink ref="V57" r:id="rId90"/>
+    <hyperlink ref="V58" r:id="rId91"/>
+    <hyperlink ref="BD58" r:id="rId92"/>
+    <hyperlink ref="V59" r:id="rId93"/>
+    <hyperlink ref="V60" r:id="rId94"/>
+    <hyperlink ref="CK60" r:id="rId95"/>
+    <hyperlink ref="V61" r:id="rId96"/>
+    <hyperlink ref="BD61" r:id="rId97"/>
+    <hyperlink ref="CG61" r:id="rId98" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Inundation_Depth_Mapping.pdf"/>
+    <hyperlink ref="CR61" r:id="rId99" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Velocity_Distribution.pdf"/>
+    <hyperlink ref="CV61" r:id="rId100"/>
+    <hyperlink ref="DC61" r:id="rId101" display="https://www.canal.gov.nl.ca/reports/frm/FRM_PCSP_2015/PCSP_FRM_2015_1to20_1to100_AEP_Flood_Hazard.pdf"/>
+    <hyperlink ref="V62" r:id="rId102"/>
+    <hyperlink ref="CK62" r:id="rId103"/>
+    <hyperlink ref="V63" r:id="rId104"/>
+    <hyperlink ref="V64" r:id="rId105"/>
+    <hyperlink ref="V65" r:id="rId106"/>
+    <hyperlink ref="V66" r:id="rId107"/>
+    <hyperlink ref="BD66" r:id="rId108"/>
+    <hyperlink ref="CV66" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId112"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId110"/>
 </worksheet>
 </file>
--- a/docs/NL CE-Relevant Data.xlsx
+++ b/docs/NL CE-Relevant Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5306" uniqueCount="938">
   <si>
     <t>Title</t>
   </si>
@@ -2763,13 +2763,94 @@
   </si>
   <si>
     <t>Flood risk study of the Bishop's Falls area completed as part of the flood risk mapping program, featuring Public Information maps that are used to show the approximate location of the flood risk area and provide the public with information on the Canada – Newfoundland Flood Damage Reduction Program</t>
+  </si>
+  <si>
+    <t>Paul Molloy</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>paulmolloy@gov.nl.ca</t>
+  </si>
+  <si>
+    <t>economy, geoscientificInformation</t>
+  </si>
+  <si>
+    <t>https://www.nr.gov.nl.ca/nr/index.html</t>
+  </si>
+  <si>
+    <t>https://www.arcgis.com/apps/MapJournal/index.html?appid=98298581238b45f89aeadfb33e5036b9</t>
+  </si>
+  <si>
+    <t>Department of Natural Resources</t>
+  </si>
+  <si>
+    <t>RI_636</t>
+  </si>
+  <si>
+    <t>The Department of Natural Resources, Government of Newfoundland and Labrador, is responsible for the stewardship and development of the province's natural resources through the Mines and Energy Branches. The Energy Branch of the Department of Natural Resources administers Petroleum Development, Royalties and Benefits and Energy Policy.  The Petroleum Development Section is responsible for fostering the exploration, development and production of the province's hydrocarbon resources, and providing related geological, geophysical, engineering, and regulatory services.  In the onshore area of the Province, there are four sedimentary basins located in western Newfoundland; Bay St. George, Deer Lake, Anticosti and St. Anthony. The purpose of this story map is to provide geological information about each basin, as well as give detail on oil and gas exploration activity in the basin. Click on different parts of each basin to learn more about the specific geology in each region.  The Petroleum Development Section of the Department of Natural Resources, Government of Newfoundland and Labrador ('Petroleum Development') provides this website to disseminate digital onshore petroleum exploration and development data as provided for in the Petroleum and Natural Gas Act and subordinate regulations. Petroleum Development makes final well reports, maps and digital geological and drilling related data available for public use. These materials have not been formally edited or peer reviewed and are based upon preliminary data and evaluation. Petroleum Development assumes no legal liability or responsibility for any alterations, changes, representations or misrepresentations made by users or third parties with respect to the materials and original data. Users and third parties should consult with the Petroleum Development Section to ensure the originality and correctness of the materials and original data provided. The users of these materials and original data agree not to provide a digital reproduction or copy of same to a third party.</t>
+  </si>
+  <si>
+    <t>natural resources</t>
+  </si>
+  <si>
+    <t>geology</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>gerrykilfoil@gov.nl.ca</t>
+  </si>
+  <si>
+    <t>Gerry Kilfoil</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/Default.htm</t>
+  </si>
+  <si>
+    <t>urn:xml:lang:eng-CAN</t>
+  </si>
+  <si>
+    <t>geophysics</t>
+  </si>
+  <si>
+    <t>Newfoundland Airborne Surveys - GeoPhysics</t>
+  </si>
+  <si>
+    <t>Newfoundland Coastal Characteristics</t>
+  </si>
+  <si>
+    <t>The coastal monitoring database is a collection of coastal data to assess the erosion or accretion rates of shorelines and changes in beach profiles around Newfoundland and Labrador. A multi-year coastal monitoring program was initiated by the Geological Survey of Newfoundland and Labrador (GSNL) in 2011, to build upon previous projects started in 1981 by the Geological Survey of Canada (GSC). The database contains the locations of the study sites, years of study, the rate of erosion as well as links to a pdf summary of the site.</t>
+  </si>
+  <si>
+    <t>Melanie Irvine</t>
+  </si>
+  <si>
+    <t>MelanieIrvine@gov.nl.ca</t>
+  </si>
+  <si>
+    <t>Geophysical images from provincial and federal surveys are available to view and download from the Geoscience Atlas. They consist of regional aeromagnetic data for all of Newfoundland and Labrador as well as more detailed surveys consisting of predominantly aeromagnetic data but also gamma-ray and digital terrain elevation data. The images from the detailed airborne geophysical surveys are for northwest Labrador, western Newfoundland/Deer Lake area and the Baie Verte/Springdale/Red Indian Line area.  Information about individual surveys, except the Regional Mag layers, can be obtained by clicking on the blue underlined NAME of the survey in the Contents panel. Alternatively, turn on the Index of Airborne Geophysical Surveys and click on the polygon representing that survey. In the Search Results window, click on the Links for the survey of interest and click on the Airborne Survey link to view general information about the survey, survey logistics, and links out to reports and digital data, if available. Geophysical images can now be downloaded as tif, png and similar file types, with associated registration files, in UTM, NAD27 datum coordinate system. </t>
+  </si>
+  <si>
+    <t>GEOPHYSICS - Regional and Detailed Images</t>
+  </si>
+  <si>
+    <t>Coastal Monitoring Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2816,6 +2897,25 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2868,7 +2968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2939,6 +3039,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3533,7 +3642,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3592,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3641,7 +3750,7 @@
       <c r="C2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -3650,7 +3759,7 @@
       <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4269,6 +4378,8 @@
     <hyperlink ref="E2" r:id="rId2"/>
     <hyperlink ref="E14" r:id="rId3"/>
     <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4276,11 +4387,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EU73"/>
+  <dimension ref="A1:EU81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ76" sqref="AQ76:AT76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4311,9 +4422,9 @@
     <col min="29" max="29" width="19.28515625" customWidth="1"/>
     <col min="30" max="30" width="17.140625" customWidth="1"/>
     <col min="31" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="32" width="25.5703125" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" customWidth="1"/>
+    <col min="32" max="32" width="25.5703125" style="31" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" style="31" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="31" customWidth="1"/>
     <col min="35" max="35" width="24.140625" customWidth="1"/>
     <col min="36" max="36" width="21.5703125" customWidth="1"/>
     <col min="37" max="37" width="24.42578125" customWidth="1"/>
@@ -4444,13 +4555,13 @@
       <c r="AE1" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="31" t="s">
         <v>159</v>
       </c>
       <c r="AI1" t="s">
@@ -4881,13 +4992,13 @@
       <c r="AE2" t="s">
         <v>216</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="31">
         <v>41621</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="31">
         <v>41694</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="31">
         <v>41621</v>
       </c>
       <c r="AI2" t="s">
@@ -5039,13 +5150,13 @@
       <c r="AE3" t="s">
         <v>216</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="31">
         <v>42003</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="31">
         <v>42003</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="31">
         <v>42003</v>
       </c>
       <c r="AI3" t="s">
@@ -5245,13 +5356,13 @@
       <c r="AE4" t="s">
         <v>216</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="31">
         <v>41610</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="31">
         <v>41694</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="31">
         <v>41610</v>
       </c>
       <c r="AI4" t="s">
@@ -5400,13 +5511,13 @@
       <c r="AE5" t="s">
         <v>216</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="31">
         <v>41614</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="31">
         <v>41719</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="31">
         <v>41614</v>
       </c>
       <c r="AI5" t="s">
@@ -5555,13 +5666,13 @@
       <c r="AE6" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="31">
         <v>42004</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="31">
         <v>42004</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="31">
         <v>42004</v>
       </c>
       <c r="AI6" t="s">
@@ -5731,13 +5842,13 @@
       <c r="AE7" t="s">
         <v>216</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="31">
         <v>41621</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="31">
         <v>41719</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="31">
         <v>41621</v>
       </c>
       <c r="AI7" t="s">
@@ -5886,13 +5997,13 @@
       <c r="AE8" t="s">
         <v>216</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AF8" s="31">
         <v>42004</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="31">
         <v>42004</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AH8" s="31">
         <v>42004</v>
       </c>
       <c r="AI8" t="s">
@@ -6059,13 +6170,13 @@
       <c r="AE9" t="s">
         <v>216</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="31">
         <v>42167</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="31">
         <v>42257</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="31">
         <v>42167</v>
       </c>
       <c r="AI9" t="s">
@@ -6235,13 +6346,13 @@
       <c r="AE10" t="s">
         <v>216</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="31">
         <v>41621</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="31">
         <v>41719</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="31">
         <v>41621</v>
       </c>
       <c r="AI10" t="s">
@@ -6390,13 +6501,13 @@
       <c r="AE11" t="s">
         <v>216</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="31">
         <v>42004</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="31">
         <v>42004</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="31">
         <v>42004</v>
       </c>
       <c r="AI11" t="s">
@@ -6572,13 +6683,13 @@
       <c r="AE12" t="s">
         <v>216</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="31">
         <v>42004</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="31">
         <v>42004</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AH12" s="31">
         <v>42004</v>
       </c>
       <c r="AI12" t="s">
@@ -6748,13 +6859,13 @@
       <c r="AE13" t="s">
         <v>216</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AF13" s="31">
         <v>35431</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AG13" s="31">
         <v>43549</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AH13" s="31">
         <v>35431</v>
       </c>
       <c r="AI13" t="s">
@@ -6897,13 +7008,13 @@
       <c r="AE14" t="s">
         <v>216</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="31">
         <v>35431</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="31">
         <v>35431</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="31">
         <v>35431</v>
       </c>
       <c r="AI14" t="s">
@@ -7049,13 +7160,13 @@
       <c r="AE15" t="s">
         <v>216</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="31">
         <v>39814</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="31">
         <v>39814</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="31">
         <v>39814</v>
       </c>
       <c r="AI15" t="s">
@@ -7207,13 +7318,13 @@
       <c r="AE16" t="s">
         <v>216</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AF16" s="31">
         <v>39814</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="31">
         <v>39814</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AH16" s="31">
         <v>39814</v>
       </c>
       <c r="AI16" t="s">
@@ -7365,13 +7476,13 @@
       <c r="AE17" t="s">
         <v>216</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="31">
         <v>39814</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="31">
         <v>39814</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AH17" s="31">
         <v>39814</v>
       </c>
       <c r="AI17" t="s">
@@ -7523,13 +7634,13 @@
       <c r="AE18" t="s">
         <v>216</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="31">
         <v>39814</v>
       </c>
-      <c r="AG18" s="10">
+      <c r="AG18" s="31">
         <v>39814</v>
       </c>
-      <c r="AH18" s="10">
+      <c r="AH18" s="31">
         <v>39814</v>
       </c>
       <c r="AI18" t="s">
@@ -7681,13 +7792,13 @@
       <c r="AE19" t="s">
         <v>216</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="31">
         <v>40179</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="31">
         <v>40179</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="31">
         <v>40179</v>
       </c>
       <c r="AI19" t="s">
@@ -7839,13 +7950,13 @@
       <c r="AE20" t="s">
         <v>216</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="31">
         <v>40179</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AG20" s="31">
         <v>40179</v>
       </c>
-      <c r="AH20" s="10">
+      <c r="AH20" s="31">
         <v>40179</v>
       </c>
       <c r="AI20" t="s">
@@ -7997,13 +8108,13 @@
       <c r="AE21" t="s">
         <v>216</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="31">
         <v>40544</v>
       </c>
-      <c r="AG21" s="10">
+      <c r="AG21" s="31">
         <v>40544</v>
       </c>
-      <c r="AH21" s="10">
+      <c r="AH21" s="31">
         <v>40544</v>
       </c>
       <c r="AI21" t="s">
@@ -8155,13 +8266,13 @@
       <c r="AE22" t="s">
         <v>216</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="31">
         <v>40544</v>
       </c>
-      <c r="AG22" s="10">
+      <c r="AG22" s="31">
         <v>40544</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AH22" s="31">
         <v>40544</v>
       </c>
       <c r="AI22" t="s">
@@ -8313,13 +8424,13 @@
       <c r="AE23" t="s">
         <v>216</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="31">
         <v>40909</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="31">
         <v>40909</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="31">
         <v>40909</v>
       </c>
       <c r="AI23" t="s">
@@ -8471,13 +8582,13 @@
       <c r="AE24" t="s">
         <v>216</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF24" s="31">
         <v>40909</v>
       </c>
-      <c r="AG24" s="10">
+      <c r="AG24" s="31">
         <v>40909</v>
       </c>
-      <c r="AH24" s="10">
+      <c r="AH24" s="31">
         <v>40909</v>
       </c>
       <c r="AI24" t="s">
@@ -8629,13 +8740,13 @@
       <c r="AE25" t="s">
         <v>216</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF25" s="31">
         <v>41275</v>
       </c>
-      <c r="AG25" s="10">
+      <c r="AG25" s="31">
         <v>41275</v>
       </c>
-      <c r="AH25" s="10">
+      <c r="AH25" s="31">
         <v>41275</v>
       </c>
       <c r="AI25" t="s">
@@ -8787,13 +8898,13 @@
       <c r="AE26" t="s">
         <v>216</v>
       </c>
-      <c r="AF26" s="10">
+      <c r="AF26" s="31">
         <v>41275</v>
       </c>
-      <c r="AG26" s="10">
+      <c r="AG26" s="31">
         <v>41275</v>
       </c>
-      <c r="AH26" s="10">
+      <c r="AH26" s="31">
         <v>41275</v>
       </c>
       <c r="AI26" t="s">
@@ -8945,13 +9056,13 @@
       <c r="AE27" t="s">
         <v>216</v>
       </c>
-      <c r="AF27" s="10">
+      <c r="AF27" s="31">
         <v>41640</v>
       </c>
-      <c r="AG27" s="10">
+      <c r="AG27" s="31">
         <v>41640</v>
       </c>
-      <c r="AH27" s="10">
+      <c r="AH27" s="31">
         <v>41640</v>
       </c>
       <c r="AI27" t="s">
@@ -9103,13 +9214,13 @@
       <c r="AE28" t="s">
         <v>216</v>
       </c>
-      <c r="AF28" s="10">
+      <c r="AF28" s="31">
         <v>41640</v>
       </c>
-      <c r="AG28" s="10">
+      <c r="AG28" s="31">
         <v>41640</v>
       </c>
-      <c r="AH28" s="10">
+      <c r="AH28" s="31">
         <v>41640</v>
       </c>
       <c r="AI28" t="s">
@@ -9261,13 +9372,13 @@
       <c r="AE29" t="s">
         <v>216</v>
       </c>
-      <c r="AF29" s="10">
+      <c r="AF29" s="31">
         <v>42005</v>
       </c>
-      <c r="AG29" s="10">
+      <c r="AG29" s="31">
         <v>42005</v>
       </c>
-      <c r="AH29" s="10">
+      <c r="AH29" s="31">
         <v>42005</v>
       </c>
       <c r="AI29" t="s">
@@ -9419,13 +9530,13 @@
       <c r="AE30" t="s">
         <v>216</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="31">
         <v>42005</v>
       </c>
-      <c r="AG30" s="10">
+      <c r="AG30" s="31">
         <v>42005</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="31">
         <v>42005</v>
       </c>
       <c r="AI30" t="s">
@@ -9577,13 +9688,13 @@
       <c r="AE31" t="s">
         <v>216</v>
       </c>
-      <c r="AF31" s="10">
+      <c r="AF31" s="31">
         <v>42005</v>
       </c>
-      <c r="AG31" s="10">
+      <c r="AG31" s="31">
         <v>42005</v>
       </c>
-      <c r="AH31" s="10">
+      <c r="AH31" s="31">
         <v>42005</v>
       </c>
       <c r="AI31" t="s">
@@ -9629,7 +9740,7 @@
         <v>226</v>
       </c>
       <c r="EH31" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI31" t="s">
         <v>347</v>
@@ -9732,13 +9843,13 @@
       <c r="AE32" t="s">
         <v>216</v>
       </c>
-      <c r="AF32" s="10">
+      <c r="AF32" s="31">
         <v>35431</v>
       </c>
-      <c r="AG32" s="10">
+      <c r="AG32" s="31">
         <v>35431</v>
       </c>
-      <c r="AH32" s="10">
+      <c r="AH32" s="31">
         <v>35431</v>
       </c>
       <c r="AI32" t="s">
@@ -9881,13 +9992,13 @@
       <c r="AE33" t="s">
         <v>216</v>
       </c>
-      <c r="AF33" s="10">
+      <c r="AF33" s="31">
         <v>35431</v>
       </c>
-      <c r="AG33" s="10">
+      <c r="AG33" s="31">
         <v>35431</v>
       </c>
-      <c r="AH33" s="10">
+      <c r="AH33" s="31">
         <v>35431</v>
       </c>
       <c r="AI33" t="s">
@@ -10033,13 +10144,13 @@
       <c r="AE34" t="s">
         <v>216</v>
       </c>
-      <c r="AF34" s="10">
+      <c r="AF34" s="31">
         <v>35431</v>
       </c>
-      <c r="AG34" s="10">
+      <c r="AG34" s="31">
         <v>35431</v>
       </c>
-      <c r="AH34" s="10">
+      <c r="AH34" s="31">
         <v>35431</v>
       </c>
       <c r="AI34" t="s">
@@ -10188,13 +10299,13 @@
       <c r="AE35" t="s">
         <v>216</v>
       </c>
-      <c r="AF35" s="10">
+      <c r="AF35" s="31">
         <v>35431</v>
       </c>
-      <c r="AG35" s="10">
+      <c r="AG35" s="31">
         <v>43549</v>
       </c>
-      <c r="AH35" s="10">
+      <c r="AH35" s="31">
         <v>35431</v>
       </c>
       <c r="AI35" t="s">
@@ -10240,7 +10351,7 @@
         <v>226</v>
       </c>
       <c r="EH35" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI35" t="s">
         <v>347</v>
@@ -10343,13 +10454,13 @@
       <c r="AE36" t="s">
         <v>216</v>
       </c>
-      <c r="AF36" s="10">
+      <c r="AF36" s="31">
         <v>35431</v>
       </c>
-      <c r="AG36" s="10">
+      <c r="AG36" s="31">
         <v>35431</v>
       </c>
-      <c r="AH36" s="10">
+      <c r="AH36" s="31">
         <v>35431</v>
       </c>
       <c r="AI36" t="s">
@@ -10498,13 +10609,13 @@
       <c r="AE37" t="s">
         <v>216</v>
       </c>
-      <c r="AF37" s="10">
+      <c r="AF37" s="31">
         <v>35431</v>
       </c>
-      <c r="AG37" s="10">
+      <c r="AG37" s="31">
         <v>38717</v>
       </c>
-      <c r="AH37" s="10">
+      <c r="AH37" s="31">
         <v>35431</v>
       </c>
       <c r="AI37" t="s">
@@ -10665,13 +10776,13 @@
       <c r="AE38" t="s">
         <v>216</v>
       </c>
-      <c r="AF38" s="10">
+      <c r="AF38" s="31">
         <v>31245</v>
       </c>
-      <c r="AG38" s="10">
+      <c r="AG38" s="31">
         <v>31245</v>
       </c>
-      <c r="AH38" s="10">
+      <c r="AH38" s="31">
         <v>31245</v>
       </c>
       <c r="AI38" t="s">
@@ -10897,7 +11008,7 @@
         <v>226</v>
       </c>
       <c r="EH38" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI38" t="s">
         <v>476</v>
@@ -11015,13 +11126,13 @@
       <c r="AE39" t="s">
         <v>216</v>
       </c>
-      <c r="AF39" s="10">
+      <c r="AF39" s="31">
         <v>33203</v>
       </c>
-      <c r="AG39" s="10">
+      <c r="AG39" s="31">
         <v>33203</v>
       </c>
-      <c r="AH39" s="10">
+      <c r="AH39" s="31">
         <v>33203</v>
       </c>
       <c r="AI39" t="s">
@@ -11127,7 +11238,7 @@
         <v>226</v>
       </c>
       <c r="EH39" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI39" t="s">
         <v>476</v>
@@ -11242,13 +11353,13 @@
       <c r="AE40" t="s">
         <v>216</v>
       </c>
-      <c r="AF40" s="10">
+      <c r="AF40" s="31">
         <v>35462</v>
       </c>
-      <c r="AG40" s="10">
+      <c r="AG40" s="31">
         <v>35462</v>
       </c>
-      <c r="AH40" s="10">
+      <c r="AH40" s="31">
         <v>35462</v>
       </c>
       <c r="AI40" t="s">
@@ -11354,7 +11465,7 @@
         <v>226</v>
       </c>
       <c r="EH40" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI40" t="s">
         <v>476</v>
@@ -11472,13 +11583,13 @@
       <c r="AE41" t="s">
         <v>216</v>
       </c>
-      <c r="AF41" s="10">
+      <c r="AF41" s="31">
         <v>32905</v>
       </c>
-      <c r="AG41" s="10">
+      <c r="AG41" s="31">
         <v>32905</v>
       </c>
-      <c r="AH41" s="10">
+      <c r="AH41" s="31">
         <v>32905</v>
       </c>
       <c r="AI41" t="s">
@@ -11584,7 +11695,7 @@
         <v>226</v>
       </c>
       <c r="EH41" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI41" t="s">
         <v>476</v>
@@ -11702,13 +11813,13 @@
       <c r="AE42" t="s">
         <v>216</v>
       </c>
-      <c r="AF42" s="10">
+      <c r="AF42" s="31">
         <v>35125</v>
       </c>
-      <c r="AG42" s="10">
+      <c r="AG42" s="31">
         <v>35125</v>
       </c>
-      <c r="AH42" s="10">
+      <c r="AH42" s="31">
         <v>35125</v>
       </c>
       <c r="AI42" t="s">
@@ -11814,7 +11925,7 @@
         <v>226</v>
       </c>
       <c r="EH42" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI42" t="s">
         <v>476</v>
@@ -11938,13 +12049,13 @@
       <c r="AE43" t="s">
         <v>216</v>
       </c>
-      <c r="AF43" s="10">
+      <c r="AF43" s="31">
         <v>35125</v>
       </c>
-      <c r="AG43" s="10">
+      <c r="AG43" s="31">
         <v>35125</v>
       </c>
-      <c r="AH43" s="10">
+      <c r="AH43" s="31">
         <v>35125</v>
       </c>
       <c r="AI43" t="s">
@@ -12080,7 +12191,7 @@
         <v>226</v>
       </c>
       <c r="EH43" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI43" t="s">
         <v>476</v>
@@ -12204,13 +12315,13 @@
       <c r="AE44" t="s">
         <v>216</v>
       </c>
-      <c r="AF44" s="10">
+      <c r="AF44" s="31">
         <v>35125</v>
       </c>
-      <c r="AG44" s="10">
+      <c r="AG44" s="31">
         <v>35125</v>
       </c>
-      <c r="AH44" s="10">
+      <c r="AH44" s="31">
         <v>35125</v>
       </c>
       <c r="AI44" t="s">
@@ -12346,7 +12457,7 @@
         <v>226</v>
       </c>
       <c r="EH44" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI44" t="s">
         <v>476</v>
@@ -12470,13 +12581,13 @@
       <c r="AE45" t="s">
         <v>216</v>
       </c>
-      <c r="AF45" s="10">
+      <c r="AF45" s="31">
         <v>35125</v>
       </c>
-      <c r="AG45" s="10">
+      <c r="AG45" s="31">
         <v>35125</v>
       </c>
-      <c r="AH45" s="10">
+      <c r="AH45" s="31">
         <v>35125</v>
       </c>
       <c r="AI45" t="s">
@@ -12612,7 +12723,7 @@
         <v>226</v>
       </c>
       <c r="EH45" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI45" t="s">
         <v>476</v>
@@ -12736,13 +12847,13 @@
       <c r="AE46" t="s">
         <v>216</v>
       </c>
-      <c r="AF46" s="10">
+      <c r="AF46" s="31">
         <v>35125</v>
       </c>
-      <c r="AG46" s="10">
+      <c r="AG46" s="31">
         <v>35125</v>
       </c>
-      <c r="AH46" s="10">
+      <c r="AH46" s="31">
         <v>35125</v>
       </c>
       <c r="AI46" t="s">
@@ -12878,7 +12989,7 @@
         <v>226</v>
       </c>
       <c r="EH46" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI46" t="s">
         <v>476</v>
@@ -13002,13 +13113,13 @@
       <c r="AE47" t="s">
         <v>216</v>
       </c>
-      <c r="AF47" s="10">
+      <c r="AF47" s="31">
         <v>35125</v>
       </c>
-      <c r="AG47" s="10">
+      <c r="AG47" s="31">
         <v>35125</v>
       </c>
-      <c r="AH47" s="10">
+      <c r="AH47" s="31">
         <v>35125</v>
       </c>
       <c r="AI47" t="s">
@@ -13144,7 +13255,7 @@
         <v>226</v>
       </c>
       <c r="EH47" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI47" t="s">
         <v>476</v>
@@ -13268,13 +13379,13 @@
       <c r="AE48" t="s">
         <v>216</v>
       </c>
-      <c r="AF48" s="10">
+      <c r="AF48" s="31">
         <v>35125</v>
       </c>
-      <c r="AG48" s="10">
+      <c r="AG48" s="31">
         <v>35125</v>
       </c>
-      <c r="AH48" s="10">
+      <c r="AH48" s="31">
         <v>35125</v>
       </c>
       <c r="AI48" t="s">
@@ -13410,7 +13521,7 @@
         <v>226</v>
       </c>
       <c r="EH48" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI48" t="s">
         <v>476</v>
@@ -13534,13 +13645,13 @@
       <c r="AE49" t="s">
         <v>216</v>
       </c>
-      <c r="AF49" s="10">
+      <c r="AF49" s="31">
         <v>36145</v>
       </c>
-      <c r="AG49" s="10">
+      <c r="AG49" s="31">
         <v>36145</v>
       </c>
-      <c r="AH49" s="10">
+      <c r="AH49" s="31">
         <v>36145</v>
       </c>
       <c r="AI49" t="s">
@@ -13676,7 +13787,7 @@
         <v>226</v>
       </c>
       <c r="EH49" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI49" t="s">
         <v>476</v>
@@ -13800,13 +13911,13 @@
       <c r="AE50" t="s">
         <v>216</v>
       </c>
-      <c r="AF50" s="10">
+      <c r="AF50" s="31">
         <v>41332</v>
       </c>
-      <c r="AG50" s="10">
+      <c r="AG50" s="31">
         <v>41332</v>
       </c>
-      <c r="AH50" s="10">
+      <c r="AH50" s="31">
         <v>41332</v>
       </c>
       <c r="AI50" t="s">
@@ -14002,7 +14113,7 @@
         <v>226</v>
       </c>
       <c r="EH50" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI50" t="s">
         <v>476</v>
@@ -14120,13 +14231,13 @@
       <c r="AE51" t="s">
         <v>216</v>
       </c>
-      <c r="AF51" s="10">
+      <c r="AF51" s="31">
         <v>32002</v>
       </c>
-      <c r="AG51" s="10">
+      <c r="AG51" s="31">
         <v>32002</v>
       </c>
-      <c r="AH51" s="10">
+      <c r="AH51" s="31">
         <v>32002</v>
       </c>
       <c r="AI51" t="s">
@@ -14232,7 +14343,7 @@
         <v>226</v>
       </c>
       <c r="EH51" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI51" t="s">
         <v>476</v>
@@ -14350,13 +14461,13 @@
       <c r="AE52" t="s">
         <v>216</v>
       </c>
-      <c r="AF52" s="10">
+      <c r="AF52" s="31">
         <v>32842</v>
       </c>
-      <c r="AG52" s="10">
+      <c r="AG52" s="31">
         <v>32842</v>
       </c>
-      <c r="AH52" s="10">
+      <c r="AH52" s="31">
         <v>32842</v>
       </c>
       <c r="AI52" t="s">
@@ -14462,7 +14573,7 @@
         <v>226</v>
       </c>
       <c r="EH52" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI52" t="s">
         <v>476</v>
@@ -14580,13 +14691,13 @@
       <c r="AE53" t="s">
         <v>216</v>
       </c>
-      <c r="AF53" s="10">
+      <c r="AF53" s="31">
         <v>32842</v>
       </c>
-      <c r="AG53" s="10">
+      <c r="AG53" s="31">
         <v>32842</v>
       </c>
-      <c r="AH53" s="10">
+      <c r="AH53" s="31">
         <v>32842</v>
       </c>
       <c r="AI53" t="s">
@@ -14692,7 +14803,7 @@
         <v>226</v>
       </c>
       <c r="EH53" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI53" t="s">
         <v>476</v>
@@ -14816,13 +14927,13 @@
       <c r="AE54" t="s">
         <v>216</v>
       </c>
-      <c r="AF54" s="10">
+      <c r="AF54" s="31">
         <v>35153</v>
       </c>
-      <c r="AG54" s="10">
+      <c r="AG54" s="31">
         <v>35153</v>
       </c>
-      <c r="AH54" s="10">
+      <c r="AH54" s="31">
         <v>35153</v>
       </c>
       <c r="AI54" t="s">
@@ -15078,7 +15189,7 @@
         <v>226</v>
       </c>
       <c r="EH54" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI54" t="s">
         <v>476</v>
@@ -15202,13 +15313,13 @@
       <c r="AE55" t="s">
         <v>216</v>
       </c>
-      <c r="AF55" s="10">
+      <c r="AF55" s="31">
         <v>41358</v>
       </c>
-      <c r="AG55" s="10">
+      <c r="AG55" s="31">
         <v>41358</v>
       </c>
-      <c r="AH55" s="10">
+      <c r="AH55" s="31">
         <v>41358</v>
       </c>
       <c r="AI55" t="s">
@@ -15404,7 +15515,7 @@
         <v>226</v>
       </c>
       <c r="EH55" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI55" t="s">
         <v>476</v>
@@ -15528,13 +15639,13 @@
       <c r="AE56" t="s">
         <v>216</v>
       </c>
-      <c r="AF56" s="10">
+      <c r="AF56" s="31">
         <v>41358</v>
       </c>
-      <c r="AG56" s="10">
+      <c r="AG56" s="31">
         <v>41358</v>
       </c>
-      <c r="AH56" s="10">
+      <c r="AH56" s="31">
         <v>41358</v>
       </c>
       <c r="AI56" t="s">
@@ -15730,7 +15841,7 @@
         <v>226</v>
       </c>
       <c r="EH56" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI56" t="s">
         <v>476</v>
@@ -15854,13 +15965,13 @@
       <c r="AE57" t="s">
         <v>216</v>
       </c>
-      <c r="AF57" s="10">
+      <c r="AF57" s="31">
         <v>41124</v>
       </c>
-      <c r="AG57" s="10">
+      <c r="AG57" s="31">
         <v>41124</v>
       </c>
-      <c r="AH57" s="10">
+      <c r="AH57" s="31">
         <v>41124</v>
       </c>
       <c r="AI57" t="s">
@@ -16086,7 +16197,7 @@
         <v>226</v>
       </c>
       <c r="EH57" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI57" t="s">
         <v>476</v>
@@ -16204,13 +16315,13 @@
       <c r="AE58" t="s">
         <v>216</v>
       </c>
-      <c r="AF58" s="10">
+      <c r="AF58" s="31">
         <v>31155</v>
       </c>
-      <c r="AG58" s="10">
+      <c r="AG58" s="31">
         <v>31155</v>
       </c>
-      <c r="AH58" s="10">
+      <c r="AH58" s="31">
         <v>31155</v>
       </c>
       <c r="AI58" t="s">
@@ -16316,7 +16427,7 @@
         <v>226</v>
       </c>
       <c r="EH58" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI58" t="s">
         <v>476</v>
@@ -16440,13 +16551,13 @@
       <c r="AE59" t="s">
         <v>216</v>
       </c>
-      <c r="AF59" s="10">
+      <c r="AF59" s="31">
         <v>32493</v>
       </c>
-      <c r="AG59" s="10">
+      <c r="AG59" s="31">
         <v>32493</v>
       </c>
-      <c r="AH59" s="10">
+      <c r="AH59" s="31">
         <v>32493</v>
       </c>
       <c r="AI59" t="s">
@@ -16582,7 +16693,7 @@
         <v>226</v>
       </c>
       <c r="EH59" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI59" t="s">
         <v>476</v>
@@ -16706,13 +16817,13 @@
       <c r="AE60" t="s">
         <v>216</v>
       </c>
-      <c r="AF60" s="10">
+      <c r="AF60" s="31">
         <v>35152</v>
       </c>
-      <c r="AG60" s="10">
+      <c r="AG60" s="31">
         <v>35152</v>
       </c>
-      <c r="AH60" s="10">
+      <c r="AH60" s="31">
         <v>35152</v>
       </c>
       <c r="AI60" t="s">
@@ -16968,7 +17079,7 @@
         <v>226</v>
       </c>
       <c r="EH60" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI60" t="s">
         <v>476</v>
@@ -17090,13 +17201,13 @@
       <c r="AE61" t="s">
         <v>216</v>
       </c>
-      <c r="AF61" s="10">
+      <c r="AF61" s="31">
         <v>42149</v>
       </c>
-      <c r="AG61" s="10">
+      <c r="AG61" s="31">
         <v>42149</v>
       </c>
-      <c r="AH61" s="10">
+      <c r="AH61" s="31">
         <v>42149</v>
       </c>
       <c r="AI61" t="s">
@@ -17322,7 +17433,7 @@
         <v>226</v>
       </c>
       <c r="EH61" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI61" t="s">
         <v>476</v>
@@ -17446,13 +17557,13 @@
       <c r="AE62" t="s">
         <v>216</v>
       </c>
-      <c r="AF62" s="10">
+      <c r="AF62" s="31">
         <v>31576</v>
       </c>
-      <c r="AG62" s="10">
+      <c r="AG62" s="31">
         <v>31576</v>
       </c>
-      <c r="AH62" s="10">
+      <c r="AH62" s="31">
         <v>31576</v>
       </c>
       <c r="AI62" t="s">
@@ -17708,7 +17819,7 @@
         <v>226</v>
       </c>
       <c r="EH62" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI62" t="s">
         <v>476</v>
@@ -17832,13 +17943,13 @@
       <c r="AE63" t="s">
         <v>216</v>
       </c>
-      <c r="AF63" s="10">
+      <c r="AF63" s="31">
         <v>40954</v>
       </c>
-      <c r="AG63" s="10">
+      <c r="AG63" s="31">
         <v>40954</v>
       </c>
-      <c r="AH63" s="10">
+      <c r="AH63" s="31">
         <v>40954</v>
       </c>
       <c r="AI63" t="s">
@@ -18064,7 +18175,7 @@
         <v>226</v>
       </c>
       <c r="EH63" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI63" t="s">
         <v>476</v>
@@ -18182,13 +18293,13 @@
       <c r="AE64" t="s">
         <v>216</v>
       </c>
-      <c r="AF64" s="10">
+      <c r="AF64" s="31">
         <v>31013</v>
       </c>
-      <c r="AG64" s="10">
+      <c r="AG64" s="31">
         <v>31013</v>
       </c>
-      <c r="AH64" s="10">
+      <c r="AH64" s="31">
         <v>31013</v>
       </c>
       <c r="AI64" t="s">
@@ -18294,7 +18405,7 @@
         <v>226</v>
       </c>
       <c r="EH64" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI64" t="s">
         <v>476</v>
@@ -18418,13 +18529,13 @@
       <c r="AE65" t="s">
         <v>216</v>
       </c>
-      <c r="AF65" s="10">
+      <c r="AF65" s="31">
         <v>35209</v>
       </c>
-      <c r="AG65" s="10">
+      <c r="AG65" s="31">
         <v>35209</v>
       </c>
-      <c r="AH65" s="10">
+      <c r="AH65" s="31">
         <v>35209</v>
       </c>
       <c r="AI65" t="s">
@@ -18680,7 +18791,7 @@
         <v>226</v>
       </c>
       <c r="EH65" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI65" t="s">
         <v>476</v>
@@ -18804,13 +18915,13 @@
       <c r="AE66" t="s">
         <v>216</v>
       </c>
-      <c r="AF66" s="10">
+      <c r="AF66" s="31">
         <v>40004</v>
       </c>
-      <c r="AG66" s="10">
+      <c r="AG66" s="31">
         <v>40004</v>
       </c>
-      <c r="AH66" s="10">
+      <c r="AH66" s="31">
         <v>40004</v>
       </c>
       <c r="AI66" t="s">
@@ -19008,7 +19119,7 @@
         <v>226</v>
       </c>
       <c r="EH66" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI66" t="s">
         <v>476</v>
@@ -19126,13 +19237,13 @@
       <c r="AE67" t="s">
         <v>216</v>
       </c>
-      <c r="AF67" s="10">
+      <c r="AF67" s="31">
         <v>32282</v>
       </c>
-      <c r="AG67" s="10">
+      <c r="AG67" s="31">
         <v>32282</v>
       </c>
-      <c r="AH67" s="10">
+      <c r="AH67" s="31">
         <v>32282</v>
       </c>
       <c r="AI67" t="s">
@@ -19238,7 +19349,7 @@
         <v>226</v>
       </c>
       <c r="EH67" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI67" t="s">
         <v>476</v>
@@ -19360,13 +19471,13 @@
       <c r="AE68" t="s">
         <v>216</v>
       </c>
-      <c r="AF68" s="10">
+      <c r="AF68" s="31">
         <v>40969</v>
       </c>
-      <c r="AG68" s="10">
+      <c r="AG68" s="31">
         <v>40969</v>
       </c>
-      <c r="AH68" s="10">
+      <c r="AH68" s="31">
         <v>40969</v>
       </c>
       <c r="AI68" t="s">
@@ -19592,7 +19703,7 @@
         <v>226</v>
       </c>
       <c r="EH68" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI68" t="s">
         <v>476</v>
@@ -19714,13 +19825,13 @@
       <c r="AE69" t="s">
         <v>216</v>
       </c>
-      <c r="AF69" s="10">
+      <c r="AF69" s="31">
         <v>40969</v>
       </c>
-      <c r="AG69" s="10">
+      <c r="AG69" s="31">
         <v>40969</v>
       </c>
-      <c r="AH69" s="10">
+      <c r="AH69" s="31">
         <v>40969</v>
       </c>
       <c r="AI69" t="s">
@@ -19946,7 +20057,7 @@
         <v>226</v>
       </c>
       <c r="EH69" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI69" t="s">
         <v>476</v>
@@ -20070,13 +20181,13 @@
       <c r="AE70" t="s">
         <v>216</v>
       </c>
-      <c r="AF70" s="10">
+      <c r="AF70" s="31">
         <v>34807</v>
       </c>
-      <c r="AG70" s="10">
+      <c r="AG70" s="31">
         <v>34807</v>
       </c>
-      <c r="AH70" s="10">
+      <c r="AH70" s="31">
         <v>34807</v>
       </c>
       <c r="AI70" t="s">
@@ -20362,7 +20473,7 @@
         <v>226</v>
       </c>
       <c r="EH70" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI70" t="s">
         <v>476</v>
@@ -20480,13 +20591,13 @@
       <c r="AE71" t="s">
         <v>216</v>
       </c>
-      <c r="AF71" s="10">
+      <c r="AF71" s="31">
         <v>33013</v>
       </c>
-      <c r="AG71" s="10">
+      <c r="AG71" s="31">
         <v>33013</v>
       </c>
-      <c r="AH71" s="10">
+      <c r="AH71" s="31">
         <v>33013</v>
       </c>
       <c r="AI71" t="s">
@@ -20592,7 +20703,7 @@
         <v>226</v>
       </c>
       <c r="EH71" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI71" t="s">
         <v>476</v>
@@ -20710,13 +20821,13 @@
       <c r="AE72" t="s">
         <v>216</v>
       </c>
-      <c r="AF72" s="10">
+      <c r="AF72" s="31">
         <v>32300</v>
       </c>
-      <c r="AG72" s="10">
+      <c r="AG72" s="31">
         <v>32300</v>
       </c>
-      <c r="AH72" s="10">
+      <c r="AH72" s="31">
         <v>32300</v>
       </c>
       <c r="AI72" t="s">
@@ -20822,7 +20933,7 @@
         <v>226</v>
       </c>
       <c r="EH72" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI72" t="s">
         <v>476</v>
@@ -20946,13 +21057,13 @@
       <c r="AE73" t="s">
         <v>216</v>
       </c>
-      <c r="AF73" s="10">
+      <c r="AF73" s="31">
         <v>43271</v>
       </c>
-      <c r="AG73" s="10">
+      <c r="AG73" s="31">
         <v>43271</v>
       </c>
-      <c r="AH73" s="10">
+      <c r="AH73" s="31">
         <v>43271</v>
       </c>
       <c r="AI73" t="s">
@@ -21209,7 +21320,7 @@
         <v>226</v>
       </c>
       <c r="EH73" t="s">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="EI73" t="s">
         <v>476</v>
@@ -21241,12 +21352,466 @@
       <c r="ES73" t="s">
         <v>434</v>
       </c>
+    </row>
+    <row r="74" spans="1:149" ht="45">
+      <c r="A74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>914</v>
+      </c>
+      <c r="C74" t="s">
+        <v>914</v>
+      </c>
+      <c r="D74" t="s">
+        <v>912</v>
+      </c>
+      <c r="E74" t="s">
+        <v>912</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H74" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" t="s">
+        <v>206</v>
+      </c>
+      <c r="J74" t="s">
+        <v>208</v>
+      </c>
+      <c r="L74" t="s">
+        <v>913</v>
+      </c>
+      <c r="M74" t="s">
+        <v>221</v>
+      </c>
+      <c r="N74" t="s">
+        <v>913</v>
+      </c>
+      <c r="O74" t="s">
+        <v>221</v>
+      </c>
+      <c r="R74">
+        <v>-52</v>
+      </c>
+      <c r="S74">
+        <v>-68</v>
+      </c>
+      <c r="T74">
+        <v>61</v>
+      </c>
+      <c r="U74">
+        <v>46.5</v>
+      </c>
+      <c r="V74" t="s">
+        <v>210</v>
+      </c>
+      <c r="W74" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>916</v>
+      </c>
+      <c r="Z74" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF74" s="31">
+        <v>42263</v>
+      </c>
+      <c r="AG74" s="31">
+        <v>43255</v>
+      </c>
+      <c r="AH74" s="31">
+        <v>42263</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>913</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS74" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="EE74" t="s">
+        <v>207</v>
+      </c>
+      <c r="EF74" t="s">
+        <v>207</v>
+      </c>
+      <c r="EG74" t="s">
+        <v>226</v>
+      </c>
+      <c r="EH74" t="s">
+        <v>919</v>
+      </c>
+      <c r="EI74" t="s">
+        <v>918</v>
+      </c>
+      <c r="EK74" t="s">
+        <v>414</v>
+      </c>
+      <c r="EL74" t="s">
+        <v>415</v>
+      </c>
+      <c r="EM74" t="s">
+        <v>921</v>
+      </c>
+      <c r="EN74" t="s">
+        <v>922</v>
+      </c>
+      <c r="EO74" t="s">
+        <v>923</v>
+      </c>
+      <c r="EP74" t="s">
+        <v>924</v>
+      </c>
+      <c r="EQ74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:149" ht="300">
+      <c r="A75" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D75" t="s">
+        <v>926</v>
+      </c>
+      <c r="E75" t="s">
+        <v>926</v>
+      </c>
+      <c r="F75" t="s">
+        <v>205</v>
+      </c>
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" t="s">
+        <v>205</v>
+      </c>
+      <c r="I75" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" t="s">
+        <v>221</v>
+      </c>
+      <c r="R75">
+        <v>-52</v>
+      </c>
+      <c r="S75">
+        <v>-68</v>
+      </c>
+      <c r="T75">
+        <v>61</v>
+      </c>
+      <c r="U75">
+        <v>46.5</v>
+      </c>
+      <c r="V75" t="s">
+        <v>210</v>
+      </c>
+      <c r="W75" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y75" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF75" s="31">
+        <v>41670</v>
+      </c>
+      <c r="AG75" s="31">
+        <v>41670</v>
+      </c>
+      <c r="AH75" s="31">
+        <v>41670</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO75" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>928</v>
+      </c>
+      <c r="EE75" t="s">
+        <v>207</v>
+      </c>
+      <c r="EF75" t="s">
+        <v>207</v>
+      </c>
+      <c r="EG75" t="s">
+        <v>226</v>
+      </c>
+      <c r="EH75" t="s">
+        <v>919</v>
+      </c>
+      <c r="EI75" t="s">
+        <v>918</v>
+      </c>
+      <c r="EK75" t="s">
+        <v>414</v>
+      </c>
+      <c r="EL75" t="s">
+        <v>415</v>
+      </c>
+      <c r="EM75" t="s">
+        <v>921</v>
+      </c>
+      <c r="EN75" t="s">
+        <v>922</v>
+      </c>
+      <c r="EO75" t="s">
+        <v>929</v>
+      </c>
+      <c r="EP75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:149" ht="135">
+      <c r="A76" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D76" t="s">
+        <v>933</v>
+      </c>
+      <c r="E76" t="s">
+        <v>933</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I76" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" t="s">
+        <v>208</v>
+      </c>
+      <c r="L76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M76" t="s">
+        <v>221</v>
+      </c>
+      <c r="R76">
+        <v>-52</v>
+      </c>
+      <c r="S76">
+        <v>-68</v>
+      </c>
+      <c r="T76">
+        <v>61</v>
+      </c>
+      <c r="U76">
+        <v>46.5</v>
+      </c>
+      <c r="V76" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y76" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF76" s="31">
+        <v>41913</v>
+      </c>
+      <c r="AG76" s="31">
+        <v>41913</v>
+      </c>
+      <c r="AH76" s="31">
+        <v>41913</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO76" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:149" ht="18.75">
+      <c r="Z77" s="29"/>
+    </row>
+    <row r="78" spans="1:149">
+      <c r="Z78" s="28"/>
+    </row>
+    <row r="79" spans="1:149" ht="15.75">
+      <c r="Z79" s="32"/>
+    </row>
+    <row r="80" spans="1:149" ht="15.75">
+      <c r="Z80" s="32"/>
+    </row>
+    <row r="81" spans="26:26" ht="15.75">
+      <c r="Z81" s="32"/>
     </row>
   </sheetData>
   <sortState ref="B1:B16385">
     <sortCondition ref="B1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="AS74" r:id="rId1"/>
+    <hyperlink ref="B75" r:id="rId2" display="mailto:gerrykilfoil@gov.nl.ca"/>
+    <hyperlink ref="C75" r:id="rId3" display="mailto:gerrykilfoil@gov.nl.ca"/>
+    <hyperlink ref="Y75" r:id="rId4"/>
+    <hyperlink ref="Y76" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/docs/NL CE-Relevant Data.xlsx
+++ b/docs/NL CE-Relevant Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6748" uniqueCount="1157">
   <si>
     <t>Title</t>
   </si>
@@ -3091,9 +3091,6 @@
     <t>GEOSCIENCE ATLAS: LAND USE - Planning Areas</t>
   </si>
   <si>
-    <t>Planning areas of Newfoundland and Labrador</t>
-  </si>
-  <si>
     <t>Planning Areas</t>
   </si>
   <si>
@@ -3230,6 +3227,281 @@
   </si>
   <si>
     <t>lake sediment</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Detailed Lake Water Geochemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed Lake Water Geochemistry </t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/82</t>
+  </si>
+  <si>
+    <t>lake water</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Regional Lake Sediment Geochemistry</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/lakegeochemhelp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Lake Sediment Geochemistry </t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/83</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Regional Lake Sediment Geochemistry Contours</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/LakeGeochemImageHelp.html</t>
+  </si>
+  <si>
+    <t>This help file contains documentation for the geochemical data for lake sediment and water for the digital compilation of geoscience data forNewfoundland and Labrador (south of latitude 58° 30´ N). The data are fromthe National Geochemical Reconnaissance (NGR) Survey reports (Table 1). Thegeochemical data can be displayed in several formats (or coverages),including a comprehensive database of field observations and geochemicalanalyses for each site as dot plots, as well as interpolated geochemicalsurfaces as both colour raster images and as line contours. The colourraster format is the lowest resolution and is intended for broad overviewsof large areas, when the individual pixels representing 1000 by 1000 m gridcells are not apparent. The line contours, derived from the sameinterpolated surface, through their labels provide quantitative estimates ofelement concentrations in contrast to the raster surface which provides onlyrelative levels. The line contours are more effective at larger scales, butplotting the individual site values provides the most detailed level ofinformation. Whereas the raster images are prepared using specializedsoftware and can only be turned on or off, the viewing software itself canbe used to illustrate variations in element concentrations from site to siteby, for example, using incrementally sized symbols.  In 2011, the sediments from the original NGR study were reanalyzed using a Fisons Instruments MaximIII fully simultaneous Inductively Coupled Plasma-Emission Spectrometer(ICP-ES) and Thermo Instruments Iris High Resolution ICP-ES.  Thirtyelements were analysed using the method described in the 2012 open file report  Lab/1602. This link also provides a further link to the downloadable database, in .csv format,containing the old data as well as the new ICP data, identified by suffix of'2' (e.g., Cu2_ppm).</t>
+  </si>
+  <si>
+    <t>This help file contains documentation for the geochemical data for lake sediment and water for the digital compilation of geoscience data forNewfoundland and Labrador (south of latitude 58° 30´ N). The data are fromthe National Geochemical Reconnaissance (NGR) Survey reports (see References). Thegeochemical data can be displayed in several formats (or coverages),including a comprehensive database of field observations and geochemicalanalyses (Table 1) for each site as dot plots, as well as interpolated geochemicalsurfaces as both colour raster images and as line contours. The colourraster format is the lowest resolution and is intended for broad overviewsof large areas, when the individual pixels representing 1000 by 1000 m gridcells are not apparent. The line contours, derived from the sameinterpolated surface, through their labels provide quantitative estimates ofelement concentrations in contrast to the raster surface which provides onlyrelative levels. The line contours are more effective at larger scales, butplotting the individual site values provides the most detailed level ofinformation. Whereas the raster images are prepared using specializedsoftware and can only be turned on or off, the viewing software itself canbe used to illustrate variations in element concentrations from site to siteby, for example, using incrementally sized symbols.  In 2011, the sediments from the original NGR study were reanalyzed using a Fisons Instruments MaximIII fully simultaneous Inductively Coupled Plasma-Emission Spectrometer(ICP-ES) and Thermo Instruments Iris High Resolution ICP-ES.  Thirtyelements were analysed using the method described in the 2012 open file report  Lab/1602. This link also provides a further link to the downloadable database, in .csv format,containing the old data as well as the new ICP data, identified by suffix of'2' (e.g., Cu2_ppm).</t>
+  </si>
+  <si>
+    <t>Regional Lake Sediment Geochemistry Contours</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/133</t>
+  </si>
+  <si>
+    <t>lake sediment contours</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Regional Lake Sediment Geochemistry Images</t>
+  </si>
+  <si>
+    <t>Regional Lake Sediment Geochemistry Images</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/167</t>
+  </si>
+  <si>
+    <t>lake sediment images</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Regional Stream Sediment Geochemistry</t>
+  </si>
+  <si>
+    <t>Stream-sediment and water were the main regional sample media north of latitude 58°N in the Torngat Mountains (e.g., GeologicalSurvey of Canada et al., 1987; Friske et al., 1994), where lakes are few and irregularly distributed.  A total of 1244 stream sites were sampled in the 1980's.  The Geological Survey of Canada organized the reconnaissance survey with the Newfoundland Department of Mines andEnergy, under the Canada-Newfoundland Mineral Development Agreement of 1984-1989.  The lake-sediment and stream-sediment data were first released as a series of open files under the National Geochemical Reconnaissance (NGR) program (Hornbrook, E.H.W., etal., 1979). Later the stream samples were reanalyzed using INAA and ICP techniques.  Lake and stream data are not directly comparable for most parameters(Davenport, 1990; Figure 1) and are therefore treated separately in the Geoscience Atlas.  Individual sites can be symbolized and classified in a variety of ways (Figure 2) using the data contained in the attribute tables. The images and contour maps are available through the Geoscience Atlas of Labrador (Davenport et al., 1999; Open File LAB/1305).</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/streamgeochemhelp.html</t>
+  </si>
+  <si>
+    <t>Regional Stream Sediment Geochemistry</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/246</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>stream sediment</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>river sediment</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  GEOCHEMISTRY - Detailed Stream Sediment and Water Geochemistry</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/StreamSedsWaterDetailed_Help.html</t>
+  </si>
+  <si>
+    <t>This help file contains documentation for the field and geochemical data for detailed-scale stream surveys conducted in both Newfoundland and Labrador by the Newfoundland and Labrador Geological Survey. Surveys of stream sediment and stream water have been carried out since the mid-1970's.</t>
+  </si>
+  <si>
+    <t>Detailed Stream Sediment and Water Geochemistry</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Geochemistry_All/MapServer/296</t>
+  </si>
+  <si>
+    <t>1:1 Million Bedrock Geology: This digital file is derived from two individual 1:1 Million scale published hard copy maps.</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Bedrock_Geology_All/MapServer</t>
+  </si>
+  <si>
+    <t>Bedrock Geology</t>
+  </si>
+  <si>
+    <t>bedrock geology</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS:  BEDROCK GEOLOGY</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY - Carbon 14 Age Dates</t>
+  </si>
+  <si>
+    <t>The Carbon-14 geochronology database for Newfoundland and Labrador provides a complete catalogue of carbon-14 age dates for over 1300 samples (Taylor and Batterson, 2001). Various types of material have been analyzed including shells, peat, wood, mud, calcite, charcoal, bone, gyttja and charred fat.  The sample date is in years before present (BP).  The age range of these dates is from modern to greater than 40,000 years BP with most occurring between 1000 and 14000 BP.  The limit of carbon-14 dating is currently about 60,000 years; the use of linear accelerators possibly extend this limit back to about 100,000 years.  Some of the organic and shell samples were collected offshore.  This compilation can be used by geoscientists for a variety of geological purposes, including studies in relative sea level fluctuations, reconstruction of ice margins, and as a guide for future age-dating work. This compilation will be updated as more dates become available.</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/Radiocarbondates_Help.html</t>
+  </si>
+  <si>
+    <t>Radiocarbon Dates (Carbon 14)</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Surficial_Geology_All/MapServer/0</t>
+  </si>
+  <si>
+    <t>surficial geology</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY - Striations</t>
+  </si>
+  <si>
+    <t>The favoured method of delineating ice flow is by mapping striations on bedrock (Batterson and Liverman, 2001). Striations are excellent indicators of ice flow as they are formed by the direct action of moving ice. Data from individual striations should be treated with caution, as ice-flow patterns can show considerable local variation where ice flow was deflected by local topography. Regional flow patterns can only be deduced after examining numerous striated sites. The orientation of ice flow can easily be discerned from a striation by measuring its azimuth. Determination of the direction of flow can be made by observing the striation pattern over the outcrop. For example, areas in the lee of ice flow may not be striated. The presence of such features as 'nail-head' striations, miniature crag-and-tails (rat-tails), and the morphology of the bedrock surface may all show the effects of sculpturing by ice (Iverson, 1991). At many sites, the direction of ice flow is unclear and only the overall orientation of ice flow (e.g., north or south) can be deduced. Where striations representing separate flow events are found, the age relationships are based on crosscutting striation sets, and preservation of older striations in the lee of younger striations.  In 1989, the Terrain Sciences Section of the Department of Mines and Energy initiated a project to acquire and compile striation data for the island of Newfoundland. The striation database project is designed to complement the Surficial Geology of Insular Newfoundland Map (Liverman and Taylor, 1990), and the on-going 1: 50 000 scale Quaternary mapping of Newfoundland, as a basis for efficient mineral exploration in drift-covered areas of the province.  This database contains information (see Table 1) obtained from a variety of sources including published and unpublished reports, maps and field notes from provincial and federal geologists. New field work will continue in areas previously unmapped and in areas where confirmation of existing data is required. This database will be updated as new data is released. To help with analysis, the surficial geology (regional and detailed) can be turned on as well, through the Surficial Geology Options section of the Geoscience Atlas Online.  The complete database is available in digital form from the Terrain Sciences Section or the Geoscience Data Management Section.   A modified form of the database, with only the most significant striations (Plot=1 or 2, but not 3), can be downloaded from the  Geoscience Atlas.</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/Striations_Help.html</t>
+  </si>
+  <si>
+    <t>Striations</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Surficial_Geology_All/MapServer/1</t>
+  </si>
+  <si>
+    <t>glaciation</t>
+  </si>
+  <si>
+    <t>striations</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY - Surficial Landforms</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/Landforms_Help.html</t>
+  </si>
+  <si>
+    <t>Surficial maps provide data on the types of material and landforms found at the surface. These maps are largely derived from aerial photograph interpretation with a variable amount of field checking. On some individual paper or pdf maps a reliability diagram is attached which outlines the amount of field checking.  Regional and detailed surficial geology maps provide information on the types of material and 'area landforms' found at the surface.  This help file describes the linear and point landforms, such as delta, kettle holes and roche moutonnee.  Note that striations and radiocarbon dates are provided as separate layers.  Over 100 1:50,000 NTS map sheets have been mapped (as of October 2010) : two-thirds in Newfoundland and one-third in Labrador. Click on "Toggle Legend" in the upper right of the Geoscience Atlas to display the legend information for these layers</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Surficial_Geology_All/MapServer/2</t>
+  </si>
+  <si>
+    <t>Landforms</t>
+  </si>
+  <si>
+    <t>landforms</t>
+  </si>
+  <si>
+    <t>radiocarbon</t>
+  </si>
+  <si>
+    <t>carbon 14</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY - Aggregate Resources
+(Samples, Eskers, Potential)</t>
+  </si>
+  <si>
+    <t>Aggregate can be defined as any hard, inert material such as gravel, sand, crushed stone or other mineral material that is used in the construction industry (Carter, 1981; Rutka, 1976). The demand for aggregate is closely associated with construction activity, and road construction and maintenance is by far the most important use of mineral aggregates (Ricketts, 2008). The suitability of quarry materials for aggregate use depends on their composition (e.g., silt-clay content; Vanderveer 1983; Ricketts, 2008). Glaciofluvial deposits, such as eskers, terraces and deltas are generally the most suitable deposits for aggregate material. These deposits are commonly clean sand and gravel materials with low silt-clay, deposited by meltwater from glaciers (Ricketts, 2008). In addition, the suitability of aggregate depends on physical properties and the capability of the rock to withstand stress (e.g., low petrographic number; Ricketts, 2008). This help file contains documentation for the granular-aggregate resource database of Newfoundland and Labrador for the Geoscience Atlas Online. The database provides information on more than 13 000 samples collected from 230 1:50 000-scale NTS mapsheets in Newfoundland and Labrador. This database consists of three individual layers/datasets: Aggregate Samples, Aggregate Eskers and Aggregate Potential, all of which can be activated through the Surficial Geology Options in the Map Themes section of the Geoscience Atlas Online. To help with analysis, the surficial geology (regional and detailed) can also be turned on.  New field work will continue in areas previously unmapped. This database will be updated as new data is released.</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/Surficial_aggregate_Help.html</t>
+  </si>
+  <si>
+    <t>Aggregate Resources  
+(Samples, Eskers, Potential)</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Surficial_Geology_All/MapServer/7</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>eskers</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY -  DETAILED (1:50 000 SCALE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surficial geology maps provide data on the types of material and area landforms found at the surface. These maps are largely derived from aerial photograph interpretation with a variable amount of field checking. On some individual maps a reliability diagram is attached which outlines the amount of field checking. Linear and point landforms, such as delta, kettle holes and roche moutonnee, are displayed on their own landform layers.  The legend has a genetic category that defines the sediment type (e.g., glacial, fluvial, aeolian), and a morphology category that describes the surface expression (e.g., veneer, blanket, hummocky, fan). Most mapped units contain more than one genetic and/or morphological type. To accommodate this, units are subdivided by decreasing dominance (e.g., Tv/Rc means that the area is dominantly a veneer of glacial sediment, with a lesser area of bedrock concealed by a mat of vegetation). Up to three genetic or morphological categories can be accommodated on the maps, with a combination of slashes (/ or //) and hyphens (-) being used to indicated relative proportions. The maps provide only a general indication of sediment characteristics and some variability in sediment is to be expected across a map area. A till, for instance, may have a silty texture in one part of the area, and be sandier elsewhere, although both areas will have the T designation. Similarly, overburden thickness can only be inferred from these maps.  Over 140 1:50,000 NTS sheets have been mapped (as of October 2014) : two-thirds in Newfoundland and one-third in Labrador. Click on Legend icon in the upper right of the Geoscience Atlas to display the legend information for this layer. Note that zooming in on the regional surficial geology layer will not automatically display the detailed surficial geology layer. </t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/SurfGeol50k_Help.html</t>
+  </si>
+  <si>
+    <t>Surficial Geology Detailed (1:50000 Scale)</t>
+  </si>
+  <si>
+    <t>http://dnrmaps.gov.nl.ca/arcgis/rest/services/GeoAtlas/Surficial_Geology_All/MapServer/11</t>
+  </si>
+  <si>
+    <t>GEOSCIENCE ATLAS: SURFICIAL GEOLOGY -  REGIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surficial geology map layer provides data on the types of material and landforms found at the surface of the earth. It was derived from 1:50 000, 1:250 000 and 1:1 000 000 scale surficial geology maps, aerial photograph interpretation and variable amounts of field verification. The regional surfical geology map of the Island of Newfoundland was compiled by Liverman and Taylor (1990a). The compiled paper version was prepared at a scale of 1:500 000 (Liverman and Taylor, 1990b). The regional surficial geology map of Labrador was compiled by Klassen et al. (1992, Map n. 1814A) at a 1:1 000 000 scale. The map presented in the Geoscience Atlas, is based on the attributes in the 'Genetic1Ma' field (see Table 1). These are attributes as defined in Klassen et al. (1992) for the Labrador map. The surficial geology attributes in the 'Genetic250' field, for the Island portion of the map, were translated to the equivalent attribute in the 'Genetic1Ma' field. </t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/SurfGeolRegional_Help.html</t>
+  </si>
+  <si>
+    <t>Surficial Geology Regional</t>
+  </si>
+  <si>
+    <t>detailed surficial geology</t>
+  </si>
+  <si>
+    <t>regional surficial geology</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/GeophysicsRegionalHelp.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/Custom/help/Coastal_Monitoring/CoastalMonitoring_help.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/Custom/help/Coastal_Monitoring/CoastalIndices.pdf</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/Custom/help/Coastal_Monitoring/CoastalCharacterizationRoutes.pdf</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/bedgeoindexhelp.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/SurficialIndexHelp.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/TillIndexHelp.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/GeochemIndexHelp.html</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/AirbourneIndexHelp.html</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/ola/</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/MAPAhelp.html</t>
+  </si>
+  <si>
+    <t>A Municipal Boundary is an area in which a municipal council can exercise its powers given to it under the Municipalities Act. A Municipal Planning Area is the area in which a municipal plan applies. The Municipal and Planning Area boundaries were originally produced in a digital format in 2002. These are updated periodically when required. However, it should be noted that the written gazetted description is the legal boundary.</t>
+  </si>
+  <si>
+    <t>https://geoatlas.gov.nl.ca/custom/help/MineralLands_Help.html</t>
   </si>
 </sst>
 </file>
@@ -4091,7 +4363,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D17"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4777,11 +5049,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ET95"/>
+  <dimension ref="A1:ET108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EL1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="ER96" sqref="ER96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y90" sqref="Y90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21956,7 +22228,7 @@
         <v>354</v>
       </c>
       <c r="Y75" s="7" t="s">
-        <v>925</v>
+        <v>1144</v>
       </c>
       <c r="Z75" s="2" t="s">
         <v>932</v>
@@ -22111,7 +22383,7 @@
         <v>958</v>
       </c>
       <c r="Y76" s="7" t="s">
-        <v>925</v>
+        <v>1145</v>
       </c>
       <c r="Z76" s="2" t="s">
         <v>929</v>
@@ -22266,7 +22538,7 @@
         <v>958</v>
       </c>
       <c r="Y77" s="7" t="s">
-        <v>925</v>
+        <v>1146</v>
       </c>
       <c r="Z77" s="31" t="s">
         <v>943</v>
@@ -22424,7 +22696,7 @@
         <v>958</v>
       </c>
       <c r="Y78" s="7" t="s">
-        <v>925</v>
+        <v>1147</v>
       </c>
       <c r="Z78" s="31" t="s">
         <v>962</v>
@@ -22576,7 +22848,7 @@
         <v>958</v>
       </c>
       <c r="Y79" s="7" t="s">
-        <v>925</v>
+        <v>1148</v>
       </c>
       <c r="Z79" s="32" t="s">
         <v>967</v>
@@ -22731,7 +23003,7 @@
         <v>958</v>
       </c>
       <c r="Y80" s="7" t="s">
-        <v>925</v>
+        <v>1149</v>
       </c>
       <c r="Z80" s="30" t="s">
         <v>972</v>
@@ -22886,7 +23158,7 @@
         <v>958</v>
       </c>
       <c r="Y81" s="7" t="s">
-        <v>925</v>
+        <v>1150</v>
       </c>
       <c r="Z81" s="30" t="s">
         <v>978</v>
@@ -23041,7 +23313,7 @@
         <v>958</v>
       </c>
       <c r="Y82" s="7" t="s">
-        <v>925</v>
+        <v>1151</v>
       </c>
       <c r="Z82" s="28" t="s">
         <v>986</v>
@@ -23196,7 +23468,7 @@
         <v>354</v>
       </c>
       <c r="Y83" s="7" t="s">
-        <v>925</v>
+        <v>1152</v>
       </c>
       <c r="Z83" s="2" t="s">
         <v>987</v>
@@ -23351,7 +23623,7 @@
         <v>958</v>
       </c>
       <c r="Y84" s="7" t="s">
-        <v>925</v>
+        <v>1153</v>
       </c>
       <c r="Z84" s="2" t="s">
         <v>995</v>
@@ -23500,7 +23772,7 @@
         <v>1001</v>
       </c>
       <c r="Y85" s="7" t="s">
-        <v>925</v>
+        <v>1153</v>
       </c>
       <c r="Z85" s="2" t="s">
         <v>999</v>
@@ -23652,7 +23924,7 @@
         <v>1001</v>
       </c>
       <c r="Y86" s="7" t="s">
-        <v>925</v>
+        <v>1153</v>
       </c>
       <c r="Z86" s="2" t="s">
         <v>1005</v>
@@ -23906,7 +24178,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="88" spans="1:149" ht="30">
+    <row r="88" spans="1:149" ht="120">
       <c r="A88" s="2" t="s">
         <v>1015</v>
       </c>
@@ -23962,10 +24234,10 @@
         <v>1016</v>
       </c>
       <c r="Y88" s="7" t="s">
-        <v>925</v>
+        <v>1154</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>1009</v>
+        <v>1155</v>
       </c>
       <c r="AA88" t="s">
         <v>217</v>
@@ -24010,7 +24282,7 @@
         <v>216</v>
       </c>
       <c r="AO88" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AP88" t="s">
         <v>937</v>
@@ -24055,7 +24327,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:149" ht="30">
+    <row r="89" spans="1:149" ht="120">
       <c r="A89" s="2" t="s">
         <v>1019</v>
       </c>
@@ -24108,13 +24380,13 @@
         <v>208</v>
       </c>
       <c r="W89" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Y89" s="7" t="s">
-        <v>925</v>
+        <v>1154</v>
       </c>
       <c r="Z89" s="2" t="s">
-        <v>1020</v>
+        <v>1155</v>
       </c>
       <c r="AA89" t="s">
         <v>217</v>
@@ -24159,7 +24431,7 @@
         <v>216</v>
       </c>
       <c r="AO89" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AP89" t="s">
         <v>937</v>
@@ -24171,7 +24443,7 @@
         <v>221</v>
       </c>
       <c r="AS89" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AT89" t="s">
         <v>926</v>
@@ -24198,7 +24470,7 @@
         <v>232</v>
       </c>
       <c r="EL89" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="EM89" t="s">
         <v>272</v>
@@ -24206,19 +24478,19 @@
     </row>
     <row r="90" spans="1:149" ht="30">
       <c r="A90" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D90" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E90" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F90" t="s">
         <v>203</v>
@@ -24260,10 +24532,10 @@
         <v>958</v>
       </c>
       <c r="Y90" s="7" t="s">
-        <v>925</v>
+        <v>1156</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA90" t="s">
         <v>217</v>
@@ -24308,7 +24580,7 @@
         <v>216</v>
       </c>
       <c r="AO90" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AP90" t="s">
         <v>937</v>
@@ -24320,7 +24592,7 @@
         <v>221</v>
       </c>
       <c r="AS90" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AT90" t="s">
         <v>926</v>
@@ -24359,27 +24631,27 @@
         <v>272</v>
       </c>
       <c r="EP90" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EQ90" t="s">
         <v>1032</v>
-      </c>
-      <c r="EQ90" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="91" spans="1:149" ht="45">
       <c r="A91" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>1040</v>
-      </c>
       <c r="D91" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E91" t="s">
         <v>1037</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1038</v>
       </c>
       <c r="F91" t="s">
         <v>203</v>
@@ -24424,10 +24696,10 @@
         <v>958</v>
       </c>
       <c r="Y91" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA91" t="s">
         <v>217</v>
@@ -24472,7 +24744,7 @@
         <v>216</v>
       </c>
       <c r="AO91" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AP91" t="s">
         <v>937</v>
@@ -24484,7 +24756,7 @@
         <v>221</v>
       </c>
       <c r="AS91" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AT91" t="s">
         <v>926</v>
@@ -24523,33 +24795,33 @@
         <v>272</v>
       </c>
       <c r="EP91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EQ91" t="s">
         <v>1032</v>
       </c>
-      <c r="EQ91" t="s">
-        <v>1033</v>
-      </c>
       <c r="ER91" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="ES91" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="92" spans="1:149" ht="45">
       <c r="A92" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D92" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E92" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F92" t="s">
         <v>203</v>
@@ -24594,10 +24866,10 @@
         <v>958</v>
       </c>
       <c r="Y92" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA92" t="s">
         <v>217</v>
@@ -24642,7 +24914,7 @@
         <v>216</v>
       </c>
       <c r="AO92" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AP92" t="s">
         <v>937</v>
@@ -24654,7 +24926,7 @@
         <v>221</v>
       </c>
       <c r="AS92" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AT92" t="s">
         <v>926</v>
@@ -24693,33 +24965,33 @@
         <v>272</v>
       </c>
       <c r="EP92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EQ92" t="s">
         <v>1032</v>
       </c>
-      <c r="EQ92" t="s">
-        <v>1033</v>
-      </c>
       <c r="ER92" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="ES92" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="93" spans="1:149" ht="45">
       <c r="A93" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D93" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E93" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F93" t="s">
         <v>203</v>
@@ -24764,10 +25036,10 @@
         <v>958</v>
       </c>
       <c r="Y93" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA93" t="s">
         <v>217</v>
@@ -24812,7 +25084,7 @@
         <v>216</v>
       </c>
       <c r="AO93" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AP93" t="s">
         <v>937</v>
@@ -24824,7 +25096,7 @@
         <v>221</v>
       </c>
       <c r="AS93" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AT93" t="s">
         <v>926</v>
@@ -24863,21 +25135,21 @@
         <v>272</v>
       </c>
       <c r="EP93" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EQ93" t="s">
         <v>1032</v>
       </c>
-      <c r="EQ93" t="s">
-        <v>1033</v>
-      </c>
       <c r="ER93" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="ES93" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="94" spans="1:149" ht="45">
       <c r="A94" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>974</v>
@@ -24934,10 +25206,10 @@
         <v>958</v>
       </c>
       <c r="Y94" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Z94" s="28" t="s">
         <v>1055</v>
-      </c>
-      <c r="Z94" s="28" t="s">
-        <v>1056</v>
       </c>
       <c r="AA94" t="s">
         <v>217</v>
@@ -24982,7 +25254,7 @@
         <v>216</v>
       </c>
       <c r="AO94" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AP94" t="s">
         <v>937</v>
@@ -24994,7 +25266,7 @@
         <v>221</v>
       </c>
       <c r="AS94" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AT94" t="s">
         <v>926</v>
@@ -25033,21 +25305,21 @@
         <v>272</v>
       </c>
       <c r="EP94" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EQ94" t="s">
         <v>1032</v>
       </c>
-      <c r="EQ94" t="s">
-        <v>1033</v>
-      </c>
       <c r="ER94" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="ES94" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:149" ht="45">
       <c r="A95" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>985</v>
@@ -25104,10 +25376,10 @@
         <v>1008</v>
       </c>
       <c r="Y95" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AA95" t="s">
         <v>217</v>
@@ -25152,7 +25424,7 @@
         <v>216</v>
       </c>
       <c r="AO95" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AP95" t="s">
         <v>937</v>
@@ -25200,16 +25472,2148 @@
         <v>927</v>
       </c>
       <c r="EO95" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EP95" t="s">
         <v>1064</v>
       </c>
-      <c r="EP95" t="s">
+      <c r="EQ95" t="s">
         <v>1065</v>
       </c>
-      <c r="EQ95" t="s">
+      <c r="ER95" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:149" ht="45">
+      <c r="A96" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="ER95" t="s">
-        <v>1044</v>
+      <c r="B96" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F96" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" t="s">
+        <v>204</v>
+      </c>
+      <c r="H96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I96" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="10">
+        <v>28491</v>
+      </c>
+      <c r="K96" s="10">
+        <v>38717</v>
+      </c>
+      <c r="L96" t="s">
+        <v>56</v>
+      </c>
+      <c r="M96" t="s">
+        <v>219</v>
+      </c>
+      <c r="R96">
+        <v>-55</v>
+      </c>
+      <c r="S96">
+        <v>-68</v>
+      </c>
+      <c r="T96">
+        <v>61</v>
+      </c>
+      <c r="U96">
+        <v>51.3</v>
+      </c>
+      <c r="V96" t="s">
+        <v>208</v>
+      </c>
+      <c r="W96" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y96" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Z96" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF96" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG96" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH96" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO96" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS96" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE96" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF96" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG96" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH96" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI96" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ96" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK96" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL96" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM96" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN96" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO96" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EP96" t="s">
+        <v>1014</v>
+      </c>
+      <c r="EQ96" t="s">
+        <v>1069</v>
+      </c>
+      <c r="ER96" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="97" spans="1:150" ht="45">
+      <c r="A97" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F97" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" t="s">
+        <v>203</v>
+      </c>
+      <c r="I97" t="s">
+        <v>204</v>
+      </c>
+      <c r="J97" s="10">
+        <v>40544</v>
+      </c>
+      <c r="K97" s="10">
+        <v>40908</v>
+      </c>
+      <c r="L97" t="s">
+        <v>56</v>
+      </c>
+      <c r="M97" t="s">
+        <v>219</v>
+      </c>
+      <c r="R97">
+        <v>-52</v>
+      </c>
+      <c r="S97">
+        <v>-68</v>
+      </c>
+      <c r="T97">
+        <v>61</v>
+      </c>
+      <c r="U97">
+        <v>46.5</v>
+      </c>
+      <c r="V97" t="s">
+        <v>208</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y97" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z97" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF97" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG97" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH97" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO97" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS97" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE97" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF97" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG97" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH97" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI97" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ97" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK97" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL97" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM97" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN97" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO97" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EP97" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ97" t="s">
+        <v>1065</v>
+      </c>
+      <c r="ER97" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="98" spans="1:150" ht="60">
+      <c r="A98" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F98" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" t="s">
+        <v>204</v>
+      </c>
+      <c r="H98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I98" t="s">
+        <v>204</v>
+      </c>
+      <c r="J98" s="10">
+        <v>40544</v>
+      </c>
+      <c r="K98" s="10">
+        <v>40908</v>
+      </c>
+      <c r="L98" t="s">
+        <v>56</v>
+      </c>
+      <c r="M98" t="s">
+        <v>219</v>
+      </c>
+      <c r="R98">
+        <v>-52</v>
+      </c>
+      <c r="S98">
+        <v>-60</v>
+      </c>
+      <c r="T98">
+        <v>52</v>
+      </c>
+      <c r="U98">
+        <v>46.5</v>
+      </c>
+      <c r="V98" t="s">
+        <v>208</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y98" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z98" s="28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF98" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG98" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH98" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO98" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS98" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE98" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF98" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG98" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH98" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI98" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ98" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK98" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL98" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM98" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN98" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EP98" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ98" t="s">
+        <v>1065</v>
+      </c>
+      <c r="ER98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="ES98" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:150" ht="60">
+      <c r="A99" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F99" t="s">
+        <v>203</v>
+      </c>
+      <c r="G99" t="s">
+        <v>204</v>
+      </c>
+      <c r="H99" t="s">
+        <v>203</v>
+      </c>
+      <c r="I99" t="s">
+        <v>204</v>
+      </c>
+      <c r="J99" s="10">
+        <v>40544</v>
+      </c>
+      <c r="K99" s="10">
+        <v>40908</v>
+      </c>
+      <c r="L99" t="s">
+        <v>56</v>
+      </c>
+      <c r="M99" t="s">
+        <v>219</v>
+      </c>
+      <c r="R99">
+        <v>-55</v>
+      </c>
+      <c r="S99">
+        <v>-68</v>
+      </c>
+      <c r="T99">
+        <v>61</v>
+      </c>
+      <c r="U99">
+        <v>51.3</v>
+      </c>
+      <c r="V99" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y99" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z99" s="28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF99" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG99" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH99" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO99" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS99" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE99" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF99" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG99" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH99" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI99" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ99" t="s">
+        <v>412</v>
+      </c>
+      <c r="EK99" t="s">
+        <v>413</v>
+      </c>
+      <c r="EL99" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM99" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN99" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO99" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EP99" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ99" t="s">
+        <v>1065</v>
+      </c>
+      <c r="ER99" t="s">
+        <v>1043</v>
+      </c>
+      <c r="ES99" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="100" spans="1:150" ht="60">
+      <c r="A100" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F100" t="s">
+        <v>203</v>
+      </c>
+      <c r="G100" t="s">
+        <v>204</v>
+      </c>
+      <c r="H100" t="s">
+        <v>203</v>
+      </c>
+      <c r="I100" t="s">
+        <v>204</v>
+      </c>
+      <c r="J100" s="10">
+        <v>29221</v>
+      </c>
+      <c r="K100" s="10">
+        <v>32873</v>
+      </c>
+      <c r="L100" t="s">
+        <v>56</v>
+      </c>
+      <c r="M100" t="s">
+        <v>219</v>
+      </c>
+      <c r="R100">
+        <v>-62</v>
+      </c>
+      <c r="S100">
+        <v>-65.5</v>
+      </c>
+      <c r="T100">
+        <v>61</v>
+      </c>
+      <c r="U100">
+        <v>57.5</v>
+      </c>
+      <c r="V100" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W100" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y100" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Z100" s="28" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF100" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AG100" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AH100" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO100" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS100" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AT100" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE100" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF100" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG100" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH100" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI100" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ100" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK100" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL100" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM100" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN100" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO100" t="s">
+        <v>1090</v>
+      </c>
+      <c r="EP100" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ100" t="s">
+        <v>1091</v>
+      </c>
+      <c r="ER100" t="s">
+        <v>1043</v>
+      </c>
+      <c r="ES100" t="s">
+        <v>1092</v>
+      </c>
+      <c r="ET100" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="101" spans="1:150" ht="60">
+      <c r="A101" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" t="s">
+        <v>204</v>
+      </c>
+      <c r="H101" t="s">
+        <v>203</v>
+      </c>
+      <c r="I101" t="s">
+        <v>204</v>
+      </c>
+      <c r="J101" s="10">
+        <v>27030</v>
+      </c>
+      <c r="K101" s="10">
+        <v>41274</v>
+      </c>
+      <c r="L101" t="s">
+        <v>56</v>
+      </c>
+      <c r="M101" t="s">
+        <v>219</v>
+      </c>
+      <c r="R101">
+        <v>-52</v>
+      </c>
+      <c r="S101">
+        <v>-68</v>
+      </c>
+      <c r="T101">
+        <v>61</v>
+      </c>
+      <c r="U101">
+        <v>46.5</v>
+      </c>
+      <c r="V101" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W101" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y101" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z101" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF101" s="29">
+        <v>42461</v>
+      </c>
+      <c r="AG101" s="29">
+        <v>42461</v>
+      </c>
+      <c r="AH101" s="29">
+        <v>42461</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO101" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS101" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AT101" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE101" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF101" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG101" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH101" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI101" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ101" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK101" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL101" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM101" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN101" t="s">
+        <v>1014</v>
+      </c>
+      <c r="EO101" t="s">
+        <v>1090</v>
+      </c>
+      <c r="EP101" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ101" t="s">
+        <v>1091</v>
+      </c>
+      <c r="ER101" t="s">
+        <v>1043</v>
+      </c>
+      <c r="ES101" t="s">
+        <v>1092</v>
+      </c>
+      <c r="ET101" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="102" spans="1:150" ht="30">
+      <c r="A102" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D102" t="s">
+        <v>968</v>
+      </c>
+      <c r="E102" t="s">
+        <v>968</v>
+      </c>
+      <c r="F102" t="s">
+        <v>203</v>
+      </c>
+      <c r="G102" t="s">
+        <v>204</v>
+      </c>
+      <c r="H102" t="s">
+        <v>203</v>
+      </c>
+      <c r="I102" t="s">
+        <v>204</v>
+      </c>
+      <c r="J102" s="10">
+        <v>32874</v>
+      </c>
+      <c r="K102" s="10">
+        <v>43677</v>
+      </c>
+      <c r="L102" t="s">
+        <v>56</v>
+      </c>
+      <c r="M102" t="s">
+        <v>219</v>
+      </c>
+      <c r="R102">
+        <v>-52</v>
+      </c>
+      <c r="S102">
+        <v>-68</v>
+      </c>
+      <c r="T102">
+        <v>61</v>
+      </c>
+      <c r="U102">
+        <v>46.5</v>
+      </c>
+      <c r="V102" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W102" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y102" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z102" s="28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF102" s="29">
+        <v>43647</v>
+      </c>
+      <c r="AG102" s="29">
+        <v>43647</v>
+      </c>
+      <c r="AH102" s="29">
+        <v>43647</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO102" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ102" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS102" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AT102" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE102" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF102" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG102" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH102" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI102" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ102" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK102" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL102" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM102" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN102" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:150" ht="45">
+      <c r="A103" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="F103" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" t="s">
+        <v>204</v>
+      </c>
+      <c r="H103" t="s">
+        <v>203</v>
+      </c>
+      <c r="I103" t="s">
+        <v>204</v>
+      </c>
+      <c r="J103" s="10">
+        <v>23012</v>
+      </c>
+      <c r="K103" s="10">
+        <v>36891</v>
+      </c>
+      <c r="L103" t="s">
+        <v>56</v>
+      </c>
+      <c r="M103" t="s">
+        <v>219</v>
+      </c>
+      <c r="R103">
+        <v>-52</v>
+      </c>
+      <c r="S103">
+        <v>-68</v>
+      </c>
+      <c r="T103">
+        <v>61</v>
+      </c>
+      <c r="U103">
+        <v>46.5</v>
+      </c>
+      <c r="V103" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W103" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y103" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Z103" s="28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF103" s="29">
+        <v>37256</v>
+      </c>
+      <c r="AG103" s="29">
+        <v>37256</v>
+      </c>
+      <c r="AH103" s="29">
+        <v>37256</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO103" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS103" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AT103" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE103" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF103" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG103" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH103" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI103" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ103" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK103" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL103" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM103" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN103" t="s">
+        <v>1123</v>
+      </c>
+      <c r="EO103" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:150" ht="30">
+      <c r="A104" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="F104" t="s">
+        <v>203</v>
+      </c>
+      <c r="G104" t="s">
+        <v>204</v>
+      </c>
+      <c r="H104" t="s">
+        <v>203</v>
+      </c>
+      <c r="I104" t="s">
+        <v>204</v>
+      </c>
+      <c r="J104" s="10">
+        <v>18629</v>
+      </c>
+      <c r="K104" s="10">
+        <v>40908</v>
+      </c>
+      <c r="L104" t="s">
+        <v>56</v>
+      </c>
+      <c r="M104" t="s">
+        <v>219</v>
+      </c>
+      <c r="R104">
+        <v>-52</v>
+      </c>
+      <c r="S104">
+        <v>-68</v>
+      </c>
+      <c r="T104">
+        <v>61</v>
+      </c>
+      <c r="U104">
+        <v>46.5</v>
+      </c>
+      <c r="V104" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W104" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y104" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Z104" s="28" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF104" s="29">
+        <v>40909</v>
+      </c>
+      <c r="AG104" s="29">
+        <v>40909</v>
+      </c>
+      <c r="AH104" s="29">
+        <v>40909</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN104" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO104" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS104" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AT104" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE104" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF104" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG104" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH104" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI104" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ104" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK104" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL104" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM104" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN104" t="s">
+        <v>1115</v>
+      </c>
+      <c r="EO104" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:150" ht="30">
+      <c r="A105" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="F105" t="s">
+        <v>203</v>
+      </c>
+      <c r="G105" t="s">
+        <v>204</v>
+      </c>
+      <c r="H105" t="s">
+        <v>203</v>
+      </c>
+      <c r="I105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J105" s="10">
+        <v>33239</v>
+      </c>
+      <c r="K105" s="10">
+        <v>40178</v>
+      </c>
+      <c r="L105" t="s">
+        <v>56</v>
+      </c>
+      <c r="M105" t="s">
+        <v>219</v>
+      </c>
+      <c r="R105">
+        <v>-52</v>
+      </c>
+      <c r="S105">
+        <v>-68</v>
+      </c>
+      <c r="T105">
+        <v>61</v>
+      </c>
+      <c r="U105">
+        <v>46.5</v>
+      </c>
+      <c r="V105" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W105" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y105" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Z105" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF105" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG105" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH105" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO105" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS105" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE105" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF105" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG105" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH105" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI105" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ105" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK105" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL105" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM105" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN105" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:150" ht="60">
+      <c r="A106" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F106" t="s">
+        <v>203</v>
+      </c>
+      <c r="G106" t="s">
+        <v>204</v>
+      </c>
+      <c r="H106" t="s">
+        <v>203</v>
+      </c>
+      <c r="I106" t="s">
+        <v>204</v>
+      </c>
+      <c r="J106" s="10">
+        <v>27760</v>
+      </c>
+      <c r="K106" s="10">
+        <v>39813</v>
+      </c>
+      <c r="L106" t="s">
+        <v>56</v>
+      </c>
+      <c r="M106" t="s">
+        <v>219</v>
+      </c>
+      <c r="R106">
+        <v>-52</v>
+      </c>
+      <c r="S106">
+        <v>-68</v>
+      </c>
+      <c r="T106">
+        <v>61</v>
+      </c>
+      <c r="U106">
+        <v>46.5</v>
+      </c>
+      <c r="V106" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W106" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y106" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z106" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF106" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AG106" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AH106" s="29">
+        <v>42005</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN106" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO106" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS106" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AT106" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE106" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF106" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG106" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH106" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI106" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ106" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK106" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL106" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM106" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN106" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EO106" t="s">
+        <v>352</v>
+      </c>
+      <c r="EP106" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EQ106" t="s">
+        <v>1132</v>
+      </c>
+      <c r="ER106" t="s">
+        <v>1109</v>
+      </c>
+      <c r="ES106" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:150" ht="45">
+      <c r="A107" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="F107" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" t="s">
+        <v>204</v>
+      </c>
+      <c r="H107" t="s">
+        <v>203</v>
+      </c>
+      <c r="I107" t="s">
+        <v>204</v>
+      </c>
+      <c r="J107" s="10">
+        <v>33239</v>
+      </c>
+      <c r="K107" s="10">
+        <v>40178</v>
+      </c>
+      <c r="L107" t="s">
+        <v>56</v>
+      </c>
+      <c r="M107" t="s">
+        <v>219</v>
+      </c>
+      <c r="R107">
+        <v>-52</v>
+      </c>
+      <c r="S107">
+        <v>-68</v>
+      </c>
+      <c r="T107">
+        <v>61</v>
+      </c>
+      <c r="U107">
+        <v>46.5</v>
+      </c>
+      <c r="V107" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W107" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y107" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z107" s="28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF107" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AG107" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AH107" s="29">
+        <v>41640</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN107" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO107" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR107" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS107" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AT107" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE107" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF107" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG107" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH107" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI107" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ107" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK107" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL107" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM107" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN107" t="s">
+        <v>1109</v>
+      </c>
+      <c r="EO107" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:150" ht="30">
+      <c r="A108" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="F108" t="s">
+        <v>203</v>
+      </c>
+      <c r="G108" t="s">
+        <v>204</v>
+      </c>
+      <c r="H108" t="s">
+        <v>203</v>
+      </c>
+      <c r="I108" t="s">
+        <v>204</v>
+      </c>
+      <c r="J108" s="10">
+        <v>32874</v>
+      </c>
+      <c r="K108" s="10">
+        <v>33969</v>
+      </c>
+      <c r="L108" t="s">
+        <v>56</v>
+      </c>
+      <c r="M108" t="s">
+        <v>219</v>
+      </c>
+      <c r="R108">
+        <v>-52</v>
+      </c>
+      <c r="S108">
+        <v>-68</v>
+      </c>
+      <c r="T108">
+        <v>61</v>
+      </c>
+      <c r="U108">
+        <v>46.5</v>
+      </c>
+      <c r="V108" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W108" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y108" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z108" s="28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF108" s="29">
+        <v>41974</v>
+      </c>
+      <c r="AG108" s="29">
+        <v>41974</v>
+      </c>
+      <c r="AH108" s="29">
+        <v>41974</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN108" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO108" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>937</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS108" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AT108" t="s">
+        <v>926</v>
+      </c>
+      <c r="EE108" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF108" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG108" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH108" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI108" t="s">
+        <v>916</v>
+      </c>
+      <c r="EJ108" t="s">
+        <v>231</v>
+      </c>
+      <c r="EK108" t="s">
+        <v>232</v>
+      </c>
+      <c r="EL108" t="s">
+        <v>919</v>
+      </c>
+      <c r="EM108" t="s">
+        <v>920</v>
+      </c>
+      <c r="EN108" t="s">
+        <v>1109</v>
+      </c>
+      <c r="EO108" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -25220,52 +27624,78 @@
     <hyperlink ref="AS74" r:id="rId1"/>
     <hyperlink ref="B75" r:id="rId2" display="mailto:gerrykilfoil@gov.nl.ca"/>
     <hyperlink ref="C75" r:id="rId3" display="mailto:gerrykilfoil@gov.nl.ca"/>
-    <hyperlink ref="Y75" r:id="rId4"/>
-    <hyperlink ref="Y76" r:id="rId5"/>
-    <hyperlink ref="AS76" r:id="rId6"/>
-    <hyperlink ref="Y77" r:id="rId7"/>
-    <hyperlink ref="AS77" r:id="rId8"/>
-    <hyperlink ref="Y78" r:id="rId9"/>
-    <hyperlink ref="B79" r:id="rId10" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
-    <hyperlink ref="C79" r:id="rId11" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
-    <hyperlink ref="Y79" r:id="rId12"/>
-    <hyperlink ref="B80" r:id="rId13" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="C80" r:id="rId14" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="Y80" r:id="rId15"/>
-    <hyperlink ref="AS80" r:id="rId16"/>
-    <hyperlink ref="AS79" r:id="rId17"/>
-    <hyperlink ref="Y81" r:id="rId18"/>
-    <hyperlink ref="B81" r:id="rId19" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="C81" r:id="rId20" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="AS81" r:id="rId21"/>
-    <hyperlink ref="B82" r:id="rId22" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
-    <hyperlink ref="C82" r:id="rId23" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
-    <hyperlink ref="Y82" r:id="rId24"/>
-    <hyperlink ref="B83" r:id="rId25" display="mailto:gerrykilfoil@gov.nl.ca"/>
-    <hyperlink ref="C83" r:id="rId26" display="mailto:gerrykilfoil@gov.nl.ca"/>
-    <hyperlink ref="Y83" r:id="rId27"/>
-    <hyperlink ref="Y84" r:id="rId28"/>
-    <hyperlink ref="Y85" r:id="rId29"/>
-    <hyperlink ref="Y86" r:id="rId30"/>
-    <hyperlink ref="AS86" r:id="rId31"/>
-    <hyperlink ref="Y87" r:id="rId32"/>
-    <hyperlink ref="AS87" r:id="rId33"/>
-    <hyperlink ref="Y88" r:id="rId34"/>
-    <hyperlink ref="AS88" r:id="rId35"/>
-    <hyperlink ref="Y89" r:id="rId36"/>
-    <hyperlink ref="AS89" r:id="rId37"/>
-    <hyperlink ref="Y90" r:id="rId38"/>
-    <hyperlink ref="B90" r:id="rId39" display="mailto:justinwlake@gov.nl.ca"/>
-    <hyperlink ref="C90" r:id="rId40" display="mailto:justinwlake@gov.nl.ca"/>
-    <hyperlink ref="AS91" r:id="rId41"/>
-    <hyperlink ref="AS92" r:id="rId42"/>
-    <hyperlink ref="B94" r:id="rId43" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="C94" r:id="rId44" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
-    <hyperlink ref="Y94" r:id="rId45"/>
-    <hyperlink ref="B95" r:id="rId46" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
-    <hyperlink ref="C95" r:id="rId47" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="AS76" r:id="rId4"/>
+    <hyperlink ref="AS77" r:id="rId5"/>
+    <hyperlink ref="B79" r:id="rId6" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
+    <hyperlink ref="C79" r:id="rId7" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
+    <hyperlink ref="B80" r:id="rId8" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C80" r:id="rId9" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="AS80" r:id="rId10"/>
+    <hyperlink ref="AS79" r:id="rId11"/>
+    <hyperlink ref="B81" r:id="rId12" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C81" r:id="rId13" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="AS81" r:id="rId14"/>
+    <hyperlink ref="B82" r:id="rId15" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C82" r:id="rId16" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B83" r:id="rId17" display="mailto:gerrykilfoil@gov.nl.ca"/>
+    <hyperlink ref="C83" r:id="rId18" display="mailto:gerrykilfoil@gov.nl.ca"/>
+    <hyperlink ref="AS86" r:id="rId19"/>
+    <hyperlink ref="Y87" r:id="rId20"/>
+    <hyperlink ref="AS87" r:id="rId21"/>
+    <hyperlink ref="AS88" r:id="rId22"/>
+    <hyperlink ref="AS89" r:id="rId23"/>
+    <hyperlink ref="B90" r:id="rId24" display="mailto:justinwlake@gov.nl.ca"/>
+    <hyperlink ref="C90" r:id="rId25" display="mailto:justinwlake@gov.nl.ca"/>
+    <hyperlink ref="AS91" r:id="rId26"/>
+    <hyperlink ref="AS92" r:id="rId27"/>
+    <hyperlink ref="B94" r:id="rId28" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C94" r:id="rId29" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="Y94" r:id="rId30"/>
+    <hyperlink ref="B95" r:id="rId31" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C95" r:id="rId32" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B96" r:id="rId33" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C96" r:id="rId34" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B97" r:id="rId35" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C97" r:id="rId36" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B98" r:id="rId37" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C98" r:id="rId38" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="AS98" r:id="rId39"/>
+    <hyperlink ref="B99" r:id="rId40" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C99" r:id="rId41" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B100" r:id="rId42" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C100" r:id="rId43" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="B101" r:id="rId44" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C101" r:id="rId45" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="Y101" r:id="rId46"/>
+    <hyperlink ref="AS101" r:id="rId47"/>
+    <hyperlink ref="Y102" r:id="rId48"/>
+    <hyperlink ref="AS102" r:id="rId49"/>
+    <hyperlink ref="B102" r:id="rId50" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
+    <hyperlink ref="C102" r:id="rId51" display="mailto:lorettacrisbywhittle@gov.nl.ca"/>
+    <hyperlink ref="Y103" r:id="rId52"/>
+    <hyperlink ref="B103" r:id="rId53" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C103" r:id="rId54" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="B104" r:id="rId55" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C104" r:id="rId56" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="AS104" r:id="rId57"/>
+    <hyperlink ref="B105" r:id="rId58" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C105" r:id="rId59" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="AS105" r:id="rId60"/>
+    <hyperlink ref="B106" r:id="rId61" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="C106" r:id="rId62" display="https://geoatlas.gov.nl.ca/custom/help/StevenAmor@gov.nl.ca"/>
+    <hyperlink ref="Y106" r:id="rId63"/>
+    <hyperlink ref="B107" r:id="rId64" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C107" r:id="rId65" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="B108" r:id="rId66" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="C108" r:id="rId67" display="https://geoatlas.gov.nl.ca/custom/help/DaveTaylor@gov.nl.ca"/>
+    <hyperlink ref="AS108" r:id="rId68"/>
+    <hyperlink ref="Y75" r:id="rId69"/>
+    <hyperlink ref="Y77" r:id="rId70"/>
+    <hyperlink ref="Y78" r:id="rId71"/>
+    <hyperlink ref="Y91" r:id="rId72"/>
+    <hyperlink ref="Y90" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId48"/>
+  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId74"/>
 </worksheet>
 </file>
--- a/docs/NL CE-Relevant Data.xlsx
+++ b/docs/NL CE-Relevant Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11520" windowHeight="2940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="2940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Downloads" sheetId="1" r:id="rId1"/>
@@ -3580,7 +3580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3590,6 +3590,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3630,7 +3648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3651,19 +3669,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3679,36 +3686,88 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3993,7 +4052,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4001,8 +4060,8 @@
     <col min="1" max="1" width="20.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="70.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="84.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="76.7109375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -4027,258 +4086,258 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1">
+      <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" s="28" customFormat="1">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:6" s="28" customFormat="1">
+      <c r="A4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="13" t="s">
+    <row r="5" spans="1:6" s="28" customFormat="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" s="28" customFormat="1">
+      <c r="A6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" s="28" customFormat="1">
+      <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" s="28" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" s="28" customFormat="1">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:6" s="28" customFormat="1">
+      <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:6" s="28" customFormat="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" s="28" customFormat="1">
+      <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" s="28" customFormat="1">
+      <c r="A13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="45">
+      <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="28" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -4303,7 +4362,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4336,17 +4395,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4362,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4371,7 +4430,7 @@
     <col min="1" max="1" width="27.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="96.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="80.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="89.5703125" style="3" customWidth="1"/>
@@ -4401,638 +4460,638 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="3" t="s">
+    <row r="3" spans="1:7" s="28" customFormat="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:7" s="28" customFormat="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="3" t="s">
+    <row r="5" spans="1:7" s="28" customFormat="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="3" t="s">
+    <row r="6" spans="1:7" s="28" customFormat="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="1:7" s="28" customFormat="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="1:7" s="28" customFormat="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="1:7" s="28" customFormat="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="1:7" s="28" customFormat="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="1:7" s="28" customFormat="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="1:7" s="28" customFormat="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="1:7" s="28" customFormat="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:7" s="22" customFormat="1">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="1:7" s="22" customFormat="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="1:7" s="22" customFormat="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="1:7" s="22" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:7" s="22" customFormat="1">
+      <c r="A18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="1:7" s="22" customFormat="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="1:7" s="22" customFormat="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="1:7" s="22" customFormat="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="3" t="s">
+    <row r="22" spans="1:7" s="22" customFormat="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="1:7" s="22" customFormat="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="1:7" s="22" customFormat="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="1:7" s="22" customFormat="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="1:7" s="22" customFormat="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="1:7" s="22" customFormat="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:7" s="28" customFormat="1">
+      <c r="A29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="28"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="3" t="s">
+    <row r="30" spans="1:7" s="28" customFormat="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:7" s="22" customFormat="1">
+      <c r="A31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:7" s="22" customFormat="1">
+      <c r="A32" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" t="s">
+    <row r="33" spans="1:7" s="22" customFormat="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:7" s="41" customFormat="1">
+      <c r="A34" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" t="s">
+    <row r="35" spans="1:7" s="41" customFormat="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="40" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" t="s">
+    <row r="36" spans="1:7" s="41" customFormat="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" t="s">
+    <row r="37" spans="1:7" s="41" customFormat="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" t="s">
+    <row r="38" spans="1:7" s="41" customFormat="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" t="s">
+    <row r="39" spans="1:7" s="41" customFormat="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" t="s">
+    <row r="40" spans="1:7" s="41" customFormat="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" t="s">
+    <row r="41" spans="1:7" s="41" customFormat="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" t="s">
+    <row r="42" spans="1:7" s="41" customFormat="1">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="40" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="E18:E28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E18:E28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="E34:E42"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
@@ -5042,6 +5101,11 @@
     <hyperlink ref="D2" r:id="rId5"/>
     <hyperlink ref="G2" r:id="rId6"/>
     <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D29" r:id="rId8"/>
+    <hyperlink ref="D32" r:id="rId9"/>
+    <hyperlink ref="G32" r:id="rId10"/>
+    <hyperlink ref="G18" r:id="rId11"/>
+    <hyperlink ref="D34" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5051,7 +5115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A72" sqref="A72"/>
     </sheetView>
@@ -5084,9 +5148,9 @@
     <col min="29" max="29" width="19.28515625" customWidth="1"/>
     <col min="30" max="30" width="17.140625" customWidth="1"/>
     <col min="31" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="32" width="25.5703125" style="19" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" style="19" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="19" customWidth="1"/>
+    <col min="32" max="32" width="25.5703125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" style="14" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="14" customWidth="1"/>
     <col min="35" max="35" width="24.140625" customWidth="1"/>
     <col min="36" max="36" width="21.5703125" customWidth="1"/>
     <col min="37" max="37" width="24.42578125" customWidth="1"/>
@@ -5216,13 +5280,13 @@
       <c r="AE1" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="14" t="s">
         <v>157</v>
       </c>
       <c r="AI1" t="s">
@@ -5578,10 +5642,10 @@
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D2" t="s">
@@ -5650,13 +5714,13 @@
       <c r="AE2" t="s">
         <v>213</v>
       </c>
-      <c r="AF2" s="19">
+      <c r="AF2" s="14">
         <v>41621</v>
       </c>
-      <c r="AG2" s="19">
+      <c r="AG2" s="14">
         <v>41694</v>
       </c>
-      <c r="AH2" s="19">
+      <c r="AH2" s="14">
         <v>41621</v>
       </c>
       <c r="AI2" t="s">
@@ -5724,10 +5788,10 @@
       <c r="A3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D3" t="s">
@@ -5808,13 +5872,13 @@
       <c r="AE3" t="s">
         <v>213</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="14">
         <v>42003</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AG3" s="14">
         <v>42003</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AH3" s="14">
         <v>42003</v>
       </c>
       <c r="AI3" t="s">
@@ -5942,10 +6006,10 @@
       <c r="A4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D4" t="s">
@@ -6014,13 +6078,13 @@
       <c r="AE4" t="s">
         <v>213</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="14">
         <v>41610</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="14">
         <v>41694</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="14">
         <v>41610</v>
       </c>
       <c r="AI4" t="s">
@@ -6097,10 +6161,10 @@
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D5" t="s">
@@ -6169,13 +6233,13 @@
       <c r="AE5" t="s">
         <v>213</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="14">
         <v>41614</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="14">
         <v>41719</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="14">
         <v>41614</v>
       </c>
       <c r="AI5" t="s">
@@ -6246,10 +6310,10 @@
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D6" t="s">
@@ -6324,13 +6388,13 @@
       <c r="AE6" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="14">
         <v>42004</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="14">
         <v>42004</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="14">
         <v>42004</v>
       </c>
       <c r="AI6" t="s">
@@ -6428,10 +6492,10 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D7" t="s">
@@ -6500,13 +6564,13 @@
       <c r="AE7" t="s">
         <v>213</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="14">
         <v>41621</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="AG7" s="14">
         <v>41719</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AH7" s="14">
         <v>41621</v>
       </c>
       <c r="AI7" t="s">
@@ -6577,10 +6641,10 @@
       <c r="A8" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D8" t="s">
@@ -6655,13 +6719,13 @@
       <c r="AE8" t="s">
         <v>213</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8" s="14">
         <v>42004</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AG8" s="14">
         <v>42004</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="14">
         <v>42004</v>
       </c>
       <c r="AI8" t="s">
@@ -6756,10 +6820,10 @@
       <c r="A9" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>312</v>
       </c>
       <c r="D9" t="s">
@@ -6828,13 +6892,13 @@
       <c r="AE9" t="s">
         <v>213</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="14">
         <v>42167</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG9" s="14">
         <v>42257</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH9" s="14">
         <v>42167</v>
       </c>
       <c r="AI9" t="s">
@@ -6932,10 +6996,10 @@
       <c r="A10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D10" t="s">
@@ -7004,13 +7068,13 @@
       <c r="AE10" t="s">
         <v>213</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10" s="14">
         <v>41621</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="14">
         <v>41719</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AH10" s="14">
         <v>41621</v>
       </c>
       <c r="AI10" t="s">
@@ -7081,10 +7145,10 @@
       <c r="A11" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D11" t="s">
@@ -7159,13 +7223,13 @@
       <c r="AE11" t="s">
         <v>213</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11" s="14">
         <v>42004</v>
       </c>
-      <c r="AG11" s="19">
+      <c r="AG11" s="14">
         <v>42004</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AH11" s="14">
         <v>42004</v>
       </c>
       <c r="AI11" t="s">
@@ -7263,10 +7327,10 @@
       <c r="A12" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D12" t="s">
@@ -7341,13 +7405,13 @@
       <c r="AE12" t="s">
         <v>213</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AF12" s="14">
         <v>42004</v>
       </c>
-      <c r="AG12" s="19">
+      <c r="AG12" s="14">
         <v>42004</v>
       </c>
-      <c r="AH12" s="19">
+      <c r="AH12" s="14">
         <v>42004</v>
       </c>
       <c r="AI12" t="s">
@@ -7517,13 +7581,13 @@
       <c r="AE13" t="s">
         <v>213</v>
       </c>
-      <c r="AF13" s="19">
+      <c r="AF13" s="14">
         <v>35431</v>
       </c>
-      <c r="AG13" s="19">
+      <c r="AG13" s="14">
         <v>43549</v>
       </c>
-      <c r="AH13" s="19">
+      <c r="AH13" s="14">
         <v>35431</v>
       </c>
       <c r="AI13" t="s">
@@ -7666,13 +7730,13 @@
       <c r="AE14" t="s">
         <v>213</v>
       </c>
-      <c r="AF14" s="19">
+      <c r="AF14" s="14">
         <v>35431</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AG14" s="14">
         <v>35431</v>
       </c>
-      <c r="AH14" s="19">
+      <c r="AH14" s="14">
         <v>35431</v>
       </c>
       <c r="AI14" t="s">
@@ -7767,10 +7831,10 @@
       <c r="I15" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>39448</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>39813</v>
       </c>
       <c r="L15" t="s">
@@ -7818,13 +7882,13 @@
       <c r="AE15" t="s">
         <v>213</v>
       </c>
-      <c r="AF15" s="19">
+      <c r="AF15" s="14">
         <v>39814</v>
       </c>
-      <c r="AG15" s="19">
+      <c r="AG15" s="14">
         <v>39814</v>
       </c>
-      <c r="AH15" s="19">
+      <c r="AH15" s="14">
         <v>39814</v>
       </c>
       <c r="AI15" t="s">
@@ -7925,10 +7989,10 @@
       <c r="I16" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>39448</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>39813</v>
       </c>
       <c r="L16" t="s">
@@ -7976,13 +8040,13 @@
       <c r="AE16" t="s">
         <v>213</v>
       </c>
-      <c r="AF16" s="19">
+      <c r="AF16" s="14">
         <v>39814</v>
       </c>
-      <c r="AG16" s="19">
+      <c r="AG16" s="14">
         <v>39814</v>
       </c>
-      <c r="AH16" s="19">
+      <c r="AH16" s="14">
         <v>39814</v>
       </c>
       <c r="AI16" t="s">
@@ -8083,10 +8147,10 @@
       <c r="I17" t="s">
         <v>203</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>39448</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>39813</v>
       </c>
       <c r="L17" t="s">
@@ -8134,13 +8198,13 @@
       <c r="AE17" t="s">
         <v>213</v>
       </c>
-      <c r="AF17" s="19">
+      <c r="AF17" s="14">
         <v>39814</v>
       </c>
-      <c r="AG17" s="19">
+      <c r="AG17" s="14">
         <v>39814</v>
       </c>
-      <c r="AH17" s="19">
+      <c r="AH17" s="14">
         <v>39814</v>
       </c>
       <c r="AI17" t="s">
@@ -8241,10 +8305,10 @@
       <c r="I18" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>39448</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>39813</v>
       </c>
       <c r="L18" t="s">
@@ -8292,13 +8356,13 @@
       <c r="AE18" t="s">
         <v>213</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="AF18" s="14">
         <v>39814</v>
       </c>
-      <c r="AG18" s="19">
+      <c r="AG18" s="14">
         <v>39814</v>
       </c>
-      <c r="AH18" s="19">
+      <c r="AH18" s="14">
         <v>39814</v>
       </c>
       <c r="AI18" t="s">
@@ -8399,10 +8463,10 @@
       <c r="I19" t="s">
         <v>203</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>39814</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>40178</v>
       </c>
       <c r="L19" t="s">
@@ -8450,13 +8514,13 @@
       <c r="AE19" t="s">
         <v>213</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="AF19" s="14">
         <v>40179</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="AG19" s="14">
         <v>40179</v>
       </c>
-      <c r="AH19" s="19">
+      <c r="AH19" s="14">
         <v>40179</v>
       </c>
       <c r="AI19" t="s">
@@ -8557,10 +8621,10 @@
       <c r="I20" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>39814</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>40178</v>
       </c>
       <c r="L20" t="s">
@@ -8608,13 +8672,13 @@
       <c r="AE20" t="s">
         <v>213</v>
       </c>
-      <c r="AF20" s="19">
+      <c r="AF20" s="14">
         <v>40179</v>
       </c>
-      <c r="AG20" s="19">
+      <c r="AG20" s="14">
         <v>40179</v>
       </c>
-      <c r="AH20" s="19">
+      <c r="AH20" s="14">
         <v>40179</v>
       </c>
       <c r="AI20" t="s">
@@ -8715,10 +8779,10 @@
       <c r="I21" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>40179</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>40543</v>
       </c>
       <c r="L21" t="s">
@@ -8766,13 +8830,13 @@
       <c r="AE21" t="s">
         <v>213</v>
       </c>
-      <c r="AF21" s="19">
+      <c r="AF21" s="14">
         <v>40544</v>
       </c>
-      <c r="AG21" s="19">
+      <c r="AG21" s="14">
         <v>40544</v>
       </c>
-      <c r="AH21" s="19">
+      <c r="AH21" s="14">
         <v>40544</v>
       </c>
       <c r="AI21" t="s">
@@ -8873,10 +8937,10 @@
       <c r="I22" t="s">
         <v>203</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>40179</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>40543</v>
       </c>
       <c r="L22" t="s">
@@ -8924,13 +8988,13 @@
       <c r="AE22" t="s">
         <v>213</v>
       </c>
-      <c r="AF22" s="19">
+      <c r="AF22" s="14">
         <v>40544</v>
       </c>
-      <c r="AG22" s="19">
+      <c r="AG22" s="14">
         <v>40544</v>
       </c>
-      <c r="AH22" s="19">
+      <c r="AH22" s="14">
         <v>40544</v>
       </c>
       <c r="AI22" t="s">
@@ -9031,10 +9095,10 @@
       <c r="I23" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>40544</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>40908</v>
       </c>
       <c r="L23" t="s">
@@ -9082,13 +9146,13 @@
       <c r="AE23" t="s">
         <v>213</v>
       </c>
-      <c r="AF23" s="19">
+      <c r="AF23" s="14">
         <v>40909</v>
       </c>
-      <c r="AG23" s="19">
+      <c r="AG23" s="14">
         <v>40909</v>
       </c>
-      <c r="AH23" s="19">
+      <c r="AH23" s="14">
         <v>40909</v>
       </c>
       <c r="AI23" t="s">
@@ -9189,10 +9253,10 @@
       <c r="I24" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>40544</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>40908</v>
       </c>
       <c r="L24" t="s">
@@ -9240,13 +9304,13 @@
       <c r="AE24" t="s">
         <v>213</v>
       </c>
-      <c r="AF24" s="19">
+      <c r="AF24" s="14">
         <v>40909</v>
       </c>
-      <c r="AG24" s="19">
+      <c r="AG24" s="14">
         <v>40909</v>
       </c>
-      <c r="AH24" s="19">
+      <c r="AH24" s="14">
         <v>40909</v>
       </c>
       <c r="AI24" t="s">
@@ -9347,10 +9411,10 @@
       <c r="I25" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>40909</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>41274</v>
       </c>
       <c r="L25" t="s">
@@ -9398,13 +9462,13 @@
       <c r="AE25" t="s">
         <v>213</v>
       </c>
-      <c r="AF25" s="19">
+      <c r="AF25" s="14">
         <v>41275</v>
       </c>
-      <c r="AG25" s="19">
+      <c r="AG25" s="14">
         <v>41275</v>
       </c>
-      <c r="AH25" s="19">
+      <c r="AH25" s="14">
         <v>41275</v>
       </c>
       <c r="AI25" t="s">
@@ -9505,10 +9569,10 @@
       <c r="I26" t="s">
         <v>203</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>40909</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>41274</v>
       </c>
       <c r="L26" t="s">
@@ -9556,13 +9620,13 @@
       <c r="AE26" t="s">
         <v>213</v>
       </c>
-      <c r="AF26" s="19">
+      <c r="AF26" s="14">
         <v>41275</v>
       </c>
-      <c r="AG26" s="19">
+      <c r="AG26" s="14">
         <v>41275</v>
       </c>
-      <c r="AH26" s="19">
+      <c r="AH26" s="14">
         <v>41275</v>
       </c>
       <c r="AI26" t="s">
@@ -9663,10 +9727,10 @@
       <c r="I27" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>41275</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>41639</v>
       </c>
       <c r="L27" t="s">
@@ -9714,13 +9778,13 @@
       <c r="AE27" t="s">
         <v>213</v>
       </c>
-      <c r="AF27" s="19">
+      <c r="AF27" s="14">
         <v>41640</v>
       </c>
-      <c r="AG27" s="19">
+      <c r="AG27" s="14">
         <v>41640</v>
       </c>
-      <c r="AH27" s="19">
+      <c r="AH27" s="14">
         <v>41640</v>
       </c>
       <c r="AI27" t="s">
@@ -9821,10 +9885,10 @@
       <c r="I28" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>41275</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>41639</v>
       </c>
       <c r="L28" t="s">
@@ -9872,13 +9936,13 @@
       <c r="AE28" t="s">
         <v>213</v>
       </c>
-      <c r="AF28" s="19">
+      <c r="AF28" s="14">
         <v>41640</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AG28" s="14">
         <v>41640</v>
       </c>
-      <c r="AH28" s="19">
+      <c r="AH28" s="14">
         <v>41640</v>
       </c>
       <c r="AI28" t="s">
@@ -9979,10 +10043,10 @@
       <c r="I29" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>41640</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>42004</v>
       </c>
       <c r="L29" t="s">
@@ -10030,13 +10094,13 @@
       <c r="AE29" t="s">
         <v>213</v>
       </c>
-      <c r="AF29" s="19">
+      <c r="AF29" s="14">
         <v>42005</v>
       </c>
-      <c r="AG29" s="19">
+      <c r="AG29" s="14">
         <v>42005</v>
       </c>
-      <c r="AH29" s="19">
+      <c r="AH29" s="14">
         <v>42005</v>
       </c>
       <c r="AI29" t="s">
@@ -10137,10 +10201,10 @@
       <c r="I30" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>41640</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>42004</v>
       </c>
       <c r="L30" t="s">
@@ -10188,13 +10252,13 @@
       <c r="AE30" t="s">
         <v>213</v>
       </c>
-      <c r="AF30" s="19">
+      <c r="AF30" s="14">
         <v>42005</v>
       </c>
-      <c r="AG30" s="19">
+      <c r="AG30" s="14">
         <v>42005</v>
       </c>
-      <c r="AH30" s="19">
+      <c r="AH30" s="14">
         <v>42005</v>
       </c>
       <c r="AI30" t="s">
@@ -10295,10 +10359,10 @@
       <c r="I31" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>14977</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>39447</v>
       </c>
       <c r="L31" t="s">
@@ -10346,13 +10410,13 @@
       <c r="AE31" t="s">
         <v>213</v>
       </c>
-      <c r="AF31" s="19">
+      <c r="AF31" s="14">
         <v>42005</v>
       </c>
-      <c r="AG31" s="19">
+      <c r="AG31" s="14">
         <v>42005</v>
       </c>
-      <c r="AH31" s="19">
+      <c r="AH31" s="14">
         <v>42005</v>
       </c>
       <c r="AI31" t="s">
@@ -10501,13 +10565,13 @@
       <c r="AE32" t="s">
         <v>213</v>
       </c>
-      <c r="AF32" s="19">
+      <c r="AF32" s="14">
         <v>35431</v>
       </c>
-      <c r="AG32" s="19">
+      <c r="AG32" s="14">
         <v>35431</v>
       </c>
-      <c r="AH32" s="19">
+      <c r="AH32" s="14">
         <v>35431</v>
       </c>
       <c r="AI32" t="s">
@@ -10650,13 +10714,13 @@
       <c r="AE33" t="s">
         <v>213</v>
       </c>
-      <c r="AF33" s="19">
+      <c r="AF33" s="14">
         <v>35431</v>
       </c>
-      <c r="AG33" s="19">
+      <c r="AG33" s="14">
         <v>35431</v>
       </c>
-      <c r="AH33" s="19">
+      <c r="AH33" s="14">
         <v>35431</v>
       </c>
       <c r="AI33" t="s">
@@ -10802,13 +10866,13 @@
       <c r="AE34" t="s">
         <v>213</v>
       </c>
-      <c r="AF34" s="19">
+      <c r="AF34" s="14">
         <v>35431</v>
       </c>
-      <c r="AG34" s="19">
+      <c r="AG34" s="14">
         <v>35431</v>
       </c>
-      <c r="AH34" s="19">
+      <c r="AH34" s="14">
         <v>35431</v>
       </c>
       <c r="AI34" t="s">
@@ -10957,13 +11021,13 @@
       <c r="AE35" t="s">
         <v>213</v>
       </c>
-      <c r="AF35" s="19">
+      <c r="AF35" s="14">
         <v>35431</v>
       </c>
-      <c r="AG35" s="19">
+      <c r="AG35" s="14">
         <v>43549</v>
       </c>
-      <c r="AH35" s="19">
+      <c r="AH35" s="14">
         <v>35431</v>
       </c>
       <c r="AI35" t="s">
@@ -11112,13 +11176,13 @@
       <c r="AE36" t="s">
         <v>213</v>
       </c>
-      <c r="AF36" s="19">
+      <c r="AF36" s="14">
         <v>35431</v>
       </c>
-      <c r="AG36" s="19">
+      <c r="AG36" s="14">
         <v>35431</v>
       </c>
-      <c r="AH36" s="19">
+      <c r="AH36" s="14">
         <v>35431</v>
       </c>
       <c r="AI36" t="s">
@@ -11267,13 +11331,13 @@
       <c r="AE37" t="s">
         <v>213</v>
       </c>
-      <c r="AF37" s="19">
+      <c r="AF37" s="14">
         <v>35431</v>
       </c>
-      <c r="AG37" s="19">
+      <c r="AG37" s="14">
         <v>38717</v>
       </c>
-      <c r="AH37" s="19">
+      <c r="AH37" s="14">
         <v>35431</v>
       </c>
       <c r="AI37" t="s">
@@ -11371,10 +11435,10 @@
       <c r="I38" t="s">
         <v>203</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>20090</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>30762</v>
       </c>
       <c r="L38" t="s">
@@ -11434,13 +11498,13 @@
       <c r="AE38" t="s">
         <v>213</v>
       </c>
-      <c r="AF38" s="19">
+      <c r="AF38" s="14">
         <v>31245</v>
       </c>
-      <c r="AG38" s="19">
+      <c r="AG38" s="14">
         <v>31245</v>
       </c>
-      <c r="AH38" s="19">
+      <c r="AH38" s="14">
         <v>31245</v>
       </c>
       <c r="AI38" t="s">
@@ -11700,7 +11764,7 @@
       </c>
     </row>
     <row r="39" spans="1:148" ht="75">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
       <c r="B39" t="s">
@@ -11727,10 +11791,10 @@
       <c r="I39" t="s">
         <v>203</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>30317</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>32338</v>
       </c>
       <c r="L39" t="s">
@@ -11784,13 +11848,13 @@
       <c r="AE39" t="s">
         <v>213</v>
       </c>
-      <c r="AF39" s="19">
+      <c r="AF39" s="14">
         <v>33203</v>
       </c>
-      <c r="AG39" s="19">
+      <c r="AG39" s="14">
         <v>33203</v>
       </c>
-      <c r="AH39" s="19">
+      <c r="AH39" s="14">
         <v>33203</v>
       </c>
       <c r="AI39" t="s">
@@ -12011,13 +12075,13 @@
       <c r="AE40" t="s">
         <v>213</v>
       </c>
-      <c r="AF40" s="19">
+      <c r="AF40" s="14">
         <v>35462</v>
       </c>
-      <c r="AG40" s="19">
+      <c r="AG40" s="14">
         <v>35462</v>
       </c>
-      <c r="AH40" s="19">
+      <c r="AH40" s="14">
         <v>35462</v>
       </c>
       <c r="AI40" t="s">
@@ -12184,10 +12248,10 @@
       <c r="I41" t="s">
         <v>203</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>30042</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>32477</v>
       </c>
       <c r="L41" t="s">
@@ -12241,13 +12305,13 @@
       <c r="AE41" t="s">
         <v>213</v>
       </c>
-      <c r="AF41" s="19">
+      <c r="AF41" s="14">
         <v>32905</v>
       </c>
-      <c r="AG41" s="19">
+      <c r="AG41" s="14">
         <v>32905</v>
       </c>
-      <c r="AH41" s="19">
+      <c r="AH41" s="14">
         <v>32905</v>
       </c>
       <c r="AI41" t="s">
@@ -12414,10 +12478,10 @@
       <c r="I42" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>34608</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>34789</v>
       </c>
       <c r="L42" t="s">
@@ -12471,13 +12535,13 @@
       <c r="AE42" t="s">
         <v>213</v>
       </c>
-      <c r="AF42" s="19">
+      <c r="AF42" s="14">
         <v>35125</v>
       </c>
-      <c r="AG42" s="19">
+      <c r="AG42" s="14">
         <v>35125</v>
       </c>
-      <c r="AH42" s="19">
+      <c r="AH42" s="14">
         <v>35125</v>
       </c>
       <c r="AI42" t="s">
@@ -12644,10 +12708,10 @@
       <c r="I43" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>34608</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>34789</v>
       </c>
       <c r="L43" t="s">
@@ -12707,13 +12771,13 @@
       <c r="AE43" t="s">
         <v>213</v>
       </c>
-      <c r="AF43" s="19">
+      <c r="AF43" s="14">
         <v>35125</v>
       </c>
-      <c r="AG43" s="19">
+      <c r="AG43" s="14">
         <v>35125</v>
       </c>
-      <c r="AH43" s="19">
+      <c r="AH43" s="14">
         <v>35125</v>
       </c>
       <c r="AI43" t="s">
@@ -12910,10 +12974,10 @@
       <c r="I44" t="s">
         <v>203</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>34608</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <v>34789</v>
       </c>
       <c r="L44" t="s">
@@ -12973,13 +13037,13 @@
       <c r="AE44" t="s">
         <v>213</v>
       </c>
-      <c r="AF44" s="19">
+      <c r="AF44" s="14">
         <v>35125</v>
       </c>
-      <c r="AG44" s="19">
+      <c r="AG44" s="14">
         <v>35125</v>
       </c>
-      <c r="AH44" s="19">
+      <c r="AH44" s="14">
         <v>35125</v>
       </c>
       <c r="AI44" t="s">
@@ -13176,10 +13240,10 @@
       <c r="I45" t="s">
         <v>203</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>34608</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <v>34789</v>
       </c>
       <c r="L45" t="s">
@@ -13239,13 +13303,13 @@
       <c r="AE45" t="s">
         <v>213</v>
       </c>
-      <c r="AF45" s="19">
+      <c r="AF45" s="14">
         <v>35125</v>
       </c>
-      <c r="AG45" s="19">
+      <c r="AG45" s="14">
         <v>35125</v>
       </c>
-      <c r="AH45" s="19">
+      <c r="AH45" s="14">
         <v>35125</v>
       </c>
       <c r="AI45" t="s">
@@ -13442,10 +13506,10 @@
       <c r="I46" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>34608</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>34789</v>
       </c>
       <c r="L46" t="s">
@@ -13505,13 +13569,13 @@
       <c r="AE46" t="s">
         <v>213</v>
       </c>
-      <c r="AF46" s="19">
+      <c r="AF46" s="14">
         <v>35125</v>
       </c>
-      <c r="AG46" s="19">
+      <c r="AG46" s="14">
         <v>35125</v>
       </c>
-      <c r="AH46" s="19">
+      <c r="AH46" s="14">
         <v>35125</v>
       </c>
       <c r="AI46" t="s">
@@ -13708,10 +13772,10 @@
       <c r="I47" t="s">
         <v>203</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>34608</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>34789</v>
       </c>
       <c r="L47" t="s">
@@ -13771,13 +13835,13 @@
       <c r="AE47" t="s">
         <v>213</v>
       </c>
-      <c r="AF47" s="19">
+      <c r="AF47" s="14">
         <v>35125</v>
       </c>
-      <c r="AG47" s="19">
+      <c r="AG47" s="14">
         <v>35125</v>
       </c>
-      <c r="AH47" s="19">
+      <c r="AH47" s="14">
         <v>35125</v>
       </c>
       <c r="AI47" t="s">
@@ -13974,10 +14038,10 @@
       <c r="I48" t="s">
         <v>203</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>34608</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <v>34789</v>
       </c>
       <c r="L48" t="s">
@@ -14037,13 +14101,13 @@
       <c r="AE48" t="s">
         <v>213</v>
       </c>
-      <c r="AF48" s="19">
+      <c r="AF48" s="14">
         <v>35125</v>
       </c>
-      <c r="AG48" s="19">
+      <c r="AG48" s="14">
         <v>35125</v>
       </c>
-      <c r="AH48" s="19">
+      <c r="AH48" s="14">
         <v>35125</v>
       </c>
       <c r="AI48" t="s">
@@ -14213,7 +14277,7 @@
       </c>
     </row>
     <row r="49" spans="1:148" ht="120">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
@@ -14240,10 +14304,10 @@
       <c r="I49" t="s">
         <v>203</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>18629</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>31777</v>
       </c>
       <c r="L49" t="s">
@@ -14303,13 +14367,13 @@
       <c r="AE49" t="s">
         <v>213</v>
       </c>
-      <c r="AF49" s="19">
+      <c r="AF49" s="14">
         <v>36145</v>
       </c>
-      <c r="AG49" s="19">
+      <c r="AG49" s="14">
         <v>36145</v>
       </c>
-      <c r="AH49" s="19">
+      <c r="AH49" s="14">
         <v>36145</v>
       </c>
       <c r="AI49" t="s">
@@ -14479,7 +14543,7 @@
       </c>
     </row>
     <row r="50" spans="1:148" ht="120">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B50" t="s">
@@ -14506,10 +14570,10 @@
       <c r="I50" t="s">
         <v>203</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>40817</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>41187</v>
       </c>
       <c r="L50" t="s">
@@ -14569,13 +14633,13 @@
       <c r="AE50" t="s">
         <v>213</v>
       </c>
-      <c r="AF50" s="19">
+      <c r="AF50" s="14">
         <v>41332</v>
       </c>
-      <c r="AG50" s="19">
+      <c r="AG50" s="14">
         <v>41332</v>
       </c>
-      <c r="AH50" s="19">
+      <c r="AH50" s="14">
         <v>41332</v>
       </c>
       <c r="AI50" t="s">
@@ -14805,7 +14869,7 @@
       </c>
     </row>
     <row r="51" spans="1:148" ht="75">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B51" t="s">
@@ -14832,10 +14896,10 @@
       <c r="I51" t="s">
         <v>203</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>25204</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>30316</v>
       </c>
       <c r="L51" t="s">
@@ -14889,13 +14953,13 @@
       <c r="AE51" t="s">
         <v>213</v>
       </c>
-      <c r="AF51" s="19">
+      <c r="AF51" s="14">
         <v>32002</v>
       </c>
-      <c r="AG51" s="19">
+      <c r="AG51" s="14">
         <v>32002</v>
       </c>
-      <c r="AH51" s="19">
+      <c r="AH51" s="14">
         <v>32002</v>
       </c>
       <c r="AI51" t="s">
@@ -15062,10 +15126,10 @@
       <c r="I52" t="s">
         <v>203</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>18264</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>32142</v>
       </c>
       <c r="L52" t="s">
@@ -15119,13 +15183,13 @@
       <c r="AE52" t="s">
         <v>213</v>
       </c>
-      <c r="AF52" s="19">
+      <c r="AF52" s="14">
         <v>32842</v>
       </c>
-      <c r="AG52" s="19">
+      <c r="AG52" s="14">
         <v>32842</v>
       </c>
-      <c r="AH52" s="19">
+      <c r="AH52" s="14">
         <v>32842</v>
       </c>
       <c r="AI52" t="s">
@@ -15292,10 +15356,10 @@
       <c r="I53" t="s">
         <v>203</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>30720</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>32203</v>
       </c>
       <c r="L53" t="s">
@@ -15349,13 +15413,13 @@
       <c r="AE53" t="s">
         <v>213</v>
       </c>
-      <c r="AF53" s="19">
+      <c r="AF53" s="14">
         <v>32842</v>
       </c>
-      <c r="AG53" s="19">
+      <c r="AG53" s="14">
         <v>32842</v>
       </c>
-      <c r="AH53" s="19">
+      <c r="AH53" s="14">
         <v>32842</v>
       </c>
       <c r="AI53" t="s">
@@ -15522,10 +15586,10 @@
       <c r="I54" t="s">
         <v>203</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="9">
         <v>23012</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>34334</v>
       </c>
       <c r="L54" t="s">
@@ -15585,13 +15649,13 @@
       <c r="AE54" t="s">
         <v>213</v>
       </c>
-      <c r="AF54" s="19">
+      <c r="AF54" s="14">
         <v>35153</v>
       </c>
-      <c r="AG54" s="19">
+      <c r="AG54" s="14">
         <v>35153</v>
       </c>
-      <c r="AH54" s="19">
+      <c r="AH54" s="14">
         <v>35153</v>
       </c>
       <c r="AI54" t="s">
@@ -15908,10 +15972,10 @@
       <c r="I55" t="s">
         <v>203</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>40817</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="9">
         <v>41257</v>
       </c>
       <c r="L55" t="s">
@@ -15971,13 +16035,13 @@
       <c r="AE55" t="s">
         <v>213</v>
       </c>
-      <c r="AF55" s="19">
+      <c r="AF55" s="14">
         <v>41358</v>
       </c>
-      <c r="AG55" s="19">
+      <c r="AG55" s="14">
         <v>41358</v>
       </c>
-      <c r="AH55" s="19">
+      <c r="AH55" s="14">
         <v>41358</v>
       </c>
       <c r="AI55" t="s">
@@ -16234,10 +16298,10 @@
       <c r="I56" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="9">
         <v>40817</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="9">
         <v>41257</v>
       </c>
       <c r="L56" t="s">
@@ -16297,13 +16361,13 @@
       <c r="AE56" t="s">
         <v>213</v>
       </c>
-      <c r="AF56" s="19">
+      <c r="AF56" s="14">
         <v>41358</v>
       </c>
-      <c r="AG56" s="19">
+      <c r="AG56" s="14">
         <v>41358</v>
       </c>
-      <c r="AH56" s="19">
+      <c r="AH56" s="14">
         <v>41358</v>
       </c>
       <c r="AI56" t="s">
@@ -16560,10 +16624,10 @@
       <c r="I57" t="s">
         <v>203</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="9">
         <v>40634</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="9">
         <v>40843</v>
       </c>
       <c r="L57" t="s">
@@ -16623,13 +16687,13 @@
       <c r="AE57" t="s">
         <v>213</v>
       </c>
-      <c r="AF57" s="19">
+      <c r="AF57" s="14">
         <v>41124</v>
       </c>
-      <c r="AG57" s="19">
+      <c r="AG57" s="14">
         <v>41124</v>
       </c>
-      <c r="AH57" s="19">
+      <c r="AH57" s="14">
         <v>41124</v>
       </c>
       <c r="AI57" t="s">
@@ -16916,10 +16980,10 @@
       <c r="I58" t="s">
         <v>203</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="9">
         <v>30593</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="9">
         <v>31155</v>
       </c>
       <c r="L58" t="s">
@@ -16973,13 +17037,13 @@
       <c r="AE58" t="s">
         <v>213</v>
       </c>
-      <c r="AF58" s="19">
+      <c r="AF58" s="14">
         <v>31155</v>
       </c>
-      <c r="AG58" s="19">
+      <c r="AG58" s="14">
         <v>31155</v>
       </c>
-      <c r="AH58" s="19">
+      <c r="AH58" s="14">
         <v>31155</v>
       </c>
       <c r="AI58" t="s">
@@ -17119,7 +17183,7 @@
       </c>
     </row>
     <row r="59" spans="1:148" ht="120">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="10" t="s">
         <v>682</v>
       </c>
       <c r="B59" t="s">
@@ -17146,10 +17210,10 @@
       <c r="I59" t="s">
         <v>203</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>28126</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="9">
         <v>32493</v>
       </c>
       <c r="L59" t="s">
@@ -17209,13 +17273,13 @@
       <c r="AE59" t="s">
         <v>213</v>
       </c>
-      <c r="AF59" s="19">
+      <c r="AF59" s="14">
         <v>32493</v>
       </c>
-      <c r="AG59" s="19">
+      <c r="AG59" s="14">
         <v>32493</v>
       </c>
-      <c r="AH59" s="19">
+      <c r="AH59" s="14">
         <v>32493</v>
       </c>
       <c r="AI59" t="s">
@@ -17412,10 +17476,10 @@
       <c r="I60" t="s">
         <v>203</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="9">
         <v>34881</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="9">
         <v>35152</v>
       </c>
       <c r="L60" t="s">
@@ -17475,13 +17539,13 @@
       <c r="AE60" t="s">
         <v>213</v>
       </c>
-      <c r="AF60" s="19">
+      <c r="AF60" s="14">
         <v>35152</v>
       </c>
-      <c r="AG60" s="19">
+      <c r="AG60" s="14">
         <v>35152</v>
       </c>
-      <c r="AH60" s="19">
+      <c r="AH60" s="14">
         <v>35152</v>
       </c>
       <c r="AI60" t="s">
@@ -17798,10 +17862,10 @@
       <c r="I61" t="s">
         <v>203</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K61" s="10"/>
+      <c r="K61" s="9"/>
       <c r="L61" t="s">
         <v>261</v>
       </c>
@@ -17859,13 +17923,13 @@
       <c r="AE61" t="s">
         <v>213</v>
       </c>
-      <c r="AF61" s="19">
+      <c r="AF61" s="14">
         <v>42149</v>
       </c>
-      <c r="AG61" s="19">
+      <c r="AG61" s="14">
         <v>42149</v>
       </c>
-      <c r="AH61" s="19">
+      <c r="AH61" s="14">
         <v>42149</v>
       </c>
       <c r="AI61" t="s">
@@ -17976,7 +18040,7 @@
       <c r="BU61" t="s">
         <v>215</v>
       </c>
-      <c r="BV61" s="17" t="s">
+      <c r="BV61" s="12" t="s">
         <v>607</v>
       </c>
       <c r="BW61" t="s">
@@ -18152,10 +18216,10 @@
       <c r="I62" t="s">
         <v>203</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>26696</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="9">
         <v>30406</v>
       </c>
       <c r="L62" t="s">
@@ -18215,13 +18279,13 @@
       <c r="AE62" t="s">
         <v>213</v>
       </c>
-      <c r="AF62" s="19">
+      <c r="AF62" s="14">
         <v>31576</v>
       </c>
-      <c r="AG62" s="19">
+      <c r="AG62" s="14">
         <v>31576</v>
       </c>
-      <c r="AH62" s="19">
+      <c r="AH62" s="14">
         <v>31576</v>
       </c>
       <c r="AI62" t="s">
@@ -18538,10 +18602,10 @@
       <c r="I63" t="s">
         <v>203</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>40360</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="9">
         <v>40451</v>
       </c>
       <c r="L63" t="s">
@@ -18601,13 +18665,13 @@
       <c r="AE63" t="s">
         <v>213</v>
       </c>
-      <c r="AF63" s="19">
+      <c r="AF63" s="14">
         <v>40954</v>
       </c>
-      <c r="AG63" s="19">
+      <c r="AG63" s="14">
         <v>40954</v>
       </c>
-      <c r="AH63" s="19">
+      <c r="AH63" s="14">
         <v>40954</v>
       </c>
       <c r="AI63" t="s">
@@ -18748,7 +18812,7 @@
       <c r="CF63" t="s">
         <v>215</v>
       </c>
-      <c r="CG63" s="16" t="s">
+      <c r="CG63" s="11" t="s">
         <v>761</v>
       </c>
       <c r="CH63" t="s">
@@ -18894,10 +18958,10 @@
       <c r="I64" t="s">
         <v>203</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>30477</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="9">
         <v>31013</v>
       </c>
       <c r="L64" t="s">
@@ -18951,13 +19015,13 @@
       <c r="AE64" t="s">
         <v>213</v>
       </c>
-      <c r="AF64" s="19">
+      <c r="AF64" s="14">
         <v>31013</v>
       </c>
-      <c r="AG64" s="19">
+      <c r="AG64" s="14">
         <v>31013</v>
       </c>
-      <c r="AH64" s="19">
+      <c r="AH64" s="14">
         <v>31013</v>
       </c>
       <c r="AI64" t="s">
@@ -19124,10 +19188,10 @@
       <c r="I65" t="s">
         <v>203</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="9">
         <v>30498</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="9">
         <v>30682</v>
       </c>
       <c r="L65" t="s">
@@ -19187,13 +19251,13 @@
       <c r="AE65" t="s">
         <v>213</v>
       </c>
-      <c r="AF65" s="19">
+      <c r="AF65" s="14">
         <v>35209</v>
       </c>
-      <c r="AG65" s="19">
+      <c r="AG65" s="14">
         <v>35209</v>
       </c>
-      <c r="AH65" s="19">
+      <c r="AH65" s="14">
         <v>35209</v>
       </c>
       <c r="AI65" t="s">
@@ -19510,10 +19574,10 @@
       <c r="I66" t="s">
         <v>203</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="9">
         <v>34700</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="9">
         <v>39785</v>
       </c>
       <c r="L66" t="s">
@@ -19573,13 +19637,13 @@
       <c r="AE66" t="s">
         <v>213</v>
       </c>
-      <c r="AF66" s="19">
+      <c r="AF66" s="14">
         <v>40004</v>
       </c>
-      <c r="AG66" s="19">
+      <c r="AG66" s="14">
         <v>40004</v>
       </c>
-      <c r="AH66" s="19">
+      <c r="AH66" s="14">
         <v>40004</v>
       </c>
       <c r="AI66" t="s">
@@ -19838,10 +19902,10 @@
       <c r="I67" t="s">
         <v>203</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>31747</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="9">
         <v>31836</v>
       </c>
       <c r="L67" t="s">
@@ -19895,13 +19959,13 @@
       <c r="AE67" t="s">
         <v>213</v>
       </c>
-      <c r="AF67" s="19">
+      <c r="AF67" s="14">
         <v>32282</v>
       </c>
-      <c r="AG67" s="19">
+      <c r="AG67" s="14">
         <v>32282</v>
       </c>
-      <c r="AH67" s="19">
+      <c r="AH67" s="14">
         <v>32282</v>
       </c>
       <c r="AI67" t="s">
@@ -20068,10 +20132,10 @@
       <c r="I68" t="s">
         <v>203</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K68" s="10"/>
+      <c r="K68" s="9"/>
       <c r="L68" t="s">
         <v>261</v>
       </c>
@@ -20129,13 +20193,13 @@
       <c r="AE68" t="s">
         <v>213</v>
       </c>
-      <c r="AF68" s="19">
+      <c r="AF68" s="14">
         <v>40969</v>
       </c>
-      <c r="AG68" s="19">
+      <c r="AG68" s="14">
         <v>40969</v>
       </c>
-      <c r="AH68" s="19">
+      <c r="AH68" s="14">
         <v>40969</v>
       </c>
       <c r="AI68" t="s">
@@ -20276,7 +20340,7 @@
       <c r="CF68" t="s">
         <v>215</v>
       </c>
-      <c r="CG68" s="16" t="s">
+      <c r="CG68" s="11" t="s">
         <v>761</v>
       </c>
       <c r="CH68" t="s">
@@ -20422,10 +20486,10 @@
       <c r="I69" t="s">
         <v>203</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K69" s="10"/>
+      <c r="K69" s="9"/>
       <c r="L69" t="s">
         <v>261</v>
       </c>
@@ -20483,13 +20547,13 @@
       <c r="AE69" t="s">
         <v>213</v>
       </c>
-      <c r="AF69" s="19">
+      <c r="AF69" s="14">
         <v>40969</v>
       </c>
-      <c r="AG69" s="19">
+      <c r="AG69" s="14">
         <v>40969</v>
       </c>
-      <c r="AH69" s="19">
+      <c r="AH69" s="14">
         <v>40969</v>
       </c>
       <c r="AI69" t="s">
@@ -20630,7 +20694,7 @@
       <c r="CF69" t="s">
         <v>215</v>
       </c>
-      <c r="CG69" s="16" t="s">
+      <c r="CG69" s="11" t="s">
         <v>761</v>
       </c>
       <c r="CH69" t="s">
@@ -20776,10 +20840,10 @@
       <c r="I70" t="s">
         <v>203</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="9">
         <v>31837</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="9">
         <v>33054</v>
       </c>
       <c r="L70" t="s">
@@ -20839,13 +20903,13 @@
       <c r="AE70" t="s">
         <v>213</v>
       </c>
-      <c r="AF70" s="19">
+      <c r="AF70" s="14">
         <v>34807</v>
       </c>
-      <c r="AG70" s="19">
+      <c r="AG70" s="14">
         <v>34807</v>
       </c>
-      <c r="AH70" s="19">
+      <c r="AH70" s="14">
         <v>34807</v>
       </c>
       <c r="AI70" t="s">
@@ -21192,10 +21256,10 @@
       <c r="I71" t="s">
         <v>203</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="9">
         <v>32629</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="9">
         <v>32902</v>
       </c>
       <c r="L71" t="s">
@@ -21249,13 +21313,13 @@
       <c r="AE71" t="s">
         <v>213</v>
       </c>
-      <c r="AF71" s="19">
+      <c r="AF71" s="14">
         <v>33013</v>
       </c>
-      <c r="AG71" s="19">
+      <c r="AG71" s="14">
         <v>33013</v>
       </c>
-      <c r="AH71" s="19">
+      <c r="AH71" s="14">
         <v>33013</v>
       </c>
       <c r="AI71" t="s">
@@ -21422,10 +21486,10 @@
       <c r="I72" t="s">
         <v>203</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="9">
         <v>21551</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="9">
         <v>31870</v>
       </c>
       <c r="L72" t="s">
@@ -21479,13 +21543,13 @@
       <c r="AE72" t="s">
         <v>213</v>
       </c>
-      <c r="AF72" s="19">
+      <c r="AF72" s="14">
         <v>32300</v>
       </c>
-      <c r="AG72" s="19">
+      <c r="AG72" s="14">
         <v>32300</v>
       </c>
-      <c r="AH72" s="19">
+      <c r="AH72" s="14">
         <v>32300</v>
       </c>
       <c r="AI72" t="s">
@@ -21652,10 +21716,10 @@
       <c r="I73" t="s">
         <v>203</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>42278</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="9">
         <v>42793</v>
       </c>
       <c r="L73" t="s">
@@ -21715,13 +21779,13 @@
       <c r="AE73" t="s">
         <v>213</v>
       </c>
-      <c r="AF73" s="19">
+      <c r="AF73" s="14">
         <v>43271</v>
       </c>
-      <c r="AG73" s="19">
+      <c r="AG73" s="14">
         <v>43271</v>
       </c>
-      <c r="AH73" s="19">
+      <c r="AH73" s="14">
         <v>43271</v>
       </c>
       <c r="AI73" t="s">
@@ -22075,7 +22139,7 @@
       <c r="Y74" t="s">
         <v>902</v>
       </c>
-      <c r="Z74" s="18" t="s">
+      <c r="Z74" s="13" t="s">
         <v>906</v>
       </c>
       <c r="AA74" t="s">
@@ -22093,13 +22157,13 @@
       <c r="AE74" t="s">
         <v>213</v>
       </c>
-      <c r="AF74" s="19">
+      <c r="AF74" s="14">
         <v>42263</v>
       </c>
-      <c r="AG74" s="19">
+      <c r="AG74" s="14">
         <v>43255</v>
       </c>
-      <c r="AH74" s="19">
+      <c r="AH74" s="14">
         <v>42263</v>
       </c>
       <c r="AI74" t="s">
@@ -22248,13 +22312,13 @@
       <c r="AE75" t="s">
         <v>213</v>
       </c>
-      <c r="AF75" s="19">
+      <c r="AF75" s="14">
         <v>41670</v>
       </c>
-      <c r="AG75" s="19">
+      <c r="AG75" s="14">
         <v>41670</v>
       </c>
-      <c r="AH75" s="19">
+      <c r="AH75" s="14">
         <v>41670</v>
       </c>
       <c r="AI75" t="s">
@@ -22403,13 +22467,13 @@
       <c r="AE76" t="s">
         <v>213</v>
       </c>
-      <c r="AF76" s="19">
+      <c r="AF76" s="14">
         <v>41913</v>
       </c>
-      <c r="AG76" s="19">
+      <c r="AG76" s="14">
         <v>41913</v>
       </c>
-      <c r="AH76" s="19">
+      <c r="AH76" s="14">
         <v>41913</v>
       </c>
       <c r="AI76" t="s">
@@ -22540,7 +22604,7 @@
       <c r="Y77" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="Z77" s="21" t="s">
+      <c r="Z77" s="16" t="s">
         <v>931</v>
       </c>
       <c r="AA77" t="s">
@@ -22558,13 +22622,13 @@
       <c r="AE77" t="s">
         <v>213</v>
       </c>
-      <c r="AF77" s="19">
+      <c r="AF77" s="14">
         <v>41690</v>
       </c>
-      <c r="AG77" s="19">
+      <c r="AG77" s="14">
         <v>41690</v>
       </c>
-      <c r="AH77" s="19">
+      <c r="AH77" s="14">
         <v>41690</v>
       </c>
       <c r="AI77" t="s">
@@ -22698,7 +22762,7 @@
       <c r="Y78" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="Z78" s="21" t="s">
+      <c r="Z78" s="16" t="s">
         <v>950</v>
       </c>
       <c r="AA78" t="s">
@@ -22716,13 +22780,13 @@
       <c r="AE78" t="s">
         <v>213</v>
       </c>
-      <c r="AF78" s="19">
+      <c r="AF78" s="14">
         <v>41729</v>
       </c>
-      <c r="AG78" s="19">
+      <c r="AG78" s="14">
         <v>41777</v>
       </c>
-      <c r="AH78" s="19">
+      <c r="AH78" s="14">
         <v>41729</v>
       </c>
       <c r="AI78" t="s">
@@ -22850,7 +22914,7 @@
       <c r="Y79" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="Z79" s="22" t="s">
+      <c r="Z79" s="17" t="s">
         <v>955</v>
       </c>
       <c r="AA79" t="s">
@@ -22868,13 +22932,13 @@
       <c r="AE79" t="s">
         <v>213</v>
       </c>
-      <c r="AF79" s="19">
+      <c r="AF79" s="14">
         <v>41275</v>
       </c>
-      <c r="AG79" s="19">
+      <c r="AG79" s="14">
         <v>41913</v>
       </c>
-      <c r="AH79" s="19">
+      <c r="AH79" s="14">
         <v>41275</v>
       </c>
       <c r="AI79" t="s">
@@ -22957,10 +23021,10 @@
       <c r="C80" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F80" t="s">
@@ -23005,7 +23069,7 @@
       <c r="Y80" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="Z80" s="20" t="s">
+      <c r="Z80" s="15" t="s">
         <v>960</v>
       </c>
       <c r="AA80" t="s">
@@ -23023,13 +23087,13 @@
       <c r="AE80" t="s">
         <v>213</v>
       </c>
-      <c r="AF80" s="19">
+      <c r="AF80" s="14">
         <v>33604</v>
       </c>
-      <c r="AG80" s="19">
+      <c r="AG80" s="14">
         <v>43344</v>
       </c>
-      <c r="AH80" s="19">
+      <c r="AH80" s="14">
         <v>33604</v>
       </c>
       <c r="AI80" t="s">
@@ -23112,10 +23176,10 @@
       <c r="C81" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F81" t="s">
@@ -23160,7 +23224,7 @@
       <c r="Y81" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="Z81" s="20" t="s">
+      <c r="Z81" s="15" t="s">
         <v>966</v>
       </c>
       <c r="AA81" t="s">
@@ -23178,13 +23242,13 @@
       <c r="AE81" t="s">
         <v>213</v>
       </c>
-      <c r="AF81" s="19">
+      <c r="AF81" s="14">
         <v>43344</v>
       </c>
-      <c r="AG81" s="19">
+      <c r="AG81" s="14">
         <v>43344</v>
       </c>
-      <c r="AH81" s="19">
+      <c r="AH81" s="14">
         <v>43344</v>
       </c>
       <c r="AI81" t="s">
@@ -23267,10 +23331,10 @@
       <c r="C82" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F82" t="s">
@@ -23315,7 +23379,7 @@
       <c r="Y82" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="Z82" s="18" t="s">
+      <c r="Z82" s="13" t="s">
         <v>974</v>
       </c>
       <c r="AA82" t="s">
@@ -23333,13 +23397,13 @@
       <c r="AE82" t="s">
         <v>213</v>
       </c>
-      <c r="AF82" s="19">
+      <c r="AF82" s="14">
         <v>43344</v>
       </c>
-      <c r="AG82" s="19">
+      <c r="AG82" s="14">
         <v>43344</v>
       </c>
-      <c r="AH82" s="19">
+      <c r="AH82" s="14">
         <v>43344</v>
       </c>
       <c r="AI82" t="s">
@@ -23488,13 +23552,13 @@
       <c r="AE83" t="s">
         <v>213</v>
       </c>
-      <c r="AF83" s="19">
+      <c r="AF83" s="14">
         <v>39814</v>
       </c>
-      <c r="AG83" s="19">
+      <c r="AG83" s="14">
         <v>41730</v>
       </c>
-      <c r="AH83" s="19">
+      <c r="AH83" s="14">
         <v>39814</v>
       </c>
       <c r="AI83" t="s">
@@ -23643,13 +23707,13 @@
       <c r="AE84" t="s">
         <v>213</v>
       </c>
-      <c r="AF84" s="19">
+      <c r="AF84" s="14">
         <v>43466</v>
       </c>
-      <c r="AG84" s="19">
+      <c r="AG84" s="14">
         <v>43466</v>
       </c>
-      <c r="AH84" s="19">
+      <c r="AH84" s="14">
         <v>43466</v>
       </c>
       <c r="AI84" t="s">
@@ -23792,13 +23856,13 @@
       <c r="AE85" t="s">
         <v>213</v>
       </c>
-      <c r="AF85" s="19">
+      <c r="AF85" s="14">
         <v>43466</v>
       </c>
-      <c r="AG85" s="19">
+      <c r="AG85" s="14">
         <v>43466</v>
       </c>
-      <c r="AH85" s="19">
+      <c r="AH85" s="14">
         <v>43466</v>
       </c>
       <c r="AI85" t="s">
@@ -23944,13 +24008,13 @@
       <c r="AE86" t="s">
         <v>213</v>
       </c>
-      <c r="AF86" s="19">
+      <c r="AF86" s="14">
         <v>43466</v>
       </c>
-      <c r="AG86" s="19">
+      <c r="AG86" s="14">
         <v>43466</v>
       </c>
-      <c r="AH86" s="19">
+      <c r="AH86" s="14">
         <v>43466</v>
       </c>
       <c r="AI86" t="s">
@@ -24096,13 +24160,13 @@
       <c r="AE87" t="s">
         <v>213</v>
       </c>
-      <c r="AF87" s="19">
+      <c r="AF87" s="14">
         <v>43466</v>
       </c>
-      <c r="AG87" s="19">
+      <c r="AG87" s="14">
         <v>43466</v>
       </c>
-      <c r="AH87" s="19">
+      <c r="AH87" s="14">
         <v>43466</v>
       </c>
       <c r="AI87" t="s">
@@ -24254,13 +24318,13 @@
       <c r="AE88" t="s">
         <v>213</v>
       </c>
-      <c r="AF88" s="19">
+      <c r="AF88" s="14">
         <v>43466</v>
       </c>
-      <c r="AG88" s="19">
+      <c r="AG88" s="14">
         <v>43466</v>
       </c>
-      <c r="AH88" s="19">
+      <c r="AH88" s="14">
         <v>43466</v>
       </c>
       <c r="AI88" t="s">
@@ -24403,13 +24467,13 @@
       <c r="AE89" t="s">
         <v>213</v>
       </c>
-      <c r="AF89" s="19">
+      <c r="AF89" s="14">
         <v>43466</v>
       </c>
-      <c r="AG89" s="19">
+      <c r="AG89" s="14">
         <v>43466</v>
       </c>
-      <c r="AH89" s="19">
+      <c r="AH89" s="14">
         <v>43466</v>
       </c>
       <c r="AI89" t="s">
@@ -24534,7 +24598,7 @@
       <c r="Y90" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="Z90" s="18" t="s">
+      <c r="Z90" s="13" t="s">
         <v>1010</v>
       </c>
       <c r="AA90" t="s">
@@ -24552,13 +24616,13 @@
       <c r="AE90" t="s">
         <v>213</v>
       </c>
-      <c r="AF90" s="19">
+      <c r="AF90" s="14">
         <v>41974</v>
       </c>
-      <c r="AG90" s="19">
+      <c r="AG90" s="14">
         <v>41974</v>
       </c>
-      <c r="AH90" s="19">
+      <c r="AH90" s="14">
         <v>41974</v>
       </c>
       <c r="AI90" t="s">
@@ -24665,10 +24729,10 @@
       <c r="I91" t="s">
         <v>203</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="9">
         <v>26299</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="9">
         <v>36525</v>
       </c>
       <c r="L91" t="s">
@@ -24698,7 +24762,7 @@
       <c r="Y91" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="Z91" s="18" t="s">
+      <c r="Z91" s="13" t="s">
         <v>1018</v>
       </c>
       <c r="AA91" t="s">
@@ -24716,13 +24780,13 @@
       <c r="AE91" t="s">
         <v>213</v>
       </c>
-      <c r="AF91" s="19">
+      <c r="AF91" s="14">
         <v>39083</v>
       </c>
-      <c r="AG91" s="19">
+      <c r="AG91" s="14">
         <v>39083</v>
       </c>
-      <c r="AH91" s="19">
+      <c r="AH91" s="14">
         <v>39083</v>
       </c>
       <c r="AI91" t="s">
@@ -24835,10 +24899,10 @@
       <c r="I92" t="s">
         <v>203</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92" s="9">
         <v>24108</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="9">
         <v>34699</v>
       </c>
       <c r="L92" t="s">
@@ -24868,7 +24932,7 @@
       <c r="Y92" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="Z92" s="18" t="s">
+      <c r="Z92" s="13" t="s">
         <v>1029</v>
       </c>
       <c r="AA92" t="s">
@@ -24886,13 +24950,13 @@
       <c r="AE92" t="s">
         <v>213</v>
       </c>
-      <c r="AF92" s="19">
+      <c r="AF92" s="14">
         <v>34700</v>
       </c>
-      <c r="AG92" s="19">
+      <c r="AG92" s="14">
         <v>34700</v>
       </c>
-      <c r="AH92" s="19">
+      <c r="AH92" s="14">
         <v>34700</v>
       </c>
       <c r="AI92" t="s">
@@ -25005,10 +25069,10 @@
       <c r="I93" t="s">
         <v>203</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="9">
         <v>24108</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="9">
         <v>34699</v>
       </c>
       <c r="L93" t="s">
@@ -25038,7 +25102,7 @@
       <c r="Y93" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="Z93" s="18" t="s">
+      <c r="Z93" s="13" t="s">
         <v>1029</v>
       </c>
       <c r="AA93" t="s">
@@ -25056,13 +25120,13 @@
       <c r="AE93" t="s">
         <v>213</v>
       </c>
-      <c r="AF93" s="19">
+      <c r="AF93" s="14">
         <v>34700</v>
       </c>
-      <c r="AG93" s="19">
+      <c r="AG93" s="14">
         <v>34700</v>
       </c>
-      <c r="AH93" s="19">
+      <c r="AH93" s="14">
         <v>34700</v>
       </c>
       <c r="AI93" t="s">
@@ -25157,10 +25221,10 @@
       <c r="C94" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F94" t="s">
@@ -25175,10 +25239,10 @@
       <c r="I94" t="s">
         <v>203</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J94" s="9">
         <v>28126</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K94" s="9">
         <v>43647</v>
       </c>
       <c r="L94" t="s">
@@ -25208,7 +25272,7 @@
       <c r="Y94" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="Z94" s="18" t="s">
+      <c r="Z94" s="13" t="s">
         <v>1039</v>
       </c>
       <c r="AA94" t="s">
@@ -25226,13 +25290,13 @@
       <c r="AE94" t="s">
         <v>213</v>
       </c>
-      <c r="AF94" s="19">
+      <c r="AF94" s="14">
         <v>43647</v>
       </c>
-      <c r="AG94" s="19">
+      <c r="AG94" s="14">
         <v>43647</v>
       </c>
-      <c r="AH94" s="19">
+      <c r="AH94" s="14">
         <v>43647</v>
       </c>
       <c r="AI94" t="s">
@@ -25327,10 +25391,10 @@
       <c r="C95" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F95" t="s">
@@ -25345,10 +25409,10 @@
       <c r="I95" t="s">
         <v>203</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J95" s="9">
         <v>28491</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K95" s="9">
         <v>38717</v>
       </c>
       <c r="L95" t="s">
@@ -25378,7 +25442,7 @@
       <c r="Y95" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="Z95" s="18" t="s">
+      <c r="Z95" s="13" t="s">
         <v>1044</v>
       </c>
       <c r="AA95" t="s">
@@ -25396,13 +25460,13 @@
       <c r="AE95" t="s">
         <v>213</v>
       </c>
-      <c r="AF95" s="19">
+      <c r="AF95" s="14">
         <v>41640</v>
       </c>
-      <c r="AG95" s="19">
+      <c r="AG95" s="14">
         <v>41640</v>
       </c>
-      <c r="AH95" s="19">
+      <c r="AH95" s="14">
         <v>41640</v>
       </c>
       <c r="AI95" t="s">
@@ -25494,10 +25558,10 @@
       <c r="C96" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F96" t="s">
@@ -25512,10 +25576,10 @@
       <c r="I96" t="s">
         <v>203</v>
       </c>
-      <c r="J96" s="10">
+      <c r="J96" s="9">
         <v>28491</v>
       </c>
-      <c r="K96" s="10">
+      <c r="K96" s="9">
         <v>38717</v>
       </c>
       <c r="L96" t="s">
@@ -25545,7 +25609,7 @@
       <c r="Y96" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="Z96" s="18" t="s">
+      <c r="Z96" s="13" t="s">
         <v>1044</v>
       </c>
       <c r="AA96" t="s">
@@ -25563,13 +25627,13 @@
       <c r="AE96" t="s">
         <v>213</v>
       </c>
-      <c r="AF96" s="19">
+      <c r="AF96" s="14">
         <v>41640</v>
       </c>
-      <c r="AG96" s="19">
+      <c r="AG96" s="14">
         <v>41640</v>
       </c>
-      <c r="AH96" s="19">
+      <c r="AH96" s="14">
         <v>41640</v>
       </c>
       <c r="AI96" t="s">
@@ -25661,10 +25725,10 @@
       <c r="C97" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F97" t="s">
@@ -25679,10 +25743,10 @@
       <c r="I97" t="s">
         <v>203</v>
       </c>
-      <c r="J97" s="10">
+      <c r="J97" s="9">
         <v>40544</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K97" s="9">
         <v>40908</v>
       </c>
       <c r="L97" t="s">
@@ -25712,7 +25776,7 @@
       <c r="Y97" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="Z97" s="18" t="s">
+      <c r="Z97" s="13" t="s">
         <v>1061</v>
       </c>
       <c r="AA97" t="s">
@@ -25730,13 +25794,13 @@
       <c r="AE97" t="s">
         <v>213</v>
       </c>
-      <c r="AF97" s="19">
+      <c r="AF97" s="14">
         <v>41640</v>
       </c>
-      <c r="AG97" s="19">
+      <c r="AG97" s="14">
         <v>41640</v>
       </c>
-      <c r="AH97" s="19">
+      <c r="AH97" s="14">
         <v>41640</v>
       </c>
       <c r="AI97" t="s">
@@ -25828,10 +25892,10 @@
       <c r="C98" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F98" t="s">
@@ -25846,10 +25910,10 @@
       <c r="I98" t="s">
         <v>203</v>
       </c>
-      <c r="J98" s="10">
+      <c r="J98" s="9">
         <v>40544</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K98" s="9">
         <v>40908</v>
       </c>
       <c r="L98" t="s">
@@ -25879,7 +25943,7 @@
       <c r="Y98" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="Z98" s="18" t="s">
+      <c r="Z98" s="13" t="s">
         <v>1060</v>
       </c>
       <c r="AA98" t="s">
@@ -25897,13 +25961,13 @@
       <c r="AE98" t="s">
         <v>213</v>
       </c>
-      <c r="AF98" s="19">
+      <c r="AF98" s="14">
         <v>41640</v>
       </c>
-      <c r="AG98" s="19">
+      <c r="AG98" s="14">
         <v>41640</v>
       </c>
-      <c r="AH98" s="19">
+      <c r="AH98" s="14">
         <v>41640</v>
       </c>
       <c r="AI98" t="s">
@@ -25998,10 +26062,10 @@
       <c r="C99" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F99" t="s">
@@ -26016,10 +26080,10 @@
       <c r="I99" t="s">
         <v>203</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="9">
         <v>40544</v>
       </c>
-      <c r="K99" s="10">
+      <c r="K99" s="9">
         <v>40908</v>
       </c>
       <c r="L99" t="s">
@@ -26049,7 +26113,7 @@
       <c r="Y99" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="Z99" s="18" t="s">
+      <c r="Z99" s="13" t="s">
         <v>1060</v>
       </c>
       <c r="AA99" t="s">
@@ -26067,13 +26131,13 @@
       <c r="AE99" t="s">
         <v>213</v>
       </c>
-      <c r="AF99" s="19">
+      <c r="AF99" s="14">
         <v>41640</v>
       </c>
-      <c r="AG99" s="19">
+      <c r="AG99" s="14">
         <v>41640</v>
       </c>
-      <c r="AH99" s="19">
+      <c r="AH99" s="14">
         <v>41640</v>
       </c>
       <c r="AI99" t="s">
@@ -26168,10 +26232,10 @@
       <c r="C100" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F100" t="s">
@@ -26186,10 +26250,10 @@
       <c r="I100" t="s">
         <v>203</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J100" s="9">
         <v>29221</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K100" s="9">
         <v>32873</v>
       </c>
       <c r="L100" t="s">
@@ -26219,7 +26283,7 @@
       <c r="Y100" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="Z100" s="18" t="s">
+      <c r="Z100" s="13" t="s">
         <v>1070</v>
       </c>
       <c r="AA100" t="s">
@@ -26237,13 +26301,13 @@
       <c r="AE100" t="s">
         <v>213</v>
       </c>
-      <c r="AF100" s="19">
+      <c r="AF100" s="14">
         <v>42005</v>
       </c>
-      <c r="AG100" s="19">
+      <c r="AG100" s="14">
         <v>42005</v>
       </c>
-      <c r="AH100" s="19">
+      <c r="AH100" s="14">
         <v>42005</v>
       </c>
       <c r="AI100" t="s">
@@ -26341,10 +26405,10 @@
       <c r="C101" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F101" t="s">
@@ -26359,10 +26423,10 @@
       <c r="I101" t="s">
         <v>203</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="9">
         <v>27030</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101" s="9">
         <v>41274</v>
       </c>
       <c r="L101" t="s">
@@ -26392,7 +26456,7 @@
       <c r="Y101" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="Z101" s="18" t="s">
+      <c r="Z101" s="13" t="s">
         <v>1080</v>
       </c>
       <c r="AA101" t="s">
@@ -26410,13 +26474,13 @@
       <c r="AE101" t="s">
         <v>213</v>
       </c>
-      <c r="AF101" s="19">
+      <c r="AF101" s="14">
         <v>42461</v>
       </c>
-      <c r="AG101" s="19">
+      <c r="AG101" s="14">
         <v>42461</v>
       </c>
-      <c r="AH101" s="19">
+      <c r="AH101" s="14">
         <v>42461</v>
       </c>
       <c r="AI101" t="s">
@@ -26532,10 +26596,10 @@
       <c r="I102" t="s">
         <v>203</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J102" s="9">
         <v>32874</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K102" s="9">
         <v>43677</v>
       </c>
       <c r="L102" t="s">
@@ -26565,7 +26629,7 @@
       <c r="Y102" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="Z102" s="18" t="s">
+      <c r="Z102" s="13" t="s">
         <v>1083</v>
       </c>
       <c r="AA102" t="s">
@@ -26583,13 +26647,13 @@
       <c r="AE102" t="s">
         <v>213</v>
       </c>
-      <c r="AF102" s="19">
+      <c r="AF102" s="14">
         <v>43647</v>
       </c>
-      <c r="AG102" s="19">
+      <c r="AG102" s="14">
         <v>43647</v>
       </c>
-      <c r="AH102" s="19">
+      <c r="AH102" s="14">
         <v>43647</v>
       </c>
       <c r="AI102" t="s">
@@ -26669,10 +26733,10 @@
       <c r="C103" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F103" t="s">
@@ -26687,10 +26751,10 @@
       <c r="I103" t="s">
         <v>203</v>
       </c>
-      <c r="J103" s="10">
+      <c r="J103" s="9">
         <v>23012</v>
       </c>
-      <c r="K103" s="10">
+      <c r="K103" s="9">
         <v>36891</v>
       </c>
       <c r="L103" t="s">
@@ -26720,7 +26784,7 @@
       <c r="Y103" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="Z103" s="18" t="s">
+      <c r="Z103" s="13" t="s">
         <v>1089</v>
       </c>
       <c r="AA103" t="s">
@@ -26738,13 +26802,13 @@
       <c r="AE103" t="s">
         <v>213</v>
       </c>
-      <c r="AF103" s="19">
+      <c r="AF103" s="14">
         <v>37256</v>
       </c>
-      <c r="AG103" s="19">
+      <c r="AG103" s="14">
         <v>37256</v>
       </c>
-      <c r="AH103" s="19">
+      <c r="AH103" s="14">
         <v>37256</v>
       </c>
       <c r="AI103" t="s">
@@ -26827,10 +26891,10 @@
       <c r="C104" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F104" t="s">
@@ -26845,10 +26909,10 @@
       <c r="I104" t="s">
         <v>203</v>
       </c>
-      <c r="J104" s="10">
+      <c r="J104" s="9">
         <v>18629</v>
       </c>
-      <c r="K104" s="10">
+      <c r="K104" s="9">
         <v>40908</v>
       </c>
       <c r="L104" t="s">
@@ -26878,7 +26942,7 @@
       <c r="Y104" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="Z104" s="18" t="s">
+      <c r="Z104" s="13" t="s">
         <v>1095</v>
       </c>
       <c r="AA104" t="s">
@@ -26896,13 +26960,13 @@
       <c r="AE104" t="s">
         <v>213</v>
       </c>
-      <c r="AF104" s="19">
+      <c r="AF104" s="14">
         <v>40909</v>
       </c>
-      <c r="AG104" s="19">
+      <c r="AG104" s="14">
         <v>40909</v>
       </c>
-      <c r="AH104" s="19">
+      <c r="AH104" s="14">
         <v>40909</v>
       </c>
       <c r="AI104" t="s">
@@ -26985,10 +27049,10 @@
       <c r="C105" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F105" t="s">
@@ -27003,10 +27067,10 @@
       <c r="I105" t="s">
         <v>203</v>
       </c>
-      <c r="J105" s="10">
+      <c r="J105" s="9">
         <v>33239</v>
       </c>
-      <c r="K105" s="10">
+      <c r="K105" s="9">
         <v>40178</v>
       </c>
       <c r="L105" t="s">
@@ -27036,7 +27100,7 @@
       <c r="Y105" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="Z105" s="18" t="s">
+      <c r="Z105" s="13" t="s">
         <v>1103</v>
       </c>
       <c r="AA105" t="s">
@@ -27054,13 +27118,13 @@
       <c r="AE105" t="s">
         <v>213</v>
       </c>
-      <c r="AF105" s="19">
+      <c r="AF105" s="14">
         <v>41640</v>
       </c>
-      <c r="AG105" s="19">
+      <c r="AG105" s="14">
         <v>41640</v>
       </c>
-      <c r="AH105" s="19">
+      <c r="AH105" s="14">
         <v>41640</v>
       </c>
       <c r="AI105" t="s">
@@ -27140,10 +27204,10 @@
       <c r="C106" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="18" t="s">
         <v>972</v>
       </c>
       <c r="F106" t="s">
@@ -27158,10 +27222,10 @@
       <c r="I106" t="s">
         <v>203</v>
       </c>
-      <c r="J106" s="10">
+      <c r="J106" s="9">
         <v>27760</v>
       </c>
-      <c r="K106" s="10">
+      <c r="K106" s="9">
         <v>39813</v>
       </c>
       <c r="L106" t="s">
@@ -27191,7 +27255,7 @@
       <c r="Y106" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="Z106" s="18" t="s">
+      <c r="Z106" s="13" t="s">
         <v>1110</v>
       </c>
       <c r="AA106" t="s">
@@ -27209,13 +27273,13 @@
       <c r="AE106" t="s">
         <v>213</v>
       </c>
-      <c r="AF106" s="19">
+      <c r="AF106" s="14">
         <v>42005</v>
       </c>
-      <c r="AG106" s="19">
+      <c r="AG106" s="14">
         <v>42005</v>
       </c>
-      <c r="AH106" s="19">
+      <c r="AH106" s="14">
         <v>42005</v>
       </c>
       <c r="AI106" t="s">
@@ -27310,10 +27374,10 @@
       <c r="C107" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F107" t="s">
@@ -27328,10 +27392,10 @@
       <c r="I107" t="s">
         <v>203</v>
       </c>
-      <c r="J107" s="10">
+      <c r="J107" s="9">
         <v>33239</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K107" s="9">
         <v>40178</v>
       </c>
       <c r="L107" t="s">
@@ -27361,7 +27425,7 @@
       <c r="Y107" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="Z107" s="18" t="s">
+      <c r="Z107" s="13" t="s">
         <v>1118</v>
       </c>
       <c r="AA107" t="s">
@@ -27379,13 +27443,13 @@
       <c r="AE107" t="s">
         <v>213</v>
       </c>
-      <c r="AF107" s="19">
+      <c r="AF107" s="14">
         <v>41640</v>
       </c>
-      <c r="AG107" s="19">
+      <c r="AG107" s="14">
         <v>41640</v>
       </c>
-      <c r="AH107" s="19">
+      <c r="AH107" s="14">
         <v>41640</v>
       </c>
       <c r="AI107" t="s">
@@ -27468,10 +27532,10 @@
       <c r="C108" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F108" t="s">
@@ -27486,10 +27550,10 @@
       <c r="I108" t="s">
         <v>203</v>
       </c>
-      <c r="J108" s="10">
+      <c r="J108" s="9">
         <v>32874</v>
       </c>
-      <c r="K108" s="10">
+      <c r="K108" s="9">
         <v>33969</v>
       </c>
       <c r="L108" t="s">
@@ -27519,7 +27583,7 @@
       <c r="Y108" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="Z108" s="18" t="s">
+      <c r="Z108" s="13" t="s">
         <v>1123</v>
       </c>
       <c r="AA108" t="s">
@@ -27537,13 +27601,13 @@
       <c r="AE108" t="s">
         <v>213</v>
       </c>
-      <c r="AF108" s="19">
+      <c r="AF108" s="14">
         <v>41974</v>
       </c>
-      <c r="AG108" s="19">
+      <c r="AG108" s="14">
         <v>41974</v>
       </c>
-      <c r="AH108" s="19">
+      <c r="AH108" s="14">
         <v>41974</v>
       </c>
       <c r="AI108" t="s">

--- a/docs/NL CE-Relevant Data.xlsx
+++ b/docs/NL CE-Relevant Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Data\SourceData\NL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="2940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="2940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Downloads" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6748" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8170" uniqueCount="1265">
   <si>
     <t>Title</t>
   </si>
@@ -3502,6 +3502,330 @@
   </si>
   <si>
     <t>iso_topic_string_0</t>
+  </si>
+  <si>
+    <t>reference_system_code_0</t>
+  </si>
+  <si>
+    <t>reference_system_codespace_0</t>
+  </si>
+  <si>
+    <t>reference_system_version_0</t>
+  </si>
+  <si>
+    <t>EPSG:4267</t>
+  </si>
+  <si>
+    <t>EPSG</t>
+  </si>
+  <si>
+    <t>PUBLIC LANDUSE INQUIRY MAP: Control Monuments</t>
+  </si>
+  <si>
+    <t>landuseatlas@gov.nl.ca</t>
+  </si>
+  <si>
+    <t>Land Use Atlas Inquiry</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlas/inquiry/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This application provides details on existing land use, land use limitations, Crown titles and applications, Municipal Plan and Protected Road Zoning in Newfoundland and Labrador.  </t>
+  </si>
+  <si>
+    <t>Control Monuments</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/0</t>
+  </si>
+  <si>
+    <t>Department of Fisheries and Land Resources</t>
+  </si>
+  <si>
+    <t>land use</t>
+  </si>
+  <si>
+    <t>public land</t>
+  </si>
+  <si>
+    <t>control monuments</t>
+  </si>
+  <si>
+    <t>EPSG:3857</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Applications for Crown Title</t>
+  </si>
+  <si>
+    <t>Applications for Crown Title</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/2</t>
+  </si>
+  <si>
+    <t>crown title</t>
+  </si>
+  <si>
+    <t>applications</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Crown Titles</t>
+  </si>
+  <si>
+    <t>Crown Titles</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/3</t>
+  </si>
+  <si>
+    <t>crown titles</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Expropriated Land</t>
+  </si>
+  <si>
+    <t>Expropriated Land</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/4</t>
+  </si>
+  <si>
+    <t>expropriation</t>
+  </si>
+  <si>
+    <t>expropriated land</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Orders in Council</t>
+  </si>
+  <si>
+    <t>Orders in Council</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/5</t>
+  </si>
+  <si>
+    <t>orders in council</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Quieting of Titles</t>
+  </si>
+  <si>
+    <t>Quieting of Titles</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/6</t>
+  </si>
+  <si>
+    <t>quieting of titles</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Quit Claims</t>
+  </si>
+  <si>
+    <t>Quit Claims</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/7</t>
+  </si>
+  <si>
+    <t>quit claims</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Bowater Land Sales</t>
+  </si>
+  <si>
+    <t>Bowater Land Sales</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/8</t>
+  </si>
+  <si>
+    <t>bowater land sales</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Titles to Check</t>
+  </si>
+  <si>
+    <t>Titles to Check</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/9</t>
+  </si>
+  <si>
+    <t>titles to check</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Miscellaneous Crown Land Information</t>
+  </si>
+  <si>
+    <t>Miscellaneous Crown Land Information</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/10</t>
+  </si>
+  <si>
+    <t>crown land</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Aboriginal Affairs</t>
+  </si>
+  <si>
+    <t>Aboriginal Affairs</t>
+  </si>
+  <si>
+    <t>aboriginal affairs</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Environment</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Tourism</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Federal Lands</t>
+  </si>
+  <si>
+    <t>Federal Lands</t>
+  </si>
+  <si>
+    <t>federal lands</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Fisheries</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>fisheries</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Lands</t>
+  </si>
+  <si>
+    <t>Lands</t>
+  </si>
+  <si>
+    <t>lands</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Municipal Affairs</t>
+  </si>
+  <si>
+    <t>Municipal Affairs</t>
+  </si>
+  <si>
+    <t>municipal affairs</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Transportation</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Mines Energy</t>
+  </si>
+  <si>
+    <t>Mines Energy</t>
+  </si>
+  <si>
+    <t>mines</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Forestry Agrifoods</t>
+  </si>
+  <si>
+    <t>Forestry Agrifoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forestry </t>
+  </si>
+  <si>
+    <t>agrifoods</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Municipal Plan Restrictions</t>
+  </si>
+  <si>
+    <t>Municipal Plan Restrictions</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/23</t>
+  </si>
+  <si>
+    <t>municipal plan</t>
+  </si>
+  <si>
+    <t>restrictions</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Protected Road Zones</t>
+  </si>
+  <si>
+    <t>Protected Road Zones</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/24</t>
+  </si>
+  <si>
+    <t>protected road</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Primary Roads</t>
+  </si>
+  <si>
+    <t>Primary Roads</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/25</t>
+  </si>
+  <si>
+    <t>primary roads</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Secondary Roads</t>
+  </si>
+  <si>
+    <t>Secondary Roads</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/26</t>
+  </si>
+  <si>
+    <t>secondary roads</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Place in Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Place in Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/27</t>
+  </si>
+  <si>
+    <t>places</t>
   </si>
 </sst>
 </file>
@@ -3511,7 +3835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3578,6 +3902,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3687,61 +4017,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3758,6 +4046,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3767,7 +4056,46 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4086,258 +4414,258 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="A3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:6" s="21" customFormat="1">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+    <row r="5" spans="1:6" s="21" customFormat="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:6" s="21" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:6" s="21" customFormat="1">
+      <c r="A7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:6" s="21" customFormat="1">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:6" s="21" customFormat="1">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" s="21" customFormat="1">
+      <c r="A10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28" t="s">
+    <row r="11" spans="1:6" s="21" customFormat="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:6" s="21" customFormat="1">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6" s="21" customFormat="1">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="45">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:6" s="21" customFormat="1" ht="45">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="21" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -4395,17 +4723,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="30">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="30">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4421,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4460,638 +4788,638 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="28" customFormat="1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="28" customFormat="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+    <row r="3" spans="1:7" s="21" customFormat="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="28" t="s">
+    <row r="4" spans="1:7" s="21" customFormat="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="28" t="s">
+    <row r="5" spans="1:7" s="21" customFormat="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="28" t="s">
+    <row r="6" spans="1:7" s="21" customFormat="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="28" t="s">
+    <row r="7" spans="1:7" s="21" customFormat="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="28" t="s">
+    <row r="8" spans="1:7" s="21" customFormat="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28" t="s">
+    <row r="9" spans="1:7" s="21" customFormat="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="28" customFormat="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="28" t="s">
+    <row r="10" spans="1:7" s="21" customFormat="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="28" customFormat="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="28" t="s">
+    <row r="11" spans="1:7" s="21" customFormat="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="28" customFormat="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="28" t="s">
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="28" customFormat="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="28" t="s">
+    <row r="13" spans="1:7" s="21" customFormat="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:7" s="21" customFormat="1">
+      <c r="A14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="49" t="s">
         <v>922</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22" t="s">
+    <row r="15" spans="1:7" s="21" customFormat="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22" t="s">
+    <row r="16" spans="1:7" s="21" customFormat="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22" t="s">
+    <row r="17" spans="1:7" s="21" customFormat="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:7" s="21" customFormat="1">
+      <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="22" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22" t="s">
+    <row r="19" spans="1:7" s="21" customFormat="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22" t="s">
+    <row r="20" spans="1:7" s="21" customFormat="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22" t="s">
+    <row r="21" spans="1:7" s="21" customFormat="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22" t="s">
+    <row r="22" spans="1:7" s="21" customFormat="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22" t="s">
+    <row r="23" spans="1:7" s="21" customFormat="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22" t="s">
+    <row r="24" spans="1:7" s="21" customFormat="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22" t="s">
+    <row r="25" spans="1:7" s="21" customFormat="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="22" customFormat="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22" t="s">
+    <row r="26" spans="1:7" s="21" customFormat="1">
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22" t="s">
+    <row r="27" spans="1:7" s="21" customFormat="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22" t="s">
+    <row r="28" spans="1:7" s="21" customFormat="1">
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:7" s="21" customFormat="1">
+      <c r="A29" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="28" customFormat="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="28" t="s">
+    <row r="30" spans="1:7" s="21" customFormat="1">
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:7" s="19" customFormat="1">
+      <c r="A31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:7" s="19" customFormat="1">
+      <c r="A32" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="34" t="s">
+    <row r="33" spans="1:7" s="19" customFormat="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="41" customFormat="1">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:7" s="27" customFormat="1">
+      <c r="A34" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="41" customFormat="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="40" t="s">
+    <row r="35" spans="1:7" s="27" customFormat="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="41" customFormat="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="40" t="s">
+    <row r="36" spans="1:7" s="27" customFormat="1">
+      <c r="A36" s="45"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="41" customFormat="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="40" t="s">
+    <row r="37" spans="1:7" s="27" customFormat="1">
+      <c r="A37" s="45"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="41" customFormat="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="40" t="s">
+    <row r="38" spans="1:7" s="27" customFormat="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="41" customFormat="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="40" t="s">
+    <row r="39" spans="1:7" s="27" customFormat="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="41" customFormat="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="40" t="s">
+    <row r="40" spans="1:7" s="27" customFormat="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="41" customFormat="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="40" t="s">
+    <row r="41" spans="1:7" s="27" customFormat="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="41" customFormat="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="40" t="s">
+    <row r="42" spans="1:7" s="27" customFormat="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="26" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E18:E28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A34:A42"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E42"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="E18:E28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
@@ -5106,6 +5434,8 @@
     <hyperlink ref="G32" r:id="rId10"/>
     <hyperlink ref="G18" r:id="rId11"/>
     <hyperlink ref="D34" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5113,11 +5443,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ET108"/>
+  <dimension ref="A1:EW134"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A76" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5160,7 +5490,9 @@
     <col min="41" max="41" width="25.5703125" style="2" customWidth="1"/>
     <col min="42" max="42" width="25" customWidth="1"/>
     <col min="43" max="43" width="23.5703125" customWidth="1"/>
-    <col min="44" max="51" width="24.140625" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" customWidth="1"/>
+    <col min="45" max="45" width="91.28515625" customWidth="1"/>
+    <col min="46" max="51" width="24.140625" customWidth="1"/>
     <col min="52" max="52" width="24.140625" style="2" customWidth="1"/>
     <col min="53" max="64" width="24.140625" customWidth="1"/>
     <col min="65" max="65" width="24.7109375" customWidth="1"/>
@@ -5184,9 +5516,11 @@
     <col min="148" max="148" width="20.42578125" customWidth="1"/>
     <col min="149" max="149" width="24.7109375" customWidth="1"/>
     <col min="150" max="150" width="20.85546875" customWidth="1"/>
+    <col min="151" max="151" width="27.85546875" customWidth="1"/>
+    <col min="152" max="152" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150">
+    <row r="1" spans="1:153">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
@@ -5637,8 +5971,17 @@
       <c r="ET1" t="s">
         <v>179</v>
       </c>
+      <c r="EU1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>1159</v>
+      </c>
     </row>
-    <row r="2" spans="1:150">
+    <row r="2" spans="1:153">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -5783,8 +6126,17 @@
       <c r="EM2" t="s">
         <v>226</v>
       </c>
+      <c r="EU2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="3" spans="1:150" ht="60">
+    <row r="3" spans="1:153" ht="60">
       <c r="A3" s="2" t="s">
         <v>233</v>
       </c>
@@ -6001,8 +6353,17 @@
       <c r="EM3" t="s">
         <v>272</v>
       </c>
+      <c r="EU3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="4" spans="1:150">
+    <row r="4" spans="1:153">
       <c r="A4" s="2" t="s">
         <v>273</v>
       </c>
@@ -6156,8 +6517,17 @@
       <c r="EP4" t="s">
         <v>281</v>
       </c>
+      <c r="EU4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="5" spans="1:150">
+    <row r="5" spans="1:153">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -6305,8 +6675,17 @@
       <c r="EN5" t="s">
         <v>287</v>
       </c>
+      <c r="EU5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="6" spans="1:150" ht="30">
+    <row r="6" spans="1:153" ht="30">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -6487,8 +6866,17 @@
       <c r="EM6" t="s">
         <v>271</v>
       </c>
+      <c r="EU6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="7" spans="1:150">
+    <row r="7" spans="1:153">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -6636,8 +7024,17 @@
       <c r="EN7" t="s">
         <v>271</v>
       </c>
+      <c r="EU7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="8" spans="1:150" ht="30">
+    <row r="8" spans="1:153" ht="30">
       <c r="A8" s="2" t="s">
         <v>295</v>
       </c>
@@ -6815,8 +7212,17 @@
       <c r="EM8" t="s">
         <v>302</v>
       </c>
+      <c r="EU8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="9" spans="1:150" ht="30">
+    <row r="9" spans="1:153" ht="30">
       <c r="A9" s="2" t="s">
         <v>303</v>
       </c>
@@ -6991,8 +7397,17 @@
       <c r="EM9" t="s">
         <v>311</v>
       </c>
+      <c r="EU9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="10" spans="1:150">
+    <row r="10" spans="1:153">
       <c r="A10" s="2" t="s">
         <v>313</v>
       </c>
@@ -7140,8 +7555,17 @@
       <c r="EN10" t="s">
         <v>318</v>
       </c>
+      <c r="EU10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="11" spans="1:150" ht="165">
+    <row r="11" spans="1:153" ht="165">
       <c r="A11" s="2" t="s">
         <v>319</v>
       </c>
@@ -7322,8 +7746,17 @@
       <c r="EM11" t="s">
         <v>271</v>
       </c>
+      <c r="EU11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="12" spans="1:150" ht="45">
+    <row r="12" spans="1:153" ht="45">
       <c r="A12" s="2" t="s">
         <v>327</v>
       </c>
@@ -7504,8 +7937,17 @@
       <c r="EM12" t="s">
         <v>271</v>
       </c>
+      <c r="EU12" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="13" spans="1:150" ht="30">
+    <row r="13" spans="1:153" ht="30">
       <c r="A13" s="2" t="s">
         <v>335</v>
       </c>
@@ -7653,8 +8095,17 @@
       <c r="EN13" t="s">
         <v>271</v>
       </c>
+      <c r="EU13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="14" spans="1:150" ht="30">
+    <row r="14" spans="1:153" ht="30">
       <c r="A14" s="2" t="s">
         <v>344</v>
       </c>
@@ -7802,8 +8253,17 @@
       <c r="EN14" t="s">
         <v>271</v>
       </c>
+      <c r="EU14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="15" spans="1:150" ht="30">
+    <row r="15" spans="1:153" ht="30">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -7960,8 +8420,17 @@
       <c r="EP15" t="s">
         <v>353</v>
       </c>
+      <c r="EU15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="16" spans="1:150" ht="30">
+    <row r="16" spans="1:153" ht="30">
       <c r="A16" s="2" t="s">
         <v>354</v>
       </c>
@@ -8118,8 +8587,17 @@
       <c r="EP16" t="s">
         <v>353</v>
       </c>
+      <c r="EU16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="17" spans="1:146" ht="30">
+    <row r="17" spans="1:153" ht="30">
       <c r="A17" s="2" t="s">
         <v>358</v>
       </c>
@@ -8276,8 +8754,17 @@
       <c r="EP17" t="s">
         <v>353</v>
       </c>
+      <c r="EU17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="18" spans="1:146" ht="30">
+    <row r="18" spans="1:153" ht="30">
       <c r="A18" s="2" t="s">
         <v>360</v>
       </c>
@@ -8434,8 +8921,17 @@
       <c r="EP18" t="s">
         <v>353</v>
       </c>
+      <c r="EU18" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW18" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="19" spans="1:146" ht="30">
+    <row r="19" spans="1:153" ht="30">
       <c r="A19" s="2" t="s">
         <v>365</v>
       </c>
@@ -8592,8 +9088,17 @@
       <c r="EP19" t="s">
         <v>353</v>
       </c>
+      <c r="EU19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="20" spans="1:146" ht="30">
+    <row r="20" spans="1:153" ht="30">
       <c r="A20" s="2" t="s">
         <v>368</v>
       </c>
@@ -8750,8 +9255,17 @@
       <c r="EP20" t="s">
         <v>353</v>
       </c>
+      <c r="EU20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="21" spans="1:146" ht="30">
+    <row r="21" spans="1:153" ht="30">
       <c r="A21" s="2" t="s">
         <v>372</v>
       </c>
@@ -8908,8 +9422,17 @@
       <c r="EP21" t="s">
         <v>353</v>
       </c>
+      <c r="EU21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW21" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="22" spans="1:146" ht="30">
+    <row r="22" spans="1:153" ht="30">
       <c r="A22" s="2" t="s">
         <v>373</v>
       </c>
@@ -9066,8 +9589,17 @@
       <c r="EP22" t="s">
         <v>353</v>
       </c>
+      <c r="EU22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW22" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="23" spans="1:146" ht="30">
+    <row r="23" spans="1:153" ht="30">
       <c r="A23" s="2" t="s">
         <v>377</v>
       </c>
@@ -9224,8 +9756,17 @@
       <c r="EP23" t="s">
         <v>353</v>
       </c>
+      <c r="EU23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW23" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="24" spans="1:146" ht="30">
+    <row r="24" spans="1:153" ht="30">
       <c r="A24" s="2" t="s">
         <v>378</v>
       </c>
@@ -9382,8 +9923,17 @@
       <c r="EP24" t="s">
         <v>353</v>
       </c>
+      <c r="EU24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="25" spans="1:146" ht="30">
+    <row r="25" spans="1:153" ht="30">
       <c r="A25" s="2" t="s">
         <v>383</v>
       </c>
@@ -9540,8 +10090,17 @@
       <c r="EP25" t="s">
         <v>353</v>
       </c>
+      <c r="EU25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW25" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="26" spans="1:146" ht="30">
+    <row r="26" spans="1:153" ht="30">
       <c r="A26" s="2" t="s">
         <v>384</v>
       </c>
@@ -9698,8 +10257,17 @@
       <c r="EP26" t="s">
         <v>353</v>
       </c>
+      <c r="EU26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW26" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="27" spans="1:146" ht="30">
+    <row r="27" spans="1:153" ht="30">
       <c r="A27" s="2" t="s">
         <v>389</v>
       </c>
@@ -9856,8 +10424,17 @@
       <c r="EP27" t="s">
         <v>353</v>
       </c>
+      <c r="EU27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="28" spans="1:146" ht="30">
+    <row r="28" spans="1:153" ht="30">
       <c r="A28" s="2" t="s">
         <v>390</v>
       </c>
@@ -10014,8 +10591,17 @@
       <c r="EP28" t="s">
         <v>353</v>
       </c>
+      <c r="EU28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV28" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW28" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="29" spans="1:146" ht="30">
+    <row r="29" spans="1:153" ht="30">
       <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
@@ -10172,8 +10758,17 @@
       <c r="EP29" t="s">
         <v>353</v>
       </c>
+      <c r="EU29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW29" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="30" spans="1:146" ht="30">
+    <row r="30" spans="1:153" ht="30">
       <c r="A30" s="2" t="s">
         <v>396</v>
       </c>
@@ -10330,8 +10925,17 @@
       <c r="EP30" t="s">
         <v>353</v>
       </c>
+      <c r="EU30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW30" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="31" spans="1:146" ht="30">
+    <row r="31" spans="1:153" ht="30">
       <c r="A31" s="2" t="s">
         <v>401</v>
       </c>
@@ -10488,8 +11092,17 @@
       <c r="EP31" t="s">
         <v>353</v>
       </c>
+      <c r="EU31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW31" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="32" spans="1:146" ht="30">
+    <row r="32" spans="1:153" ht="30">
       <c r="A32" s="2" t="s">
         <v>408</v>
       </c>
@@ -10637,8 +11250,17 @@
       <c r="EN32" t="s">
         <v>271</v>
       </c>
+      <c r="EU32" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="33" spans="1:148" ht="30">
+    <row r="33" spans="1:153" ht="30">
       <c r="A33" s="2" t="s">
         <v>413</v>
       </c>
@@ -10789,8 +11411,17 @@
       <c r="EO33" t="s">
         <v>420</v>
       </c>
+      <c r="EU33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="34" spans="1:148" ht="30">
+    <row r="34" spans="1:153" ht="30">
       <c r="A34" s="2" t="s">
         <v>128</v>
       </c>
@@ -10944,8 +11575,17 @@
       <c r="EP34" t="s">
         <v>271</v>
       </c>
+      <c r="EU34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW34" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="35" spans="1:148" ht="30">
+    <row r="35" spans="1:153" ht="30">
       <c r="A35" s="2" t="s">
         <v>423</v>
       </c>
@@ -11099,8 +11739,17 @@
       <c r="EP35" t="s">
         <v>353</v>
       </c>
+      <c r="EU35" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW35" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="36" spans="1:148" ht="30">
+    <row r="36" spans="1:153" ht="30">
       <c r="A36" s="2" t="s">
         <v>132</v>
       </c>
@@ -11254,8 +11903,17 @@
       <c r="EP36" t="s">
         <v>271</v>
       </c>
+      <c r="EU36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW36" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="37" spans="1:148" ht="120">
+    <row r="37" spans="1:153" ht="120">
       <c r="A37" s="2" t="s">
         <v>431</v>
       </c>
@@ -11370,7 +12028,7 @@
       <c r="AR37" t="s">
         <v>220</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AS37" s="7" t="s">
         <v>433</v>
       </c>
       <c r="EE37" t="s">
@@ -11406,8 +12064,17 @@
       <c r="EO37" t="s">
         <v>271</v>
       </c>
+      <c r="EU37" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="38" spans="1:148" ht="135">
+    <row r="38" spans="1:153" ht="135">
       <c r="A38" s="2" t="s">
         <v>448</v>
       </c>
@@ -11762,8 +12429,17 @@
       <c r="ER38" t="s">
         <v>422</v>
       </c>
+      <c r="EU38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV38" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW38" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="39" spans="1:148" ht="75">
+    <row r="39" spans="1:153" ht="75">
       <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
@@ -11992,8 +12668,17 @@
       <c r="ER39" t="s">
         <v>422</v>
       </c>
+      <c r="EU39" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW39" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="40" spans="1:148" ht="75">
+    <row r="40" spans="1:153" ht="75">
       <c r="A40" s="2" t="s">
         <v>514</v>
       </c>
@@ -12219,8 +12904,17 @@
       <c r="ER40" t="s">
         <v>422</v>
       </c>
+      <c r="EU40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV40" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW40" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="41" spans="1:148" ht="75">
+    <row r="41" spans="1:153" ht="75">
       <c r="A41" s="2" t="s">
         <v>520</v>
       </c>
@@ -12449,8 +13143,17 @@
       <c r="ER41" t="s">
         <v>422</v>
       </c>
+      <c r="EU41" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV41" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW41" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="42" spans="1:148" ht="75">
+    <row r="42" spans="1:153" ht="75">
       <c r="A42" s="2" t="s">
         <v>528</v>
       </c>
@@ -12679,8 +13382,17 @@
       <c r="ER42" t="s">
         <v>422</v>
       </c>
+      <c r="EU42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV42" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW42" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="43" spans="1:148" ht="120">
+    <row r="43" spans="1:153" ht="120">
       <c r="A43" s="2" t="s">
         <v>529</v>
       </c>
@@ -12945,8 +13657,17 @@
       <c r="ER43" t="s">
         <v>422</v>
       </c>
+      <c r="EU43" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV43" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW43" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="44" spans="1:148" ht="120">
+    <row r="44" spans="1:153" ht="120">
       <c r="A44" s="2" t="s">
         <v>530</v>
       </c>
@@ -13211,8 +13932,17 @@
       <c r="ER44" t="s">
         <v>422</v>
       </c>
+      <c r="EU44" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV44" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW44" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="45" spans="1:148" ht="120">
+    <row r="45" spans="1:153" ht="120">
       <c r="A45" s="2" t="s">
         <v>531</v>
       </c>
@@ -13477,8 +14207,17 @@
       <c r="ER45" t="s">
         <v>422</v>
       </c>
+      <c r="EU45" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV45" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW45" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="46" spans="1:148" ht="120">
+    <row r="46" spans="1:153" ht="120">
       <c r="A46" s="2" t="s">
         <v>532</v>
       </c>
@@ -13743,8 +14482,17 @@
       <c r="ER46" t="s">
         <v>422</v>
       </c>
+      <c r="EU46" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV46" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW46" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="47" spans="1:148" ht="120">
+    <row r="47" spans="1:153" ht="120">
       <c r="A47" s="2" t="s">
         <v>533</v>
       </c>
@@ -14009,8 +14757,17 @@
       <c r="ER47" t="s">
         <v>422</v>
       </c>
+      <c r="EU47" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV47" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW47" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="48" spans="1:148" ht="120">
+    <row r="48" spans="1:153" ht="120">
       <c r="A48" s="2" t="s">
         <v>534</v>
       </c>
@@ -14275,8 +15032,17 @@
       <c r="ER48" t="s">
         <v>422</v>
       </c>
+      <c r="EU48" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV48" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW48" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="49" spans="1:148" ht="120">
+    <row r="49" spans="1:153" ht="120">
       <c r="A49" s="10" t="s">
         <v>135</v>
       </c>
@@ -14541,8 +15307,17 @@
       <c r="ER49" t="s">
         <v>422</v>
       </c>
+      <c r="EU49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW49" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="50" spans="1:148" ht="120">
+    <row r="50" spans="1:153" ht="120">
       <c r="A50" s="10" t="s">
         <v>136</v>
       </c>
@@ -14867,8 +15642,17 @@
       <c r="ER50" t="s">
         <v>422</v>
       </c>
+      <c r="EU50" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV50" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW50" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="51" spans="1:148" ht="75">
+    <row r="51" spans="1:153" ht="75">
       <c r="A51" s="10" t="s">
         <v>613</v>
       </c>
@@ -15097,8 +15881,17 @@
       <c r="ER51" t="s">
         <v>422</v>
       </c>
+      <c r="EU51" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW51" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="52" spans="1:148" ht="90">
+    <row r="52" spans="1:153" ht="90">
       <c r="A52" s="2" t="s">
         <v>620</v>
       </c>
@@ -15327,8 +16120,17 @@
       <c r="ER52" t="s">
         <v>422</v>
       </c>
+      <c r="EU52" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV52" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW52" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="53" spans="1:148" ht="75">
+    <row r="53" spans="1:153" ht="75">
       <c r="A53" s="2" t="s">
         <v>627</v>
       </c>
@@ -15557,8 +16359,17 @@
       <c r="ER53" t="s">
         <v>422</v>
       </c>
+      <c r="EU53" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW53" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="54" spans="1:148" ht="135">
+    <row r="54" spans="1:153" ht="135">
       <c r="A54" s="2" t="s">
         <v>661</v>
       </c>
@@ -15943,8 +16754,17 @@
       <c r="ER54" t="s">
         <v>422</v>
       </c>
+      <c r="EU54" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV54" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW54" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="55" spans="1:148" ht="120">
+    <row r="55" spans="1:153" ht="120">
       <c r="A55" s="2" t="s">
         <v>662</v>
       </c>
@@ -16269,8 +17089,17 @@
       <c r="ER55" t="s">
         <v>422</v>
       </c>
+      <c r="EU55" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV55" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW55" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="56" spans="1:148" ht="135">
+    <row r="56" spans="1:153" ht="135">
       <c r="A56" s="2" t="s">
         <v>672</v>
       </c>
@@ -16595,8 +17424,17 @@
       <c r="ER56" t="s">
         <v>422</v>
       </c>
+      <c r="EU56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW56" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="57" spans="1:148" ht="120">
+    <row r="57" spans="1:153" ht="120">
       <c r="A57" s="2" t="s">
         <v>680</v>
       </c>
@@ -16951,8 +17789,17 @@
       <c r="ER57" t="s">
         <v>422</v>
       </c>
+      <c r="EU57" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW57" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="58" spans="1:148" ht="75">
+    <row r="58" spans="1:153" ht="75">
       <c r="A58" s="2" t="s">
         <v>681</v>
       </c>
@@ -17181,8 +18028,17 @@
       <c r="ER58" t="s">
         <v>422</v>
       </c>
+      <c r="EU58" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW58" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="59" spans="1:148" ht="120">
+    <row r="59" spans="1:153" ht="120">
       <c r="A59" s="10" t="s">
         <v>682</v>
       </c>
@@ -17447,8 +18303,17 @@
       <c r="ER59" t="s">
         <v>422</v>
       </c>
+      <c r="EU59" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV59" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW59" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="60" spans="1:148" ht="120">
+    <row r="60" spans="1:153" ht="120">
       <c r="A60" s="2" t="s">
         <v>728</v>
       </c>
@@ -17833,8 +18698,17 @@
       <c r="ER60" t="s">
         <v>422</v>
       </c>
+      <c r="EU60" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV60" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW60" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="61" spans="1:148" ht="120">
+    <row r="61" spans="1:153" ht="120">
       <c r="A61" s="2" t="s">
         <v>729</v>
       </c>
@@ -18187,8 +19061,17 @@
       <c r="ER61" t="s">
         <v>422</v>
       </c>
+      <c r="EU61" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV61" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW61" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="62" spans="1:148" ht="120">
+    <row r="62" spans="1:153" ht="120">
       <c r="A62" s="2" t="s">
         <v>683</v>
       </c>
@@ -18573,8 +19456,17 @@
       <c r="ER62" t="s">
         <v>422</v>
       </c>
+      <c r="EU62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV62" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW62" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="63" spans="1:148" ht="120">
+    <row r="63" spans="1:153" ht="120">
       <c r="A63" s="2" t="s">
         <v>752</v>
       </c>
@@ -18929,8 +19821,17 @@
       <c r="ER63" t="s">
         <v>422</v>
       </c>
+      <c r="EU63" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV63" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW63" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="64" spans="1:148" ht="75">
+    <row r="64" spans="1:153" ht="75">
       <c r="A64" s="2" t="s">
         <v>684</v>
       </c>
@@ -19159,8 +20060,17 @@
       <c r="ER64" t="s">
         <v>422</v>
       </c>
+      <c r="EU64" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV64" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW64" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="65" spans="1:148" ht="150">
+    <row r="65" spans="1:153" ht="150">
       <c r="A65" s="2" t="s">
         <v>771</v>
       </c>
@@ -19545,8 +20455,17 @@
       <c r="ER65" t="s">
         <v>422</v>
       </c>
+      <c r="EU65" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV65" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW65" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="66" spans="1:148" ht="120">
+    <row r="66" spans="1:153" ht="120">
       <c r="A66" s="2" t="s">
         <v>789</v>
       </c>
@@ -19873,8 +20792,17 @@
       <c r="ER66" t="s">
         <v>422</v>
       </c>
+      <c r="EU66" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV66" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW66" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="67" spans="1:148" ht="105">
+    <row r="67" spans="1:153" ht="105">
       <c r="A67" s="2" t="s">
         <v>809</v>
       </c>
@@ -20103,8 +21031,17 @@
       <c r="ER67" t="s">
         <v>422</v>
       </c>
+      <c r="EU67" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW67" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="68" spans="1:148" ht="120">
+    <row r="68" spans="1:153" ht="120">
       <c r="A68" s="2" t="s">
         <v>815</v>
       </c>
@@ -20457,8 +21394,17 @@
       <c r="ER68" t="s">
         <v>422</v>
       </c>
+      <c r="EU68" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV68" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW68" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="69" spans="1:148" ht="120">
+    <row r="69" spans="1:153" ht="120">
       <c r="A69" s="2" t="s">
         <v>823</v>
       </c>
@@ -20811,8 +21757,17 @@
       <c r="ER69" t="s">
         <v>422</v>
       </c>
+      <c r="EU69" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV69" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW69" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="70" spans="1:148" ht="135">
+    <row r="70" spans="1:153" ht="135">
       <c r="A70" s="2" t="s">
         <v>810</v>
       </c>
@@ -20942,7 +21897,7 @@
       <c r="AR70" t="s">
         <v>220</v>
       </c>
-      <c r="AS70" s="7" t="s">
+      <c r="AS70" t="s">
         <v>847</v>
       </c>
       <c r="AU70" t="s">
@@ -21227,8 +22182,17 @@
       <c r="ER70" t="s">
         <v>422</v>
       </c>
+      <c r="EU70" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV70" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW70" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="71" spans="1:148" ht="90">
+    <row r="71" spans="1:153" ht="90">
       <c r="A71" s="2" t="s">
         <v>811</v>
       </c>
@@ -21457,8 +22421,17 @@
       <c r="ER71" t="s">
         <v>422</v>
       </c>
+      <c r="EU71" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV71" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW71" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="72" spans="1:148" ht="105">
+    <row r="72" spans="1:153" ht="105">
       <c r="A72" s="2" t="s">
         <v>870</v>
       </c>
@@ -21687,8 +22660,17 @@
       <c r="ER72" t="s">
         <v>422</v>
       </c>
+      <c r="EU72" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV72" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW72" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="73" spans="1:148" ht="120">
+    <row r="73" spans="1:153" ht="120">
       <c r="A73" s="2" t="s">
         <v>871</v>
       </c>
@@ -22074,8 +23056,17 @@
       <c r="ER73" t="s">
         <v>422</v>
       </c>
+      <c r="EU73" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV73" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW73" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="74" spans="1:148" ht="45">
+    <row r="74" spans="1:153" ht="45">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -22235,8 +23226,17 @@
       <c r="EP74" t="s">
         <v>271</v>
       </c>
+      <c r="EU74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV74" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW74" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="75" spans="1:148" ht="300">
+    <row r="75" spans="1:153" ht="300">
       <c r="A75" s="2" t="s">
         <v>923</v>
       </c>
@@ -22351,7 +23351,7 @@
       <c r="AR75" t="s">
         <v>220</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AS75" s="7" t="s">
         <v>53</v>
       </c>
       <c r="AT75" t="s">
@@ -22390,8 +23390,17 @@
       <c r="EO75" t="s">
         <v>271</v>
       </c>
+      <c r="EU75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV75" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW75" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="76" spans="1:148" ht="135">
+    <row r="76" spans="1:153" ht="135">
       <c r="A76" s="2" t="s">
         <v>924</v>
       </c>
@@ -22545,8 +23554,17 @@
       <c r="EO76" t="s">
         <v>271</v>
       </c>
+      <c r="EU76" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV76" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW76" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="77" spans="1:148" ht="60">
+    <row r="77" spans="1:153" ht="60">
       <c r="A77" s="2" t="s">
         <v>930</v>
       </c>
@@ -22703,8 +23721,17 @@
       <c r="EP77" t="s">
         <v>945</v>
       </c>
+      <c r="EU77" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV77" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW77" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="78" spans="1:148" ht="30">
+    <row r="78" spans="1:153" ht="30">
       <c r="A78" s="2" t="s">
         <v>949</v>
       </c>
@@ -22819,7 +23846,7 @@
       <c r="AR78" t="s">
         <v>220</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AS78" s="7" t="s">
         <v>952</v>
       </c>
       <c r="AT78" t="s">
@@ -22855,8 +23882,17 @@
       <c r="EN78" t="s">
         <v>954</v>
       </c>
+      <c r="EU78" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV78" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW78" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="79" spans="1:148" ht="30">
+    <row r="79" spans="1:153" ht="30">
       <c r="A79" s="2" t="s">
         <v>970</v>
       </c>
@@ -23010,8 +24046,17 @@
       <c r="EO79" t="s">
         <v>271</v>
       </c>
+      <c r="EU79" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV79" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW79" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="80" spans="1:148" ht="30">
+    <row r="80" spans="1:153" ht="30">
       <c r="A80" s="2" t="s">
         <v>969</v>
       </c>
@@ -23165,8 +24210,17 @@
       <c r="EO80" t="s">
         <v>271</v>
       </c>
+      <c r="EU80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV80" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW80" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="81" spans="1:149" ht="30">
+    <row r="81" spans="1:153" ht="30">
       <c r="A81" s="2" t="s">
         <v>965</v>
       </c>
@@ -23320,8 +24374,17 @@
       <c r="EO81" t="s">
         <v>271</v>
       </c>
+      <c r="EU81" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV81" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW81" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="82" spans="1:149" ht="30">
+    <row r="82" spans="1:153" ht="30">
       <c r="A82" s="2" t="s">
         <v>971</v>
       </c>
@@ -23475,8 +24538,17 @@
       <c r="EO82" t="s">
         <v>271</v>
       </c>
+      <c r="EU82" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV82" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW82" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="83" spans="1:149" ht="300">
+    <row r="83" spans="1:153" ht="300">
       <c r="A83" s="2" t="s">
         <v>976</v>
       </c>
@@ -23630,8 +24702,17 @@
       <c r="EO83" t="s">
         <v>271</v>
       </c>
+      <c r="EU83" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV83" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW83" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="84" spans="1:149" ht="30">
+    <row r="84" spans="1:153" ht="30">
       <c r="A84" s="2" t="s">
         <v>982</v>
       </c>
@@ -23779,8 +24860,17 @@
       <c r="EM84" t="s">
         <v>271</v>
       </c>
+      <c r="EU84" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV84" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW84" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="85" spans="1:149" ht="30">
+    <row r="85" spans="1:153" ht="30">
       <c r="A85" s="2" t="s">
         <v>986</v>
       </c>
@@ -23931,8 +25021,17 @@
       <c r="EN85" t="s">
         <v>990</v>
       </c>
+      <c r="EU85" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV85" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW85" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="86" spans="1:149" ht="45">
+    <row r="86" spans="1:153" ht="45">
       <c r="A86" s="2" t="s">
         <v>991</v>
       </c>
@@ -24083,8 +25182,17 @@
       <c r="EN86" t="s">
         <v>990</v>
       </c>
+      <c r="EU86" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV86" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW86" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="87" spans="1:149" ht="30">
+    <row r="87" spans="1:153" ht="30">
       <c r="A87" s="2" t="s">
         <v>994</v>
       </c>
@@ -24241,8 +25349,17 @@
       <c r="EP87" t="s">
         <v>1000</v>
       </c>
+      <c r="EU87" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV87" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW87" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="88" spans="1:149" ht="120">
+    <row r="88" spans="1:153" ht="120">
       <c r="A88" s="2" t="s">
         <v>1001</v>
       </c>
@@ -24390,8 +25507,17 @@
       <c r="EM88" t="s">
         <v>271</v>
       </c>
+      <c r="EU88" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV88" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW88" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="89" spans="1:149" ht="120">
+    <row r="89" spans="1:153" ht="120">
       <c r="A89" s="2" t="s">
         <v>1004</v>
       </c>
@@ -24539,8 +25665,17 @@
       <c r="EM89" t="s">
         <v>271</v>
       </c>
+      <c r="EU89" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV89" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW89" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="90" spans="1:149" ht="30">
+    <row r="90" spans="1:153" ht="30">
       <c r="A90" s="2" t="s">
         <v>1009</v>
       </c>
@@ -24700,8 +25835,17 @@
       <c r="EQ90" t="s">
         <v>1016</v>
       </c>
+      <c r="EU90" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV90" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW90" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="91" spans="1:149" ht="45">
+    <row r="91" spans="1:153" ht="45">
       <c r="A91" s="2" t="s">
         <v>1017</v>
       </c>
@@ -24870,8 +26014,17 @@
       <c r="ES91" t="s">
         <v>1026</v>
       </c>
+      <c r="EU91" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV91" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW91" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="92" spans="1:149" ht="45">
+    <row r="92" spans="1:153" ht="45">
       <c r="A92" s="2" t="s">
         <v>1028</v>
       </c>
@@ -25040,8 +26193,17 @@
       <c r="ES92" t="s">
         <v>1031</v>
       </c>
+      <c r="EU92" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV92" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW92" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="93" spans="1:149" ht="45">
+    <row r="93" spans="1:153" ht="45">
       <c r="A93" s="2" t="s">
         <v>1032</v>
       </c>
@@ -25210,8 +26372,17 @@
       <c r="ES93" t="s">
         <v>1031</v>
       </c>
+      <c r="EU93" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV93" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW93" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="94" spans="1:149" ht="45">
+    <row r="94" spans="1:153" ht="45">
       <c r="A94" s="2" t="s">
         <v>1037</v>
       </c>
@@ -25380,8 +26551,17 @@
       <c r="ES94" t="s">
         <v>1042</v>
       </c>
+      <c r="EU94" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV94" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW94" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="95" spans="1:149" ht="45">
+    <row r="95" spans="1:153" ht="45">
       <c r="A95" s="2" t="s">
         <v>1043</v>
       </c>
@@ -25547,8 +26727,17 @@
       <c r="ER95" t="s">
         <v>1027</v>
       </c>
+      <c r="EU95" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV95" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW95" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="96" spans="1:149" ht="45">
+    <row r="96" spans="1:153" ht="45">
       <c r="A96" s="2" t="s">
         <v>1050</v>
       </c>
@@ -25714,8 +26903,17 @@
       <c r="ER96" t="s">
         <v>1027</v>
       </c>
+      <c r="EU96" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV96" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW96" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="97" spans="1:150" ht="45">
+    <row r="97" spans="1:153" ht="45">
       <c r="A97" s="2" t="s">
         <v>1054</v>
       </c>
@@ -25881,8 +27079,17 @@
       <c r="ER97" t="s">
         <v>1027</v>
       </c>
+      <c r="EU97" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV97" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW97" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="98" spans="1:150" ht="60">
+    <row r="98" spans="1:153" ht="60">
       <c r="A98" s="2" t="s">
         <v>1058</v>
       </c>
@@ -26051,8 +27258,17 @@
       <c r="ES98" t="s">
         <v>1064</v>
       </c>
+      <c r="EU98" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV98" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW98" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="99" spans="1:150" ht="60">
+    <row r="99" spans="1:153" ht="60">
       <c r="A99" s="2" t="s">
         <v>1065</v>
       </c>
@@ -26221,8 +27437,17 @@
       <c r="ES99" t="s">
         <v>1068</v>
       </c>
+      <c r="EU99" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV99" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW99" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="100" spans="1:150" ht="60">
+    <row r="100" spans="1:153" ht="60">
       <c r="A100" s="2" t="s">
         <v>1069</v>
       </c>
@@ -26394,8 +27619,17 @@
       <c r="ET100" t="s">
         <v>1077</v>
       </c>
+      <c r="EU100" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV100" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW100" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="101" spans="1:150" ht="60">
+    <row r="101" spans="1:153" ht="60">
       <c r="A101" s="2" t="s">
         <v>1078</v>
       </c>
@@ -26567,8 +27801,17 @@
       <c r="ET101" t="s">
         <v>1077</v>
       </c>
+      <c r="EU101" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV101" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW101" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="102" spans="1:150" ht="30">
+    <row r="102" spans="1:153" ht="30">
       <c r="A102" s="2" t="s">
         <v>1087</v>
       </c>
@@ -26722,8 +27965,17 @@
       <c r="EN102" t="s">
         <v>1086</v>
       </c>
+      <c r="EU102" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV102" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW102" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="103" spans="1:150" ht="45">
+    <row r="103" spans="1:153" ht="45">
       <c r="A103" s="2" t="s">
         <v>1088</v>
       </c>
@@ -26880,8 +28132,17 @@
       <c r="EO103" t="s">
         <v>1108</v>
       </c>
+      <c r="EU103" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV103" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW103" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="104" spans="1:150" ht="30">
+    <row r="104" spans="1:153" ht="30">
       <c r="A104" s="2" t="s">
         <v>1094</v>
       </c>
@@ -27038,8 +28299,17 @@
       <c r="EO104" t="s">
         <v>1100</v>
       </c>
+      <c r="EU104" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV104" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW104" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="105" spans="1:150" ht="30">
+    <row r="105" spans="1:153" ht="30">
       <c r="A105" s="2" t="s">
         <v>1101</v>
       </c>
@@ -27193,8 +28463,17 @@
       <c r="EN105" t="s">
         <v>1106</v>
       </c>
+      <c r="EU105" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV105" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW105" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="106" spans="1:150" ht="60">
+    <row r="106" spans="1:153" ht="60">
       <c r="A106" s="2" t="s">
         <v>1109</v>
       </c>
@@ -27363,8 +28642,17 @@
       <c r="ES106" t="s">
         <v>1099</v>
       </c>
+      <c r="EU106" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV106" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW106" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="107" spans="1:150" ht="45">
+    <row r="107" spans="1:153" ht="45">
       <c r="A107" s="2" t="s">
         <v>1117</v>
       </c>
@@ -27521,8 +28809,17 @@
       <c r="EO107" t="s">
         <v>1126</v>
       </c>
+      <c r="EU107" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV107" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW107" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="108" spans="1:150" ht="30">
+    <row r="108" spans="1:153" ht="30">
       <c r="A108" s="2" t="s">
         <v>1122</v>
       </c>
@@ -27678,6 +28975,3933 @@
       </c>
       <c r="EO108" t="s">
         <v>1127</v>
+      </c>
+      <c r="EU108" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EV108" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:153" ht="45">
+      <c r="A109" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G109" t="s">
+        <v>203</v>
+      </c>
+      <c r="J109" t="s">
+        <v>205</v>
+      </c>
+      <c r="L109" t="s">
+        <v>56</v>
+      </c>
+      <c r="M109" t="s">
+        <v>218</v>
+      </c>
+      <c r="R109">
+        <v>-52</v>
+      </c>
+      <c r="S109">
+        <v>-68</v>
+      </c>
+      <c r="T109">
+        <v>61</v>
+      </c>
+      <c r="U109">
+        <v>46.5</v>
+      </c>
+      <c r="V109" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W109" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y109" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF109" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG109" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH109" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO109" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS109" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE109" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF109" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG109" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH109" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI109" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ109" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK109" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL109" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM109" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN109" t="s">
+        <v>1172</v>
+      </c>
+      <c r="EU109" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV109" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:153" ht="45">
+      <c r="A110" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F110" t="s">
+        <v>202</v>
+      </c>
+      <c r="G110" t="s">
+        <v>203</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>56</v>
+      </c>
+      <c r="M110" t="s">
+        <v>218</v>
+      </c>
+      <c r="R110">
+        <v>-52</v>
+      </c>
+      <c r="S110">
+        <v>-68</v>
+      </c>
+      <c r="T110">
+        <v>61</v>
+      </c>
+      <c r="U110">
+        <v>46.5</v>
+      </c>
+      <c r="V110" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W110" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y110" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z110" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF110" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG110" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH110" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO110" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS110" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AT110" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE110" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF110" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG110" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH110" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI110" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ110" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK110" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL110" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM110" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN110" t="s">
+        <v>156</v>
+      </c>
+      <c r="EO110" t="s">
+        <v>1177</v>
+      </c>
+      <c r="EP110" t="s">
+        <v>1178</v>
+      </c>
+      <c r="EU110" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV110" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:153" ht="45">
+      <c r="A111" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F111" t="s">
+        <v>202</v>
+      </c>
+      <c r="G111" t="s">
+        <v>203</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>56</v>
+      </c>
+      <c r="M111" t="s">
+        <v>218</v>
+      </c>
+      <c r="R111">
+        <v>-52</v>
+      </c>
+      <c r="S111">
+        <v>-68</v>
+      </c>
+      <c r="T111">
+        <v>61</v>
+      </c>
+      <c r="U111">
+        <v>46.5</v>
+      </c>
+      <c r="V111" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W111" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y111" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z111" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF111" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG111" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH111" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO111" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS111" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AT111" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE111" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF111" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG111" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH111" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI111" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ111" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK111" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL111" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM111" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN111" t="s">
+        <v>156</v>
+      </c>
+      <c r="EO111" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EU111" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV111" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:153" ht="45">
+      <c r="A112" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F112" t="s">
+        <v>202</v>
+      </c>
+      <c r="G112" t="s">
+        <v>203</v>
+      </c>
+      <c r="J112" t="s">
+        <v>205</v>
+      </c>
+      <c r="L112" t="s">
+        <v>56</v>
+      </c>
+      <c r="M112" t="s">
+        <v>218</v>
+      </c>
+      <c r="R112">
+        <v>-52</v>
+      </c>
+      <c r="S112">
+        <v>-68</v>
+      </c>
+      <c r="T112">
+        <v>61</v>
+      </c>
+      <c r="U112">
+        <v>46.5</v>
+      </c>
+      <c r="V112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W112" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y112" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z112" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF112" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG112" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH112" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO112" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS112" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE112" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF112" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG112" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH112" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI112" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ112" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK112" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL112" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM112" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN112" t="s">
+        <v>1186</v>
+      </c>
+      <c r="EO112" t="s">
+        <v>1187</v>
+      </c>
+      <c r="EU112" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV112" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:153" ht="45">
+      <c r="A113" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G113" t="s">
+        <v>203</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>56</v>
+      </c>
+      <c r="M113" t="s">
+        <v>218</v>
+      </c>
+      <c r="R113">
+        <v>-52</v>
+      </c>
+      <c r="S113">
+        <v>-68</v>
+      </c>
+      <c r="T113">
+        <v>61</v>
+      </c>
+      <c r="U113">
+        <v>46.5</v>
+      </c>
+      <c r="V113" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y113" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z113" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF113" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG113" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH113" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO113" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS113" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AT113" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE113" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF113" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG113" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH113" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI113" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ113" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK113" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL113" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM113" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN113" t="s">
+        <v>1191</v>
+      </c>
+      <c r="EU113" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV113" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:153" ht="45">
+      <c r="A114" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F114" t="s">
+        <v>202</v>
+      </c>
+      <c r="G114" t="s">
+        <v>203</v>
+      </c>
+      <c r="J114" t="s">
+        <v>205</v>
+      </c>
+      <c r="L114" t="s">
+        <v>56</v>
+      </c>
+      <c r="M114" t="s">
+        <v>218</v>
+      </c>
+      <c r="R114">
+        <v>-52</v>
+      </c>
+      <c r="S114">
+        <v>-68</v>
+      </c>
+      <c r="T114">
+        <v>61</v>
+      </c>
+      <c r="U114">
+        <v>46.5</v>
+      </c>
+      <c r="V114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W114" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y114" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z114" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF114" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG114" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH114" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO114" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ114" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR114" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS114" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AT114" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE114" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF114" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG114" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH114" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI114" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ114" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK114" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL114" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM114" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN114" t="s">
+        <v>1195</v>
+      </c>
+      <c r="EU114" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV114" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:153" ht="45">
+      <c r="A115" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F115" t="s">
+        <v>202</v>
+      </c>
+      <c r="G115" t="s">
+        <v>203</v>
+      </c>
+      <c r="J115" t="s">
+        <v>205</v>
+      </c>
+      <c r="L115" t="s">
+        <v>56</v>
+      </c>
+      <c r="M115" t="s">
+        <v>218</v>
+      </c>
+      <c r="R115">
+        <v>-52</v>
+      </c>
+      <c r="S115">
+        <v>-68</v>
+      </c>
+      <c r="T115">
+        <v>61</v>
+      </c>
+      <c r="U115">
+        <v>46.5</v>
+      </c>
+      <c r="V115" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W115" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y115" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z115" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF115" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG115" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH115" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO115" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS115" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE115" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF115" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG115" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH115" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI115" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ115" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK115" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL115" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM115" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN115" t="s">
+        <v>1199</v>
+      </c>
+      <c r="EU115" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV115" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:153" ht="45">
+      <c r="A116" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F116" t="s">
+        <v>202</v>
+      </c>
+      <c r="G116" t="s">
+        <v>203</v>
+      </c>
+      <c r="J116" t="s">
+        <v>205</v>
+      </c>
+      <c r="L116" t="s">
+        <v>56</v>
+      </c>
+      <c r="M116" t="s">
+        <v>218</v>
+      </c>
+      <c r="R116">
+        <v>-52</v>
+      </c>
+      <c r="S116">
+        <v>-68</v>
+      </c>
+      <c r="T116">
+        <v>61</v>
+      </c>
+      <c r="U116">
+        <v>46.5</v>
+      </c>
+      <c r="V116" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W116" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y116" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z116" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF116" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG116" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH116" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO116" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS116" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AT116" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE116" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF116" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG116" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH116" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI116" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ116" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK116" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL116" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM116" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN116" t="s">
+        <v>1203</v>
+      </c>
+      <c r="EU116" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV116" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:153" ht="45">
+      <c r="A117" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F117" t="s">
+        <v>202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>203</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>56</v>
+      </c>
+      <c r="M117" t="s">
+        <v>218</v>
+      </c>
+      <c r="R117">
+        <v>-52</v>
+      </c>
+      <c r="S117">
+        <v>-68</v>
+      </c>
+      <c r="T117">
+        <v>61</v>
+      </c>
+      <c r="U117">
+        <v>46.5</v>
+      </c>
+      <c r="V117" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W117" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y117" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z117" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF117" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG117" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH117" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO117" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS117" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE117" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF117" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG117" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH117" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI117" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ117" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK117" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL117" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM117" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN117" t="s">
+        <v>1207</v>
+      </c>
+      <c r="EU117" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV117" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:153" ht="45">
+      <c r="A118" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F118" t="s">
+        <v>202</v>
+      </c>
+      <c r="G118" t="s">
+        <v>203</v>
+      </c>
+      <c r="J118" t="s">
+        <v>205</v>
+      </c>
+      <c r="L118" t="s">
+        <v>56</v>
+      </c>
+      <c r="M118" t="s">
+        <v>218</v>
+      </c>
+      <c r="R118">
+        <v>-52</v>
+      </c>
+      <c r="S118">
+        <v>-68</v>
+      </c>
+      <c r="T118">
+        <v>61</v>
+      </c>
+      <c r="U118">
+        <v>46.5</v>
+      </c>
+      <c r="V118" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W118" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y118" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z118" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF118" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG118" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH118" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO118" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS118" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE118" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF118" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG118" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH118" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI118" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ118" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK118" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL118" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN118" t="s">
+        <v>1211</v>
+      </c>
+      <c r="EU118" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV118" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:153" ht="45">
+      <c r="A119" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G119" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>56</v>
+      </c>
+      <c r="M119" t="s">
+        <v>218</v>
+      </c>
+      <c r="R119">
+        <v>-52</v>
+      </c>
+      <c r="S119">
+        <v>-68</v>
+      </c>
+      <c r="T119">
+        <v>61</v>
+      </c>
+      <c r="U119">
+        <v>46.5</v>
+      </c>
+      <c r="V119" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W119" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y119" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z119" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF119" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG119" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH119" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO119" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS119" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE119" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF119" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG119" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH119" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI119" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ119" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK119" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL119" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM119" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN119" t="s">
+        <v>1214</v>
+      </c>
+      <c r="EU119" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV119" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:153" ht="45">
+      <c r="A120" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F120" t="s">
+        <v>202</v>
+      </c>
+      <c r="G120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J120" t="s">
+        <v>205</v>
+      </c>
+      <c r="L120" t="s">
+        <v>56</v>
+      </c>
+      <c r="M120" t="s">
+        <v>218</v>
+      </c>
+      <c r="R120">
+        <v>-52</v>
+      </c>
+      <c r="S120">
+        <v>-68</v>
+      </c>
+      <c r="T120">
+        <v>61</v>
+      </c>
+      <c r="U120">
+        <v>46.5</v>
+      </c>
+      <c r="V120" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W120" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y120" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z120" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF120" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG120" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH120" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO120" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE120" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF120" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG120" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH120" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI120" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ120" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK120" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL120" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM120" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN120" t="s">
+        <v>467</v>
+      </c>
+      <c r="EU120" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV120" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:153" ht="45">
+      <c r="A121" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F121" t="s">
+        <v>202</v>
+      </c>
+      <c r="G121" t="s">
+        <v>203</v>
+      </c>
+      <c r="J121" t="s">
+        <v>205</v>
+      </c>
+      <c r="L121" t="s">
+        <v>56</v>
+      </c>
+      <c r="M121" t="s">
+        <v>218</v>
+      </c>
+      <c r="R121">
+        <v>-52</v>
+      </c>
+      <c r="S121">
+        <v>-68</v>
+      </c>
+      <c r="T121">
+        <v>61</v>
+      </c>
+      <c r="U121">
+        <v>46.5</v>
+      </c>
+      <c r="V121" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W121" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y121" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z121" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF121" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG121" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH121" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO121" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE121" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF121" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG121" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH121" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI121" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ121" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK121" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL121" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM121" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN121" t="s">
+        <v>1219</v>
+      </c>
+      <c r="EU121" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV121" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:153" ht="45">
+      <c r="A122" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F122" t="s">
+        <v>202</v>
+      </c>
+      <c r="G122" t="s">
+        <v>203</v>
+      </c>
+      <c r="J122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" t="s">
+        <v>56</v>
+      </c>
+      <c r="M122" t="s">
+        <v>218</v>
+      </c>
+      <c r="R122">
+        <v>-52</v>
+      </c>
+      <c r="S122">
+        <v>-68</v>
+      </c>
+      <c r="T122">
+        <v>61</v>
+      </c>
+      <c r="U122">
+        <v>46.5</v>
+      </c>
+      <c r="V122" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W122" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y122" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z122" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF122" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG122" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH122" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO122" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS122" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT122" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE122" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF122" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG122" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH122" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI122" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ122" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK122" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL122" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM122" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN122" t="s">
+        <v>1222</v>
+      </c>
+      <c r="EU122" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV122" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW122" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:153" ht="45">
+      <c r="A123" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F123" t="s">
+        <v>202</v>
+      </c>
+      <c r="G123" t="s">
+        <v>203</v>
+      </c>
+      <c r="J123" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" t="s">
+        <v>56</v>
+      </c>
+      <c r="M123" t="s">
+        <v>218</v>
+      </c>
+      <c r="R123">
+        <v>-52</v>
+      </c>
+      <c r="S123">
+        <v>-68</v>
+      </c>
+      <c r="T123">
+        <v>61</v>
+      </c>
+      <c r="U123">
+        <v>46.5</v>
+      </c>
+      <c r="V123" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W123" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y123" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z123" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF123" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG123" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH123" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO123" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT123" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE123" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF123" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG123" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH123" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI123" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ123" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK123" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL123" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM123" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN123" t="s">
+        <v>1225</v>
+      </c>
+      <c r="EU123" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV123" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:153" ht="45">
+      <c r="A124" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F124" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" t="s">
+        <v>203</v>
+      </c>
+      <c r="J124" t="s">
+        <v>205</v>
+      </c>
+      <c r="L124" t="s">
+        <v>56</v>
+      </c>
+      <c r="M124" t="s">
+        <v>218</v>
+      </c>
+      <c r="R124">
+        <v>-52</v>
+      </c>
+      <c r="S124">
+        <v>-68</v>
+      </c>
+      <c r="T124">
+        <v>61</v>
+      </c>
+      <c r="U124">
+        <v>46.5</v>
+      </c>
+      <c r="V124" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y124" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z124" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF124" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG124" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH124" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO124" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS124" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE124" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF124" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG124" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH124" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI124" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ124" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK124" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL124" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM124" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN124" t="s">
+        <v>1228</v>
+      </c>
+      <c r="EU124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV124" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW124" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:153" ht="45">
+      <c r="A125" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F125" t="s">
+        <v>202</v>
+      </c>
+      <c r="G125" t="s">
+        <v>203</v>
+      </c>
+      <c r="J125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L125" t="s">
+        <v>56</v>
+      </c>
+      <c r="M125" t="s">
+        <v>218</v>
+      </c>
+      <c r="R125">
+        <v>-52</v>
+      </c>
+      <c r="S125">
+        <v>-68</v>
+      </c>
+      <c r="T125">
+        <v>61</v>
+      </c>
+      <c r="U125">
+        <v>46.5</v>
+      </c>
+      <c r="V125" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W125" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y125" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z125" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF125" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG125" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH125" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO125" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS125" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE125" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF125" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG125" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH125" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI125" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ125" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK125" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL125" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM125" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN125" t="s">
+        <v>1231</v>
+      </c>
+      <c r="EU125" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV125" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW125" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:153" ht="45">
+      <c r="A126" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F126" t="s">
+        <v>202</v>
+      </c>
+      <c r="G126" t="s">
+        <v>203</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>56</v>
+      </c>
+      <c r="M126" t="s">
+        <v>218</v>
+      </c>
+      <c r="R126">
+        <v>-52</v>
+      </c>
+      <c r="S126">
+        <v>-68</v>
+      </c>
+      <c r="T126">
+        <v>61</v>
+      </c>
+      <c r="U126">
+        <v>46.5</v>
+      </c>
+      <c r="V126" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W126" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y126" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z126" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF126" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG126" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH126" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO126" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS126" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE126" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF126" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG126" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH126" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI126" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ126" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK126" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL126" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM126" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EU126" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV126" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW126" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:153" ht="45">
+      <c r="A127" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F127" t="s">
+        <v>202</v>
+      </c>
+      <c r="G127" t="s">
+        <v>203</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s">
+        <v>56</v>
+      </c>
+      <c r="M127" t="s">
+        <v>218</v>
+      </c>
+      <c r="R127">
+        <v>-52</v>
+      </c>
+      <c r="S127">
+        <v>-68</v>
+      </c>
+      <c r="T127">
+        <v>61</v>
+      </c>
+      <c r="U127">
+        <v>46.5</v>
+      </c>
+      <c r="V127" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W127" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y127" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z127" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF127" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG127" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH127" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN127" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO127" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS127" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE127" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF127" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG127" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH127" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI127" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ127" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK127" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL127" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM127" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN127" t="s">
+        <v>274</v>
+      </c>
+      <c r="EU127" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV127" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:153" ht="45">
+      <c r="A128" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F128" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" t="s">
+        <v>203</v>
+      </c>
+      <c r="J128" t="s">
+        <v>205</v>
+      </c>
+      <c r="L128" t="s">
+        <v>56</v>
+      </c>
+      <c r="M128" t="s">
+        <v>218</v>
+      </c>
+      <c r="R128">
+        <v>-52</v>
+      </c>
+      <c r="S128">
+        <v>-68</v>
+      </c>
+      <c r="T128">
+        <v>61</v>
+      </c>
+      <c r="U128">
+        <v>46.5</v>
+      </c>
+      <c r="V128" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W128" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y128" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z128" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF128" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG128" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH128" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO128" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS128" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE128" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF128" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG128" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH128" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI128" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ128" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK128" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL128" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM128" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN128" t="s">
+        <v>1238</v>
+      </c>
+      <c r="EO128" t="s">
+        <v>1239</v>
+      </c>
+      <c r="EU128" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV128" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:153" ht="45">
+      <c r="A129" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F129" t="s">
+        <v>202</v>
+      </c>
+      <c r="G129" t="s">
+        <v>203</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>56</v>
+      </c>
+      <c r="M129" t="s">
+        <v>218</v>
+      </c>
+      <c r="R129">
+        <v>-52</v>
+      </c>
+      <c r="S129">
+        <v>-68</v>
+      </c>
+      <c r="T129">
+        <v>61</v>
+      </c>
+      <c r="U129">
+        <v>46.5</v>
+      </c>
+      <c r="V129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W129" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y129" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z129" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF129" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG129" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH129" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN129" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO129" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS129" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT129" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE129" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF129" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG129" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH129" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI129" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ129" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK129" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL129" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM129" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN129" t="s">
+        <v>1242</v>
+      </c>
+      <c r="EO129" t="s">
+        <v>1243</v>
+      </c>
+      <c r="EU129" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:153" ht="45">
+      <c r="A130" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G130" t="s">
+        <v>203</v>
+      </c>
+      <c r="J130" t="s">
+        <v>205</v>
+      </c>
+      <c r="L130" t="s">
+        <v>56</v>
+      </c>
+      <c r="M130" t="s">
+        <v>218</v>
+      </c>
+      <c r="R130">
+        <v>-52</v>
+      </c>
+      <c r="S130">
+        <v>-68</v>
+      </c>
+      <c r="T130">
+        <v>61</v>
+      </c>
+      <c r="U130">
+        <v>46.5</v>
+      </c>
+      <c r="V130" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W130" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y130" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z130" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF130" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG130" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH130" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN130" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO130" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR130" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS130" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AT130" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE130" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF130" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG130" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH130" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI130" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ130" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK130" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL130" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM130" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN130" t="s">
+        <v>1247</v>
+      </c>
+      <c r="EO130" t="s">
+        <v>1248</v>
+      </c>
+      <c r="EU130" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV130" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW130" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:153" ht="45">
+      <c r="A131" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F131" t="s">
+        <v>202</v>
+      </c>
+      <c r="G131" t="s">
+        <v>203</v>
+      </c>
+      <c r="J131" t="s">
+        <v>205</v>
+      </c>
+      <c r="L131" t="s">
+        <v>56</v>
+      </c>
+      <c r="M131" t="s">
+        <v>218</v>
+      </c>
+      <c r="R131">
+        <v>-52</v>
+      </c>
+      <c r="S131">
+        <v>-68</v>
+      </c>
+      <c r="T131">
+        <v>61</v>
+      </c>
+      <c r="U131">
+        <v>46.5</v>
+      </c>
+      <c r="V131" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W131" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y131" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF131" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG131" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH131" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO131" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS131" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE131" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF131" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG131" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH131" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI131" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ131" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK131" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL131" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM131" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN131" t="s">
+        <v>1252</v>
+      </c>
+      <c r="EU131" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV131" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:153" ht="45">
+      <c r="A132" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F132" t="s">
+        <v>202</v>
+      </c>
+      <c r="G132" t="s">
+        <v>203</v>
+      </c>
+      <c r="J132" t="s">
+        <v>205</v>
+      </c>
+      <c r="L132" t="s">
+        <v>56</v>
+      </c>
+      <c r="M132" t="s">
+        <v>218</v>
+      </c>
+      <c r="R132">
+        <v>-52</v>
+      </c>
+      <c r="S132">
+        <v>-68</v>
+      </c>
+      <c r="T132">
+        <v>61</v>
+      </c>
+      <c r="U132">
+        <v>46.5</v>
+      </c>
+      <c r="V132" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W132" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y132" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z132" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF132" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG132" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH132" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN132" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO132" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AP132" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR132" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS132" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AT132" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE132" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF132" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG132" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH132" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI132" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ132" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK132" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL132" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM132" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN132" t="s">
+        <v>1256</v>
+      </c>
+      <c r="EU132" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV132" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW132" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:153" ht="45">
+      <c r="A133" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F133" t="s">
+        <v>202</v>
+      </c>
+      <c r="G133" t="s">
+        <v>203</v>
+      </c>
+      <c r="J133" t="s">
+        <v>205</v>
+      </c>
+      <c r="L133" t="s">
+        <v>56</v>
+      </c>
+      <c r="M133" t="s">
+        <v>218</v>
+      </c>
+      <c r="R133">
+        <v>-52</v>
+      </c>
+      <c r="S133">
+        <v>-68</v>
+      </c>
+      <c r="T133">
+        <v>61</v>
+      </c>
+      <c r="U133">
+        <v>46.5</v>
+      </c>
+      <c r="V133" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W133" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y133" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z133" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF133" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG133" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH133" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN133" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO133" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR133" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS133" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AT133" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE133" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF133" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG133" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH133" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI133" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ133" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK133" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL133" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM133" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN133" t="s">
+        <v>1260</v>
+      </c>
+      <c r="EU133" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV133" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:153" ht="45">
+      <c r="A134" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F134" t="s">
+        <v>202</v>
+      </c>
+      <c r="G134" t="s">
+        <v>203</v>
+      </c>
+      <c r="J134" t="s">
+        <v>205</v>
+      </c>
+      <c r="L134" t="s">
+        <v>56</v>
+      </c>
+      <c r="M134" t="s">
+        <v>218</v>
+      </c>
+      <c r="R134">
+        <v>-52</v>
+      </c>
+      <c r="S134">
+        <v>-68</v>
+      </c>
+      <c r="T134">
+        <v>61</v>
+      </c>
+      <c r="U134">
+        <v>46.5</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W134" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y134" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z134" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF134" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AG134" s="14">
+        <v>36526</v>
+      </c>
+      <c r="AH134" s="14">
+        <v>36892</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO134" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS134" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE134" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF134" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG134" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH134" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI134" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EJ134" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK134" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL134" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EM134" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EN134" t="s">
+        <v>1264</v>
+      </c>
+      <c r="EU134" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EV134" t="s">
+        <v>1161</v>
+      </c>
+      <c r="EW134" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -27758,10 +32982,39 @@
     <hyperlink ref="Y78" r:id="rId71"/>
     <hyperlink ref="Y91" r:id="rId72"/>
     <hyperlink ref="Y90" r:id="rId73"/>
-    <hyperlink ref="Y92" r:id="rId74"/>
-    <hyperlink ref="AS70" r:id="rId75"/>
+    <hyperlink ref="AS75" r:id="rId74"/>
+    <hyperlink ref="AS78" r:id="rId75"/>
+    <hyperlink ref="AS37" r:id="rId76"/>
+    <hyperlink ref="AS106" r:id="rId77"/>
+    <hyperlink ref="AS107" r:id="rId78"/>
+    <hyperlink ref="AS109" r:id="rId79"/>
+    <hyperlink ref="AS110" r:id="rId80"/>
+    <hyperlink ref="AS111" r:id="rId81"/>
+    <hyperlink ref="AS112" r:id="rId82"/>
+    <hyperlink ref="AS113" r:id="rId83"/>
+    <hyperlink ref="AS114" r:id="rId84"/>
+    <hyperlink ref="AS115" r:id="rId85"/>
+    <hyperlink ref="AS116" r:id="rId86"/>
+    <hyperlink ref="AS117" r:id="rId87"/>
+    <hyperlink ref="AS118" r:id="rId88"/>
+    <hyperlink ref="AS119" r:id="rId89"/>
+    <hyperlink ref="AS120" r:id="rId90"/>
+    <hyperlink ref="AS121" r:id="rId91"/>
+    <hyperlink ref="AS122" r:id="rId92"/>
+    <hyperlink ref="AS123" r:id="rId93"/>
+    <hyperlink ref="AS124" r:id="rId94"/>
+    <hyperlink ref="AS125" r:id="rId95"/>
+    <hyperlink ref="AS126" r:id="rId96"/>
+    <hyperlink ref="AS127" r:id="rId97"/>
+    <hyperlink ref="AS128" r:id="rId98"/>
+    <hyperlink ref="AS129" r:id="rId99"/>
+    <hyperlink ref="AS130" r:id="rId100"/>
+    <hyperlink ref="AS131" r:id="rId101"/>
+    <hyperlink ref="AS132" r:id="rId102"/>
+    <hyperlink ref="AS133" r:id="rId103"/>
+    <hyperlink ref="AS134" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId76"/>
+  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId105"/>
 </worksheet>
 </file>